--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -811,10 +811,7 @@
       <c r="E10" s="9">
         <v>6195</v>
       </c>
-      <c r="F10" s="28">
-        <f>E10</f>
-        <v>6195</v>
-      </c>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
@@ -831,8 +828,8 @@
         <v>6195</v>
       </c>
       <c r="F11" s="28">
-        <f>E11</f>
-        <v>6195</v>
+        <f>E10+E11</f>
+        <v>12390</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Sr. No</t>
   </si>
@@ -80,15 +80,6 @@
     <t>Putzmeister Concrete Machines Pvt Ltd</t>
   </si>
   <si>
-    <t>b22-23MQ209</t>
-  </si>
-  <si>
-    <t>Marcfremoit</t>
-  </si>
-  <si>
-    <t>b22-23MQ209A</t>
-  </si>
-  <si>
     <t>b22-23MQ304</t>
   </si>
   <si>
@@ -98,12 +89,6 @@
     <t>Namrata Rubber Product</t>
   </si>
   <si>
-    <t>b22-23MQ319</t>
-  </si>
-  <si>
-    <t>Renaldo</t>
-  </si>
-  <si>
     <t>Shruti Infotech</t>
   </si>
   <si>
@@ -125,9 +110,6 @@
     <t>b22-23MQ403</t>
   </si>
   <si>
-    <t>GST filed</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -170,16 +152,19 @@
     <t>2022-23/15121</t>
   </si>
   <si>
-    <t>b22-23MQ431</t>
-  </si>
-  <si>
-    <t>b22-23MQ432</t>
-  </si>
-  <si>
     <t>500/22-23</t>
   </si>
   <si>
     <t>507/22-23</t>
+  </si>
+  <si>
+    <t>07/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ101</t>
+  </si>
+  <si>
+    <t>b23-24MQ102</t>
   </si>
 </sst>
 </file>
@@ -232,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -255,48 +240,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -380,15 +328,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -671,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -719,10 +658,10 @@
         <v>44926</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E2" s="9">
         <v>10502</v>
@@ -743,7 +682,7 @@
         <v>2110702569</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" s="23">
         <v>954472.53</v>
@@ -761,10 +700,10 @@
         <v>44946</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E6" s="23">
         <v>23777</v>
@@ -782,10 +721,10 @@
         <v>44991</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8" s="9">
         <v>38527</v>
@@ -803,10 +742,10 @@
         <v>44998</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" s="9">
         <v>6195</v>
@@ -819,10 +758,10 @@
         <v>45008</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E11" s="9">
         <v>6195</v>
@@ -840,10 +779,10 @@
         <v>45008</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" s="9">
         <v>38769</v>
@@ -856,17 +795,33 @@
         <v>45013</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" s="9">
         <v>87745</v>
       </c>
-      <c r="F14" s="28">
-        <f>E13+E14</f>
-        <v>126514</v>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3">
+        <v>45020</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2649</v>
+      </c>
+      <c r="F15" s="28">
+        <f>E13+E14+E15</f>
+        <v>129163</v>
       </c>
     </row>
   </sheetData>
@@ -877,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -896,7 +851,7 @@
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -932,7 +887,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -942,7 +897,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -950,7 +905,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -958,7 +913,7 @@
         <v>44932</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>14</v>
@@ -968,13 +923,13 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>14</v>
@@ -984,13 +939,13 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>14</v>
@@ -1000,47 +955,47 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
-        <v>45008</v>
+        <v>45020</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="22">
-        <v>86222.6</v>
+        <v>107945.2</v>
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="21">
-        <v>45008</v>
+        <v>45020</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="22">
-        <v>76430.960000000006</v>
+        <v>290498.3</v>
       </c>
       <c r="F9" s="20">
         <f>E5+E6+E7+E8+E9</f>
-        <v>241711.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477501.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
       <c r="B11" s="14">
-        <v>44770</v>
+        <v>44841</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>15</v>
@@ -1049,79 +1004,75 @@
         <v>16</v>
       </c>
       <c r="E11" s="15">
-        <v>23800.6</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="14">
-        <v>44763</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="15">
-        <v>21251.8</v>
-      </c>
-      <c r="F12" s="12">
-        <f>E11+E12</f>
-        <v>45052.399999999994</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+        <v>64917.7</v>
+      </c>
+      <c r="F11" s="12">
+        <f>E11-50000</f>
+        <v>14917.699999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14">
+        <v>44861</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2689515</v>
+      </c>
       <c r="F13" s="12">
-        <f>F12-24800</f>
-        <v>20252.399999999994</v>
-      </c>
-      <c r="G13" s="10">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E13-2512515</f>
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="14">
-        <v>44841</v>
+        <v>44902</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15" s="15">
-        <v>64917.7</v>
+        <v>2021558.3</v>
       </c>
       <c r="F15" s="12">
-        <f>E15-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E15-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
@@ -1129,60 +1080,50 @@
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="14">
-        <v>44861</v>
+        <v>44984</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E17" s="15">
-        <v>2689515</v>
+        <v>414180</v>
       </c>
       <c r="F17" s="12">
-        <f>E17-2512515</f>
-        <v>177000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f>E17</f>
+        <v>414180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
       <c r="F18" s="19"/>
-      <c r="J18" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>6</v>
-      </c>
-      <c r="B19" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>25</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="15">
-        <v>2021558.3</v>
-      </c>
-      <c r="F19" s="12">
-        <f>E19-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
@@ -1190,174 +1131,86 @@
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>7</v>
-      </c>
-      <c r="B21" s="14">
-        <v>44905</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="15">
-        <v>21122</v>
-      </c>
-      <c r="F21" s="12">
-        <f>E21</f>
-        <v>21122</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="21" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>8</v>
       </c>
-      <c r="B23" s="14">
-        <v>44984</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="15">
-        <v>414180</v>
-      </c>
-      <c r="F23" s="12">
-        <f>E23</f>
-        <v>414180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="B22" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>1</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="E22" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7">
         <v>44573</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E23" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F23" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
         <v>20000</v>
       </c>
-      <c r="F28" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>2</v>
-      </c>
-      <c r="B29" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F29" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6">
-        <f>F29+F28-E28-E29-E30</f>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <f>F23+F22-E22-E23-E24</f>
         <v>32004.100000000006</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A13:E13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -89,12 +89,6 @@
     <t>Namrata Rubber Product</t>
   </si>
   <si>
-    <t>Shruti Infotech</t>
-  </si>
-  <si>
-    <t>SH/22-23/4033</t>
-  </si>
-  <si>
     <t>b22-23MQ318</t>
   </si>
   <si>
@@ -165,6 +159,12 @@
   </si>
   <si>
     <t>b23-24MQ102</t>
+  </si>
+  <si>
+    <t>B&amp;B/23-24/009</t>
+  </si>
+  <si>
+    <t>Bits &amp; Bytes Technologies</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -316,9 +316,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -612,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -650,25 +647,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>44926</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="9">
-        <v>10502</v>
+      <c r="B2" s="24">
+        <v>44932</v>
+      </c>
+      <c r="C2" s="23">
+        <v>2110702569</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="23">
+        <v>954472.53</v>
       </c>
       <c r="F2" s="25">
-        <f>E2</f>
-        <v>10502</v>
+        <f>E2-500000</f>
+        <v>454472.53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -676,41 +673,41 @@
         <v>2</v>
       </c>
       <c r="B4" s="24">
-        <v>44932</v>
-      </c>
-      <c r="C4" s="23">
-        <v>2110702569</v>
+        <v>44946</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="23">
-        <v>954472.53</v>
+        <v>23777</v>
       </c>
       <c r="F4" s="26">
-        <f>E4-500000</f>
-        <v>454472.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <f>E4</f>
+        <v>23777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="24">
-        <v>44946</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="23">
-        <v>23777</v>
+      <c r="B6" s="3">
+        <v>44991</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9">
+        <v>38527</v>
       </c>
       <c r="F6" s="27">
         <f>E6</f>
-        <v>23777</v>
+        <v>38527</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -718,65 +715,76 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" s="9">
-        <v>38527</v>
-      </c>
-      <c r="F8" s="28">
-        <f>E8</f>
-        <v>38527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+        <v>6195</v>
+      </c>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3">
+        <v>45008</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="9">
+        <v>6195</v>
+      </c>
+      <c r="F9" s="27">
+        <f>E8+E9</f>
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
-        <v>44998</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="9">
-        <v>6195</v>
-      </c>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
       <c r="B11" s="3">
         <v>45008</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="9">
+        <v>38769</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3">
+        <v>45013</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="9">
-        <v>6195</v>
-      </c>
-      <c r="F11" s="28">
-        <f>E10+E11</f>
-        <v>12390</v>
-      </c>
+      <c r="D12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="9">
+        <v>87745</v>
+      </c>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>6</v>
-      </c>
+      <c r="A13" s="9"/>
       <c r="B13" s="3">
-        <v>45008</v>
+        <v>45020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>39</v>
@@ -785,43 +793,32 @@
         <v>17</v>
       </c>
       <c r="E13" s="9">
-        <v>38769</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3">
-        <v>45013</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="9">
-        <v>87745</v>
-      </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3">
-        <v>45020</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="9">
         <v>2649</v>
       </c>
-      <c r="F15" s="28">
-        <f>E13+E14+E15</f>
+      <c r="F13" s="27">
+        <f>E11+E12+E13</f>
         <v>129163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="24">
+        <v>45027</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="23">
+        <v>3975</v>
+      </c>
+      <c r="F15" s="27">
+        <f>E15</f>
+        <v>3975</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -913,7 +910,7 @@
         <v>44932</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>14</v>
@@ -929,7 +926,7 @@
         <v>44989</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>14</v>
@@ -945,7 +942,7 @@
         <v>44998</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>14</v>
@@ -961,7 +958,7 @@
         <v>45020</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -977,7 +974,7 @@
         <v>45020</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1027,10 +1024,10 @@
         <v>44861</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="15">
         <v>2689515</v>
@@ -1048,7 +1045,7 @@
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
       <c r="J14" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1059,10 +1056,10 @@
         <v>44902</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="15">
         <v>2021558.3</v>
@@ -1088,10 +1085,10 @@
         <v>44984</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="15">
         <v>414180</v>
@@ -1116,7 +1113,7 @@
       <c r="B19" s="14"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="15">
         <v>2146998.2000000002</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Sr. No</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Nerul Village Panchayat</t>
   </si>
   <si>
-    <t>INV-011517</t>
-  </si>
-  <si>
-    <t>Pilz India Pvt Ltd</t>
-  </si>
-  <si>
     <t>b22-23MQ425</t>
   </si>
   <si>
@@ -165,6 +159,30 @@
   </si>
   <si>
     <t>Bits &amp; Bytes Technologies</t>
+  </si>
+  <si>
+    <t>I-C-1-23-445419</t>
+  </si>
+  <si>
+    <t>Collective Trade Links Pvt Ltd</t>
+  </si>
+  <si>
+    <t>I-C-1-23-445420</t>
+  </si>
+  <si>
+    <t>b23-24MQ103</t>
+  </si>
+  <si>
+    <t>b23-24MQ104</t>
+  </si>
+  <si>
+    <t>b23-24MQ105</t>
+  </si>
+  <si>
+    <t>02/23-24</t>
+  </si>
+  <si>
+    <t>03/23-24</t>
   </si>
 </sst>
 </file>
@@ -607,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -694,65 +712,76 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="9">
-        <v>38527</v>
-      </c>
-      <c r="F6" s="27">
-        <f>E6</f>
-        <v>38527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+        <v>6195</v>
+      </c>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3">
+        <v>45008</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6195</v>
+      </c>
+      <c r="F7" s="27">
+        <f>E6+E7</f>
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>44998</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="9">
-        <v>6195</v>
-      </c>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
       <c r="B9" s="3">
         <v>45008</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="9">
+        <v>38769</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3">
+        <v>45013</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="9">
-        <v>6195</v>
-      </c>
-      <c r="F9" s="27">
-        <f>E8+E9</f>
-        <v>12390</v>
-      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9">
+        <v>87745</v>
+      </c>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>5</v>
-      </c>
+      <c r="A11" s="9"/>
       <c r="B11" s="3">
-        <v>45008</v>
+        <v>45020</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>37</v>
@@ -761,51 +790,51 @@
         <v>17</v>
       </c>
       <c r="E11" s="9">
-        <v>38769</v>
-      </c>
-      <c r="F11" s="9"/>
+        <v>2649</v>
+      </c>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3">
-        <v>45013</v>
+        <v>45028</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="9">
-        <v>87745</v>
+        <v>94430</v>
       </c>
       <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3">
-        <v>45020</v>
+        <v>45030</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="9">
-        <v>2649</v>
+        <v>26491</v>
       </c>
       <c r="F13" s="27">
-        <f>E11+E12+E13</f>
-        <v>129163</v>
+        <f>E9+E10+E11+E12+E13</f>
+        <v>250084</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="24">
-        <v>45027</v>
+        <v>45015</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>42</v>
@@ -814,10 +843,55 @@
         <v>43</v>
       </c>
       <c r="E15" s="23">
+        <v>38940</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="24">
+        <v>45015</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="23">
+        <v>65490</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="27">
+        <f>E15+E16</f>
+        <v>104430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>6</v>
+      </c>
+      <c r="B19" s="24">
+        <v>45027</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="23">
         <v>3975</v>
       </c>
-      <c r="F15" s="27">
-        <f>E15</f>
+      <c r="F19" s="27">
+        <f>E19</f>
         <v>3975</v>
       </c>
     </row>
@@ -829,10 +903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -848,7 +922,7 @@
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -884,7 +958,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -894,7 +968,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -902,7 +976,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -920,13 +994,13 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>14</v>
@@ -936,13 +1010,13 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>14</v>
@@ -952,13 +1026,13 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
         <v>45020</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -968,13 +1042,13 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="21">
         <v>45020</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -982,228 +1056,276 @@
       <c r="E9" s="22">
         <v>290498.3</v>
       </c>
-      <c r="F9" s="20">
-        <f>E5+E6+E7+E8+E9</f>
-        <v>477501.14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="21">
+        <v>45033</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="22">
+        <v>5701</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="21">
+        <v>45033</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="22">
+        <v>294234.2</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="21">
+        <v>45033</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="22">
+        <v>156727.6</v>
+      </c>
+      <c r="F12" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11+E12</f>
+        <v>934163.94000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B14" s="14">
         <v>44841</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E14" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F11" s="12">
-        <f>E11-50000</f>
+      <c r="F14" s="12">
+        <f>E14-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B16" s="14">
         <v>44861</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E16" s="15">
         <v>2689515</v>
       </c>
-      <c r="F13" s="12">
-        <f>E13-2512515</f>
+      <c r="F16" s="12">
+        <f>E16-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="J14" s="10" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="J17" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B18" s="14">
         <v>44902</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E18" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F15" s="12">
-        <f>E15-175496-500000-800000</f>
+      <c r="F18" s="12">
+        <f>E18-175496-500000-800000</f>
         <v>546062.30000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>6</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B20" s="14">
         <v>44984</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E20" s="15">
         <v>414180</v>
       </c>
-      <c r="F17" s="12">
-        <f>E17</f>
+      <c r="F20" s="12">
+        <f>E20</f>
         <v>414180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E22" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>8</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B25" s="7">
         <v>44573</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E25" s="6">
         <v>20000</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F25" s="6">
         <v>29641.599999999999</v>
       </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7">
         <v>44573</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E26" s="6">
         <v>10000</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F26" s="6">
         <v>52362.5</v>
       </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7">
         <v>44954</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
         <v>20000</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
-        <f>F23+F22-E22-E23-E24</f>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <f>F26+F25-E25-E26-E27</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -183,6 +183,27 @@
   </si>
   <si>
     <t>03/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ107</t>
+  </si>
+  <si>
+    <t>b23-24MQ106</t>
+  </si>
+  <si>
+    <t>Marcfremiot</t>
+  </si>
+  <si>
+    <t>SLH/135</t>
+  </si>
+  <si>
+    <t>Shree Laxmi Lighting Hub</t>
+  </si>
+  <si>
+    <t>Digi.2324/0090</t>
+  </si>
+  <si>
+    <t>Digiserve</t>
   </si>
 </sst>
 </file>
@@ -625,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -895,6 +916,54 @@
         <v>3975</v>
       </c>
     </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>7</v>
+      </c>
+      <c r="B21" s="24">
+        <v>45029</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1540</v>
+      </c>
+      <c r="F21" s="27">
+        <f>E21</f>
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>8</v>
+      </c>
+      <c r="B23" s="24">
+        <v>45036</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="23">
+        <v>93220</v>
+      </c>
+      <c r="F23" s="27">
+        <f>E23</f>
+        <v>93220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="2">
+        <f>28933+885</f>
+        <v>29818</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -903,10 +972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1104,228 +1173,273 @@
       <c r="E12" s="22">
         <v>156727.6</v>
       </c>
-      <c r="F12" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12</f>
-        <v>934163.94000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="21">
+        <v>45038</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="22">
+        <v>151972</v>
+      </c>
+      <c r="F13" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
+        <v>1086135.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B15" s="14">
         <v>44841</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F14" s="12">
-        <f>E14-50000</f>
+      <c r="F15" s="12">
+        <f>E15-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-    </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>4</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B17" s="14">
         <v>44861</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>2689515</v>
       </c>
-      <c r="F16" s="12">
-        <f>E16-2512515</f>
+      <c r="F17" s="12">
+        <f>E17-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="J17" s="10" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="J18" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>5</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B19" s="14">
         <v>44902</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F18" s="12">
-        <f>E18-175496-500000-800000</f>
+      <c r="F19" s="12">
+        <f>E19-175496-500000-800000</f>
         <v>546062.30000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-    </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B21" s="14">
         <v>44984</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>414180</v>
       </c>
-      <c r="F20" s="12">
-        <f>E20</f>
+      <c r="F21" s="12">
+        <f>E21</f>
         <v>414180</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-    </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>8</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F25" s="12">
+        <f>E25</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>8</v>
+      </c>
+      <c r="B28" s="7">
         <v>44573</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E28" s="6">
         <v>20000</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F28" s="6">
         <v>29641.599999999999</v>
       </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7">
         <v>44573</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E29" s="6">
         <v>10000</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F29" s="6">
         <v>52362.5</v>
       </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7">
         <v>44954</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
         <v>20000</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <f>F26+F25-E25-E26-E27</f>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
+        <f>F29+F28-E28-E29-E30</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Sr. No</t>
   </si>
@@ -107,9 +107,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Dell Technologies</t>
-  </si>
-  <si>
     <t>Nerul</t>
   </si>
   <si>
@@ -131,36 +128,6 @@
     <t>b22-23MQ428</t>
   </si>
   <si>
-    <t>2022-23/14698</t>
-  </si>
-  <si>
-    <t>Print House</t>
-  </si>
-  <si>
-    <t>2022-23/15121</t>
-  </si>
-  <si>
-    <t>500/22-23</t>
-  </si>
-  <si>
-    <t>507/22-23</t>
-  </si>
-  <si>
-    <t>07/23-24</t>
-  </si>
-  <si>
-    <t>b23-24MQ101</t>
-  </si>
-  <si>
-    <t>b23-24MQ102</t>
-  </si>
-  <si>
-    <t>B&amp;B/23-24/009</t>
-  </si>
-  <si>
-    <t>Bits &amp; Bytes Technologies</t>
-  </si>
-  <si>
     <t>I-C-1-23-445419</t>
   </si>
   <si>
@@ -170,15 +137,6 @@
     <t>I-C-1-23-445420</t>
   </si>
   <si>
-    <t>b23-24MQ103</t>
-  </si>
-  <si>
-    <t>b23-24MQ104</t>
-  </si>
-  <si>
-    <t>b23-24MQ105</t>
-  </si>
-  <si>
     <t>02/23-24</t>
   </si>
   <si>
@@ -194,16 +152,13 @@
     <t>Marcfremiot</t>
   </si>
   <si>
-    <t>SLH/135</t>
-  </si>
-  <si>
-    <t>Shree Laxmi Lighting Hub</t>
-  </si>
-  <si>
     <t>Digi.2324/0090</t>
   </si>
   <si>
     <t>Digiserve</t>
+  </si>
+  <si>
+    <t>06/23-24</t>
   </si>
 </sst>
 </file>
@@ -283,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -355,9 +310,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -646,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -691,277 +643,131 @@
         <v>1</v>
       </c>
       <c r="B2" s="24">
-        <v>44932</v>
-      </c>
-      <c r="C2" s="23">
-        <v>2110702569</v>
+        <v>44946</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="23">
-        <v>954472.53</v>
+        <v>23777</v>
       </c>
       <c r="F2" s="25">
-        <f>E2-500000</f>
-        <v>454472.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <f>E2</f>
+        <v>23777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
-        <v>44946</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="23">
-        <v>23777</v>
-      </c>
-      <c r="F4" s="26">
-        <f>E4</f>
-        <v>23777</v>
-      </c>
+      <c r="B4" s="3">
+        <v>45028</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9">
+        <v>94430</v>
+      </c>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3">
+        <v>45030</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9">
+        <v>26491</v>
+      </c>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3">
+        <v>45041</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9">
+        <v>113339</v>
+      </c>
+      <c r="F6" s="26">
+        <f>E4+E5+E6</f>
+        <v>234260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>44998</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B8" s="24">
+        <v>45015</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E8" s="23">
+        <v>38940</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="24">
+        <v>45015</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="9">
-        <v>6195</v>
-      </c>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3">
-        <v>45008</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="9">
-        <v>6195</v>
-      </c>
-      <c r="F7" s="27">
-        <f>E6+E7</f>
-        <v>12390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="D9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="23">
+        <v>65490</v>
+      </c>
+      <c r="F9" s="26">
+        <f>E8+E9</f>
+        <v>104430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
-        <v>45008</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="9">
-        <v>38769</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3">
-        <v>45013</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="9">
-        <v>87745</v>
-      </c>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3">
-        <v>45020</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2649</v>
-      </c>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3">
-        <v>45028</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="9">
-        <v>94430</v>
-      </c>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3">
-        <v>45030</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="9">
-        <v>26491</v>
-      </c>
-      <c r="F13" s="27">
-        <f>E9+E10+E11+E12+E13</f>
-        <v>250084</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>5</v>
-      </c>
-      <c r="B15" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="27">
-        <f>E15+E16</f>
-        <v>104430</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>6</v>
-      </c>
-      <c r="B19" s="24">
-        <v>45027</v>
-      </c>
-      <c r="C19" s="23" t="s">
+      <c r="B11" s="24">
+        <v>45036</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="23">
-        <v>3975</v>
-      </c>
-      <c r="F19" s="27">
-        <f>E19</f>
-        <v>3975</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>7</v>
-      </c>
-      <c r="B21" s="24">
-        <v>45029</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="23">
-        <v>1540</v>
-      </c>
-      <c r="F21" s="27">
-        <f>E21</f>
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>8</v>
-      </c>
-      <c r="B23" s="24">
-        <v>45036</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="E11" s="23">
         <v>93220</v>
       </c>
-      <c r="F23" s="27">
-        <f>E23</f>
+      <c r="F11" s="26">
+        <f>E11</f>
         <v>93220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="2">
-        <f>28933+885</f>
-        <v>29818</v>
       </c>
     </row>
   </sheetData>
@@ -972,10 +778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -991,7 +797,7 @@
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1027,7 +833,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1037,7 +843,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1045,7 +851,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1063,13 +869,13 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>14</v>
@@ -1079,13 +885,13 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>14</v>
@@ -1095,351 +901,271 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
-        <v>45020</v>
+        <v>45038</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="22">
-        <v>107945.2</v>
-      </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="21">
-        <v>45020</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="22">
-        <v>290498.3</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="21">
-        <v>45033</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="22">
-        <v>5701</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="21">
-        <v>45033</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="22">
-        <v>294234.2</v>
-      </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="21">
-        <v>45033</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="22">
-        <v>156727.6</v>
-      </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="21">
-        <v>45038</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="22">
         <v>151972</v>
       </c>
-      <c r="F13" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
-        <v>1086135.94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="F8" s="20">
+        <f>E5+E6+E7+E8</f>
+        <v>231029.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B10" s="14">
         <v>44841</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E10" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F15" s="12">
-        <f>E15-50000</f>
+      <c r="F10" s="12">
+        <f>E10-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B12" s="14">
         <v>44861</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E12" s="15">
         <v>2689515</v>
       </c>
-      <c r="F17" s="12">
-        <f>E17-2512515</f>
+      <c r="F12" s="12">
+        <f>E12-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="J18" s="10" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="J13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B14" s="14">
         <v>44902</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E14" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F19" s="12">
-        <f>E19-175496-500000-800000</f>
+      <c r="F14" s="12">
+        <f>E14-175496-500000-800000</f>
         <v>546062.30000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>6</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B16" s="14">
         <v>44984</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="E16" s="15">
         <v>414180</v>
       </c>
-      <c r="F21" s="12">
-        <f>E21</f>
+      <c r="F16" s="12">
+        <f>E16</f>
         <v>414180</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>7</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>8</v>
+      </c>
+      <c r="B20" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F20" s="12">
+        <f>E20</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>7</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
         <v>8</v>
       </c>
-      <c r="B25" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F25" s="12">
-        <f>E25</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>8</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="B23" s="7">
         <v>44573</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E23" s="6">
         <v>20000</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F23" s="6">
         <v>29641.599999999999</v>
       </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7">
         <v>44573</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E24" s="6">
         <v>10000</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F24" s="6">
         <v>52362.5</v>
       </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7">
         <v>44954</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
         <v>20000</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6">
-        <f>F29+F28-E28-E29-E30</f>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <f>F24+F23-E23-E24-E25</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Sr. No</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Shamsher</t>
   </si>
   <si>
-    <t>Namrata Rubber Product</t>
-  </si>
-  <si>
     <t>b22-23MQ318</t>
   </si>
   <si>
@@ -159,6 +156,18 @@
   </si>
   <si>
     <t>06/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ108</t>
+  </si>
+  <si>
+    <t>I-C-1-23-450387</t>
+  </si>
+  <si>
+    <t>07/23-24</t>
+  </si>
+  <si>
+    <t>Namrata Rubber Product Pvt Ltd</t>
   </si>
 </sst>
 </file>
@@ -598,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -609,8 +618,8 @@
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" style="2" customWidth="1"/>
     <col min="8" max="9" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -646,10 +655,10 @@
         <v>44946</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>26</v>
       </c>
       <c r="E2" s="23">
         <v>23777</v>
@@ -667,10 +676,10 @@
         <v>45028</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E4" s="9">
         <v>94430</v>
@@ -683,10 +692,10 @@
         <v>45030</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E5" s="9">
         <v>26491</v>
@@ -699,74 +708,106 @@
         <v>45041</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E6" s="9">
         <v>113339</v>
       </c>
-      <c r="F6" s="26">
-        <f>E4+E5+E6</f>
-        <v>234260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3">
+        <v>45044</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9">
+        <v>76971</v>
+      </c>
+      <c r="F7" s="26">
+        <f>E4+E5+E6+E7</f>
+        <v>311231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
       <c r="B9" s="24">
         <v>45015</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="23">
+        <v>38940</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="24">
+        <v>45015</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="23">
+      <c r="D10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="23">
         <v>65490</v>
       </c>
-      <c r="F9" s="26">
-        <f>E8+E9</f>
-        <v>104430</v>
-      </c>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>4</v>
-      </c>
+      <c r="A11" s="9"/>
       <c r="B11" s="24">
         <v>45036</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="23">
+        <v>38940</v>
+      </c>
+      <c r="F11" s="26">
+        <f>E9+E10+E11</f>
+        <v>143370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>4</v>
+      </c>
+      <c r="B13" s="24">
+        <v>45036</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="E13" s="23">
         <v>93220</v>
       </c>
-      <c r="F11" s="26">
-        <f>E11</f>
+      <c r="F13" s="26">
+        <f>E13</f>
         <v>93220</v>
       </c>
     </row>
@@ -778,10 +819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -859,7 +900,7 @@
         <v>44932</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>14</v>
@@ -875,7 +916,7 @@
         <v>44989</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>14</v>
@@ -891,7 +932,7 @@
         <v>44998</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>14</v>
@@ -907,7 +948,7 @@
         <v>45038</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -915,257 +956,273 @@
       <c r="E8" s="22">
         <v>151972</v>
       </c>
-      <c r="F8" s="20">
-        <f>E5+E6+E7+E8</f>
-        <v>231029.64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="21">
+        <v>45043</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="22">
+        <v>232374</v>
+      </c>
+      <c r="F9" s="20">
+        <f>E5+E6+E7+E8+E9</f>
+        <v>463403.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B11" s="14">
         <v>44841</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F10" s="12">
-        <f>E10-50000</f>
+      <c r="F11" s="12">
+        <f>E11-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B13" s="14">
         <v>44861</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <v>2689515</v>
       </c>
-      <c r="F12" s="12">
-        <f>E12-2512515</f>
+      <c r="F13" s="12">
+        <f>E13-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="J13" s="10" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="J14" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>5</v>
+      </c>
+      <c r="B15" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F15" s="12">
+        <f>E15-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>6</v>
+      </c>
+      <c r="B17" s="14">
+        <v>44984</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="15">
+        <v>414180</v>
+      </c>
+      <c r="F17" s="12">
+        <f>E17</f>
+        <v>414180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>7</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="E19" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>8</v>
+      </c>
+      <c r="B21" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F21" s="12">
+        <f>E21</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2021558.3</v>
-      </c>
-      <c r="F14" s="12">
-        <f>E14-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>6</v>
-      </c>
-      <c r="B16" s="14">
-        <v>44984</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="15">
-        <v>414180</v>
-      </c>
-      <c r="F16" s="12">
-        <f>E16</f>
-        <v>414180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>7</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>8</v>
       </c>
-      <c r="B20" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F20" s="12">
-        <f>E20</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>8</v>
-      </c>
-      <c r="B23" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F23" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
       <c r="B24" s="7">
         <v>44573</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F24" s="6">
-        <v>52362.5</v>
+        <v>29641.599999999999</v>
       </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F25" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7">
         <v>44954</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
         <v>20000</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <f>F24+F23-E23-E24-E25</f>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
+        <f>F25+F24-E24-E25-E26</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Sr. No</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Namrata Rubber Product Pvt Ltd</t>
+  </si>
+  <si>
+    <t>08/23-24</t>
   </si>
 </sst>
 </file>
@@ -607,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -732,82 +735,98 @@
       <c r="E7" s="9">
         <v>76971</v>
       </c>
-      <c r="F7" s="26">
-        <f>E4+E5+E6+E7</f>
-        <v>311231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="24">
+        <v>45048</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="23">
+        <v>29140</v>
+      </c>
+      <c r="F8" s="26">
+        <f>E4+E5+E6+E7+E8</f>
+        <v>340371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
       <c r="B10" s="24">
         <v>45015</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F10" s="26"/>
+        <v>38940</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="24">
-        <v>45036</v>
+        <v>45015</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="23">
+        <v>65490</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="24">
+        <v>45036</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="23">
         <v>38940</v>
       </c>
-      <c r="F11" s="26">
-        <f>E9+E10+E11</f>
+      <c r="F12" s="26">
+        <f>E10+E11+E12</f>
         <v>143370</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B14" s="24">
         <v>45036</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D14" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E14" s="23">
         <v>93220</v>
       </c>
-      <c r="F13" s="26">
-        <f>E13</f>
+      <c r="F14" s="26">
+        <f>E14</f>
         <v>93220</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>Sr. No</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>08/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ109</t>
+  </si>
+  <si>
+    <t>b23-24MQ110</t>
+  </si>
+  <si>
+    <t>b23-24MQ111</t>
   </si>
 </sst>
 </file>
@@ -613,7 +622,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -838,7 +847,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -857,7 +866,7 @@
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -893,7 +902,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -903,7 +912,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -911,7 +920,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -929,7 +938,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
@@ -945,7 +954,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
@@ -961,7 +970,7 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
         <v>45038</v>
@@ -977,7 +986,7 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="21">
         <v>45043</v>
@@ -991,257 +1000,305 @@
       <c r="E9" s="22">
         <v>232374</v>
       </c>
-      <c r="F9" s="20">
-        <f>E5+E6+E7+E8+E9</f>
-        <v>463403.64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="21">
+        <v>45051</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="22">
+        <v>223118</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="21">
+        <v>45051</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="22">
+        <v>147382</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="21">
+        <v>45051</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="22">
+        <v>6624.5</v>
+      </c>
+      <c r="F12" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11+E12</f>
+        <v>840528.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B14" s="14">
         <v>44841</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E14" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F11" s="12">
-        <f>E11-50000</f>
+      <c r="F14" s="12">
+        <f>E14-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B16" s="14">
         <v>44861</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E16" s="15">
         <v>2689515</v>
       </c>
-      <c r="F13" s="12">
-        <f>E13-2512515</f>
+      <c r="F16" s="12">
+        <f>E16-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="J14" s="10" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="J17" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>5</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B18" s="14">
         <v>44902</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E18" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F15" s="12">
-        <f>E15-175496-500000-800000</f>
+      <c r="F18" s="12">
+        <f>E18-175496-500000-800000</f>
         <v>546062.30000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>6</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B20" s="14">
         <v>44984</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E20" s="15">
         <v>414180</v>
       </c>
-      <c r="F17" s="12">
-        <f>E17</f>
+      <c r="F20" s="12">
+        <f>E20</f>
         <v>414180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E22" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>8</v>
-      </c>
-      <c r="B21" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F21" s="12">
-        <f>E21</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>8</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F24" s="12">
+        <f>E24</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7">
         <v>44573</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E27" s="6">
         <v>20000</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F27" s="6">
         <v>29641.599999999999</v>
       </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7">
         <v>44573</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E28" s="6">
         <v>10000</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F28" s="6">
         <v>52362.5</v>
       </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7">
         <v>44954</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
         <v>20000</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6">
-        <f>F25+F24-E24-E25-E26</f>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <f>F28+F27-E27-E28-E29</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Sr. No</t>
   </si>
@@ -140,9 +140,6 @@
     <t>03/23-24</t>
   </si>
   <si>
-    <t>b23-24MQ107</t>
-  </si>
-  <si>
     <t>b23-24MQ106</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>06/23-24</t>
   </si>
   <si>
-    <t>b23-24MQ108</t>
-  </si>
-  <si>
     <t>I-C-1-23-450387</t>
   </si>
   <si>
@@ -180,6 +174,27 @@
   </si>
   <si>
     <t>b23-24MQ111</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>125/2023-2024</t>
+  </si>
+  <si>
+    <t>Max International</t>
+  </si>
+  <si>
+    <t>2023-24/1458</t>
+  </si>
+  <si>
+    <t>Print House</t>
+  </si>
+  <si>
+    <t>11/23-24</t>
+  </si>
+  <si>
+    <t>I-C-1-23-450796</t>
   </si>
 </sst>
 </file>
@@ -619,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -691,7 +706,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="9">
         <v>94430</v>
@@ -707,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="9">
         <v>26491</v>
@@ -720,10 +735,10 @@
         <v>45041</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="9">
         <v>113339</v>
@@ -736,10 +751,10 @@
         <v>45044</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9">
         <v>76971</v>
@@ -752,91 +767,168 @@
         <v>45048</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="23">
         <v>29140</v>
       </c>
-      <c r="F8" s="26">
-        <f>E4+E5+E6+E7+E8</f>
-        <v>340371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="F8" s="9">
+        <f>E4+E5+E6+E7+E8-150000</f>
+        <v>190371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="24">
+        <v>45059</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="23">
+        <v>38238</v>
+      </c>
+      <c r="F9" s="26">
+        <f>F8+E9</f>
+        <v>228609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
       <c r="B11" s="24">
         <v>45015</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F11" s="26"/>
+        <v>38940</v>
+      </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="24">
-        <v>45036</v>
+        <v>45015</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="23">
+        <v>65490</v>
+      </c>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="24">
+        <v>45036</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="23">
         <v>38940</v>
       </c>
-      <c r="F12" s="26">
-        <f>E10+E11+E12</f>
-        <v>143370</v>
-      </c>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="9"/>
+      <c r="B14" s="24">
+        <v>45056</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="23">
+        <v>68263</v>
+      </c>
+      <c r="F14" s="26">
+        <f>E11+E12+E13+E14</f>
+        <v>211633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B16" s="24">
         <v>45036</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="23">
+      <c r="E16" s="23">
         <v>93220</v>
       </c>
-      <c r="F14" s="26">
-        <f>E14</f>
+      <c r="F16" s="26">
+        <f>E16</f>
         <v>93220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>5</v>
+      </c>
+      <c r="B18" s="24">
+        <v>45052</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="23">
+        <v>9940</v>
+      </c>
+      <c r="F18" s="26">
+        <f>E18</f>
+        <v>9940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>6</v>
+      </c>
+      <c r="B20" s="24">
+        <v>45058</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="23">
+        <v>3983</v>
+      </c>
+      <c r="F20" s="26">
+        <f>E20</f>
+        <v>3983</v>
       </c>
     </row>
   </sheetData>
@@ -847,10 +939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -866,7 +958,7 @@
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -902,7 +994,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -912,7 +1004,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -920,7 +1012,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -938,7 +1030,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
@@ -954,7 +1046,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
@@ -970,39 +1062,39 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
-        <v>45038</v>
+        <v>45051</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="22">
-        <v>151972</v>
+        <v>223118</v>
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="21">
-        <v>45043</v>
+        <v>45051</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="22">
-        <v>232374</v>
+        <v>147382</v>
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="21">
         <v>45051</v>
@@ -1014,128 +1106,128 @@
         <v>14</v>
       </c>
       <c r="E10" s="22">
-        <v>223118</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="21">
-        <v>45051</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="22">
-        <v>147382</v>
-      </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="21">
-        <v>45051</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="22">
         <v>6624.5</v>
       </c>
-      <c r="F12" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12</f>
-        <v>840528.14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="20">
+        <f>E5+E6+E7+E8+E9+E10</f>
+        <v>456182.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14">
+        <v>44841</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="15">
+        <v>64917.7</v>
+      </c>
+      <c r="F12" s="12">
+        <f>E12-50000</f>
+        <v>14917.699999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="14">
-        <v>44841</v>
+        <v>44861</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E14" s="15">
-        <v>64917.7</v>
+        <v>2689515</v>
       </c>
       <c r="F14" s="12">
-        <f>E14-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E14-2512515</f>
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="14">
-        <v>44861</v>
+        <v>44902</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="15">
-        <v>2689515</v>
+        <v>2021558.3</v>
       </c>
       <c r="F16" s="12">
-        <f>E16-2512515</f>
-        <v>177000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <f>E16-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
       <c r="F17" s="19"/>
-      <c r="J17" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" s="14">
-        <v>44902</v>
+        <v>44984</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E18" s="15">
-        <v>2021558.3</v>
+        <v>414180</v>
       </c>
       <c r="F18" s="12">
-        <f>E18-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <f>E18</f>
+        <v>414180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
@@ -1143,28 +1235,21 @@
       <c r="E19" s="18"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>6</v>
-      </c>
-      <c r="B20" s="14">
-        <v>44984</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>26</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E20" s="15">
-        <v>414180</v>
-      </c>
-      <c r="F20" s="12">
-        <f>E20</f>
-        <v>414180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -1172,21 +1257,28 @@
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>7</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="B22" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="D22" s="13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E22" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F22" s="12">
+        <f>E22</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
@@ -1194,111 +1286,82 @@
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>8</v>
       </c>
-      <c r="B24" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F24" s="12">
-        <f>E24</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>8</v>
-      </c>
+      <c r="B25" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F25" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F26" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
       <c r="B27" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>44954</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="6">
         <v>20000</v>
       </c>
-      <c r="F27" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F28" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6">
-        <f>F28+F27-E27-E28-E29</f>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <f>F26+F25-E25-E26-E27</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>Sr. No</t>
   </si>
@@ -107,12 +107,6 @@
     <t>Nerul</t>
   </si>
   <si>
-    <t>VM/12546/22-23</t>
-  </si>
-  <si>
-    <t>V M Traders</t>
-  </si>
-  <si>
     <t>b22-23MQ422</t>
   </si>
   <si>
@@ -170,21 +164,9 @@
     <t>b23-24MQ109</t>
   </si>
   <si>
-    <t>b23-24MQ110</t>
-  </si>
-  <si>
     <t>b23-24MQ111</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>125/2023-2024</t>
-  </si>
-  <si>
-    <t>Max International</t>
-  </si>
-  <si>
     <t>2023-24/1458</t>
   </si>
   <si>
@@ -195,6 +177,42 @@
   </si>
   <si>
     <t>I-C-1-23-450796</t>
+  </si>
+  <si>
+    <t>b23-24MQ112</t>
+  </si>
+  <si>
+    <t>b23-24MQ113</t>
+  </si>
+  <si>
+    <t>b23-24MQ114</t>
+  </si>
+  <si>
+    <t>b23-24MQ115</t>
+  </si>
+  <si>
+    <t>INV-012553</t>
+  </si>
+  <si>
+    <t>Pilz India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>INV-012554</t>
+  </si>
+  <si>
+    <t>13/23-24</t>
+  </si>
+  <si>
+    <t>digi.2324/0245</t>
+  </si>
+  <si>
+    <t>b23-24MQ116</t>
+  </si>
+  <si>
+    <t>b23-24AQ117</t>
+  </si>
+  <si>
+    <t>I-C-1-23-450927</t>
   </si>
 </sst>
 </file>
@@ -274,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -346,9 +364,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -634,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -674,135 +689,149 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
-        <v>44946</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="23">
-        <v>23777</v>
-      </c>
-      <c r="F2" s="25">
-        <f>E2</f>
-        <v>23777</v>
-      </c>
+      <c r="B2" s="3">
+        <v>45028</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9">
+        <v>94430</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3">
+        <v>45030</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9">
+        <v>26491</v>
+      </c>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
+      <c r="A4" s="9"/>
       <c r="B4" s="3">
-        <v>45028</v>
+        <v>45041</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9">
-        <v>94430</v>
-      </c>
-      <c r="F4" s="26"/>
+        <v>113339</v>
+      </c>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="3">
-        <v>45030</v>
+        <v>45044</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="9">
-        <v>26491</v>
-      </c>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76971</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
-      <c r="B6" s="3">
-        <v>45041</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="9">
-        <v>113339</v>
-      </c>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="24">
+        <v>45048</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="23">
+        <v>29140</v>
+      </c>
+      <c r="F6" s="9">
+        <f>E2+E3+E4+E5+E6-150000</f>
+        <v>190371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="3">
-        <v>45044</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="9">
-        <v>76971</v>
-      </c>
-      <c r="F7" s="26"/>
+      <c r="B7" s="24">
+        <v>45059</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="23">
+        <v>38238</v>
+      </c>
+      <c r="F7" s="9">
+        <f>F6+E7</f>
+        <v>228609</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="24">
-        <v>45048</v>
+        <v>45064</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="23">
-        <v>29140</v>
-      </c>
-      <c r="F8" s="9">
-        <f>E4+E5+E6+E7+E8-150000</f>
-        <v>190371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="24">
-        <v>45059</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="23">
-        <v>38238</v>
-      </c>
-      <c r="F9" s="26">
-        <f>F8+E9</f>
-        <v>228609</v>
-      </c>
+        <v>67874</v>
+      </c>
+      <c r="F8" s="25">
+        <f>F7+E8</f>
+        <v>296483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="24">
+        <v>45015</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="23">
+        <v>38940</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>3</v>
-      </c>
+      <c r="A11" s="9"/>
       <c r="B11" s="24">
         <v>45015</v>
       </c>
@@ -810,124 +839,156 @@
         <v>30</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F11" s="9"/>
+        <v>65490</v>
+      </c>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="24">
-        <v>45015</v>
+        <v>45036</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F12" s="26"/>
+        <v>38940</v>
+      </c>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="24">
-        <v>45036</v>
+        <v>45056</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F13" s="26"/>
+        <v>68263</v>
+      </c>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="24">
-        <v>45056</v>
+        <v>45065</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="23">
-        <v>68263</v>
-      </c>
-      <c r="F14" s="26">
-        <f>E11+E12+E13+E14</f>
-        <v>211633</v>
+        <v>36757</v>
+      </c>
+      <c r="F14" s="25">
+        <f>E10+E11+E12+E13+E14</f>
+        <v>248390</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="24">
         <v>45036</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="23">
         <v>93220</v>
       </c>
-      <c r="F16" s="26">
-        <f>E16</f>
-        <v>93220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="24">
+        <v>45069</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="23">
+        <v>96996</v>
+      </c>
+      <c r="F17" s="25">
+        <f>E16+E17</f>
+        <v>190216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>4</v>
+      </c>
+      <c r="B19" s="24">
+        <v>45057</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="23">
+        <v>38527</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="24">
+        <v>45057</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="23">
+        <v>57791</v>
+      </c>
+      <c r="F20" s="25">
+        <f>E19+E20</f>
+        <v>96318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>5</v>
       </c>
-      <c r="B18" s="24">
-        <v>45052</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="23">
-        <v>9940</v>
-      </c>
-      <c r="F18" s="26">
-        <f>E18</f>
-        <v>9940</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>6</v>
-      </c>
-      <c r="B20" s="24">
+      <c r="B22" s="24">
         <v>45058</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="C22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="23">
         <v>3983</v>
       </c>
-      <c r="F20" s="26">
-        <f>E20</f>
+      <c r="F22" s="25">
+        <f>E22</f>
         <v>3983</v>
       </c>
     </row>
@@ -939,26 +1000,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.88671875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" style="10" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="10" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -994,7 +1055,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1004,7 +1065,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1012,7 +1073,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1030,13 +1091,13 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>14</v>
@@ -1046,13 +1107,13 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>14</v>
@@ -1062,13 +1123,13 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
         <v>45051</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1078,290 +1139,367 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="21">
         <v>45051</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="22">
-        <v>147382</v>
+        <v>6624.5</v>
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="21">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="22">
-        <v>6624.5</v>
-      </c>
-      <c r="F10" s="20">
-        <f>E5+E6+E7+E8+E9+E10</f>
-        <v>456182.14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+        <v>48630.2</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="21">
+        <v>45058</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="22">
+        <v>28320</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="21">
+        <v>45063</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="22">
+        <v>369945</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="21">
+        <v>45063</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="22">
+        <v>86671</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="21">
+        <v>45070</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="22">
+        <v>861388.2</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="21">
+        <v>45070</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="22">
+        <v>290754</v>
+      </c>
+      <c r="F15" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15</f>
+        <v>1994508.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B17" s="14">
         <v>44841</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E17" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F12" s="12">
-        <f>E12-50000</f>
+      <c r="F17" s="12">
+        <f>E17-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B19" s="14">
         <v>44861</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E19" s="15">
         <v>2689515</v>
       </c>
-      <c r="F14" s="12">
-        <f>E14-2512515</f>
+      <c r="F19" s="12">
+        <f>E19-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="H15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" s="10" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="J20" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B21" s="14">
         <v>44902</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E21" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F16" s="12">
-        <f>E16-175496-500000-800000</f>
+      <c r="F21" s="12">
+        <f>E21-175496-500000-800000</f>
         <v>546062.30000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>6</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B23" s="14">
         <v>44984</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="C23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="15">
         <v>414180</v>
       </c>
-      <c r="F18" s="12">
-        <f>E18</f>
+      <c r="F23" s="12">
+        <f>E23</f>
         <v>414180</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E25" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>8</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B27" s="14">
         <v>45034</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="C27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="15">
         <v>21900.799999999999</v>
       </c>
-      <c r="F22" s="12">
-        <f>E22</f>
+      <c r="F27" s="12">
+        <f>E27</f>
         <v>21900.799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>8</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B30" s="7">
         <v>44573</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E30" s="6">
         <v>20000</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F30" s="6">
         <v>29641.599999999999</v>
       </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7">
         <v>44573</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E31" s="6">
         <v>10000</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F31" s="6">
         <v>52362.5</v>
       </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7">
         <v>44954</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
         <v>20000</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <f>F26+F25-E25-E26-E27</f>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
+        <f>F31+F30-E30-E31-E32</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>Sr. No</t>
   </si>
@@ -203,9 +203,6 @@
     <t>13/23-24</t>
   </si>
   <si>
-    <t>digi.2324/0245</t>
-  </si>
-  <si>
     <t>b23-24MQ116</t>
   </si>
   <si>
@@ -213,6 +210,18 @@
   </si>
   <si>
     <t>I-C-1-23-450927</t>
+  </si>
+  <si>
+    <t>Digi.2324/0245</t>
+  </si>
+  <si>
+    <t>VM/2548/23-24</t>
+  </si>
+  <si>
+    <t>V M Traders</t>
+  </si>
+  <si>
+    <t>vM/2575/23-24</t>
   </si>
 </sst>
 </file>
@@ -649,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -884,7 +893,7 @@
         <v>45065</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>29</v>
@@ -921,7 +930,7 @@
         <v>45069</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>36</v>
@@ -990,6 +999,43 @@
       <c r="F22" s="25">
         <f>E22</f>
         <v>3983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45070</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="9">
+        <v>123133</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3">
+        <v>45071</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="9">
+        <v>36816</v>
+      </c>
+      <c r="F25" s="25">
+        <f>E24+E25</f>
+        <v>159949</v>
       </c>
     </row>
   </sheetData>
@@ -1225,7 +1271,7 @@
         <v>45070</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>14</v>
@@ -1241,7 +1287,7 @@
         <v>45070</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>14</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -658,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -816,225 +816,236 @@
       <c r="E8" s="23">
         <v>67874</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="9">
         <f>F7+E8</f>
         <v>296483</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="25">
+        <f>F8-100000</f>
+        <v>196483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
       <c r="B11" s="24">
         <v>45015</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F11" s="25"/>
+        <v>38940</v>
+      </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="24">
-        <v>45036</v>
+        <v>45015</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="23">
-        <v>38940</v>
+        <v>65490</v>
       </c>
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="24">
-        <v>45056</v>
+        <v>45036</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="23">
-        <v>68263</v>
+        <v>38940</v>
       </c>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="24">
-        <v>45065</v>
+        <v>45056</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="23">
+        <v>68263</v>
+      </c>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="24">
+        <v>45065</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="23">
         <v>36757</v>
       </c>
-      <c r="F14" s="25">
-        <f>E10+E11+E12+E13+E14</f>
+      <c r="F15" s="25">
+        <f>E11+E12+E13+E14+E15</f>
         <v>248390</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>3</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B17" s="24">
         <v>45036</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C17" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="23">
-        <v>93220</v>
-      </c>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="24">
-        <v>45069</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>59</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="23">
+        <v>93220</v>
+      </c>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="24">
+        <v>45069</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="23">
         <v>96996</v>
       </c>
-      <c r="F17" s="25">
-        <f>E16+E17</f>
+      <c r="F18" s="25">
+        <f>E17+E18</f>
         <v>190216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>4</v>
       </c>
-      <c r="B19" s="24">
-        <v>45057</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="23">
-        <v>38527</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
       <c r="B20" s="24">
         <v>45057</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="23">
+        <v>38527</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="24">
+        <v>45057</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="23">
         <v>57791</v>
       </c>
-      <c r="F20" s="25">
-        <f>E19+E20</f>
+      <c r="F21" s="25">
+        <f>E20+E21</f>
         <v>96318</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B23" s="24">
         <v>45058</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E23" s="23">
         <v>3983</v>
       </c>
-      <c r="F22" s="25">
-        <f>E22</f>
+      <c r="F23" s="25">
+        <f>E23</f>
         <v>3983</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>6</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>45070</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="9">
-        <v>123133</v>
-      </c>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3">
-        <v>45071</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="9">
+        <v>123133</v>
+      </c>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3">
+        <v>45071</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="9">
         <v>36816</v>
       </c>
-      <c r="F25" s="25">
-        <f>E24+E25</f>
+      <c r="F26" s="25">
+        <f>E25+E26</f>
         <v>159949</v>
       </c>
     </row>
@@ -1470,7 +1481,7 @@
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Sr. No</t>
   </si>
@@ -221,7 +221,19 @@
     <t>V M Traders</t>
   </si>
   <si>
-    <t>vM/2575/23-24</t>
+    <t>17/23-24</t>
+  </si>
+  <si>
+    <t>I-C-1-23-451040</t>
+  </si>
+  <si>
+    <t>VM/2575/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ118</t>
+  </si>
+  <si>
+    <t>b23-24AQ119</t>
   </si>
 </sst>
 </file>
@@ -658,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -827,225 +839,260 @@
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="25">
+      <c r="F9" s="9">
         <f>F8-100000</f>
         <v>196483</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="24">
+        <v>45075</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="23">
+        <v>122868</v>
+      </c>
+      <c r="F10" s="25">
+        <f>F9+E10</f>
+        <v>319351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
       <c r="B12" s="24">
         <v>45015</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F12" s="25"/>
+        <v>38940</v>
+      </c>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="24">
-        <v>45036</v>
+        <v>45015</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="23">
-        <v>38940</v>
+        <v>65490</v>
       </c>
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="24">
-        <v>45056</v>
+        <v>45036</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="23">
-        <v>68263</v>
+        <v>38940</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="24">
-        <v>45065</v>
+        <v>45056</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="23">
+        <v>68263</v>
+      </c>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="24">
+        <v>45065</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="23">
         <v>36757</v>
       </c>
-      <c r="F15" s="25">
-        <f>E11+E12+E13+E14+E15</f>
-        <v>248390</v>
-      </c>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="9"/>
+      <c r="B17" s="24">
+        <v>45072</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="23">
+        <v>64900</v>
+      </c>
+      <c r="F17" s="25">
+        <f>E12+E13+E14+E15+E16+E17</f>
+        <v>313290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>3</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B19" s="24">
         <v>45036</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E19" s="23">
         <v>93220</v>
       </c>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="24">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="24">
         <v>45069</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E20" s="23">
         <v>96996</v>
       </c>
-      <c r="F18" s="25">
-        <f>E17+E18</f>
+      <c r="F20" s="25">
+        <f>E19+E20</f>
         <v>190216</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>4</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B22" s="24">
         <v>45057</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C22" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D22" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E22" s="23">
         <v>38527</v>
       </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="24">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="24">
         <v>45057</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E23" s="23">
         <v>57791</v>
       </c>
-      <c r="F21" s="25">
-        <f>E20+E21</f>
+      <c r="F23" s="25">
+        <f>E22+E23</f>
         <v>96318</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B25" s="24">
         <v>45058</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E25" s="23">
         <v>3983</v>
       </c>
-      <c r="F23" s="25">
-        <f>E23</f>
+      <c r="F25" s="25">
+        <f>E25</f>
         <v>3983</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>6</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B27" s="3">
         <v>45070</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E27" s="9">
         <v>123133</v>
       </c>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3">
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3">
         <v>45071</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="C28" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E28" s="9">
         <v>36816</v>
       </c>
-      <c r="F26" s="25">
-        <f>E25+E26</f>
+      <c r="F28" s="25">
+        <f>E27+E28</f>
         <v>159949</v>
       </c>
     </row>
@@ -1057,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1306,59 +1353,62 @@
       <c r="E15" s="22">
         <v>290754</v>
       </c>
-      <c r="F15" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15</f>
-        <v>1994508.54</v>
-      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="21">
+        <v>45080</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="22">
+        <v>866704</v>
+      </c>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>3</v>
-      </c>
-      <c r="B17" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F17" s="12">
-        <f>E17-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="21">
+        <v>45080</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="22">
+        <v>83667</v>
+      </c>
+      <c r="F17" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17</f>
+        <v>2944879.54</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="14">
-        <v>44861</v>
+        <v>44841</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E19" s="15">
-        <v>2689515</v>
+        <v>64917.7</v>
       </c>
       <c r="F19" s="12">
-        <f>E19-2512515</f>
-        <v>177000</v>
+        <f>E19-50000</f>
+        <v>14917.699999999997</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1368,29 +1418,26 @@
       <c r="D20" s="17"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
-      <c r="J20" s="10" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="14">
-        <v>44902</v>
+        <v>44861</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21" s="15">
-        <v>2021558.3</v>
+        <v>2689515</v>
       </c>
       <c r="F21" s="12">
-        <f>E21-175496-500000-800000</f>
-        <v>546062.30000000005</v>
+        <f>E21-2512515</f>
+        <v>177000</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1400,26 +1447,29 @@
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>
       <c r="F22" s="19"/>
+      <c r="J22" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="14">
-        <v>44984</v>
+        <v>44902</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E23" s="15">
-        <v>414180</v>
+        <v>2021558.3</v>
       </c>
       <c r="F23" s="12">
-        <f>E23</f>
-        <v>414180</v>
+        <f>E23-175496-500000-800000</f>
+        <v>546062.30000000005</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1432,17 +1482,24 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>7</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="14">
+        <v>44984</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="D25" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F25" s="12"/>
+        <v>414180</v>
+      </c>
+      <c r="F25" s="12">
+        <f>E25</f>
+        <v>414180</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
@@ -1454,24 +1511,17 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>8</v>
-      </c>
-      <c r="B27" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E27" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F27" s="12">
-        <f>E27</f>
-        <v>21900.799999999999</v>
-      </c>
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
@@ -1481,82 +1531,111 @@
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>8</v>
+      </c>
+      <c r="B29" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F29" s="12">
+        <f>E29</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>8</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B32" s="7">
         <v>44573</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F30" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F31" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
       <c r="E32" s="6">
         <v>20000</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6">
-        <f>F31+F30-E30-E31-E32</f>
+      <c r="F32" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F33" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <f>F33+F32-E32-E33-E34</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>Sr. No</t>
   </si>
@@ -167,12 +167,6 @@
     <t>b23-24MQ111</t>
   </si>
   <si>
-    <t>2023-24/1458</t>
-  </si>
-  <si>
-    <t>Print House</t>
-  </si>
-  <si>
     <t>11/23-24</t>
   </si>
   <si>
@@ -234,6 +228,15 @@
   </si>
   <si>
     <t>b23-24AQ119</t>
+  </si>
+  <si>
+    <t>20/23-24</t>
+  </si>
+  <si>
+    <t>Sanyo &amp; Sanyo</t>
+  </si>
+  <si>
+    <t>Chq no 089916 Dated 02-07-2023</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,6 +391,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -801,7 +810,7 @@
         <v>45059</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>40</v>
@@ -820,7 +829,7 @@
         <v>45064</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>40</v>
@@ -850,7 +859,7 @@
         <v>45075</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>40</v>
@@ -858,242 +867,264 @@
       <c r="E10" s="23">
         <v>122868</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="9">
         <f>F9+E10</f>
         <v>319351</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="24">
+        <v>45083</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="23">
+        <v>168475</v>
+      </c>
+      <c r="F11" s="25">
+        <f>F10+E11</f>
+        <v>487826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
       <c r="B13" s="24">
         <v>45015</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F13" s="25"/>
+        <v>38940</v>
+      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="24">
-        <v>45036</v>
+        <v>45015</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="23">
-        <v>38940</v>
+        <v>65490</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="24">
-        <v>45056</v>
+        <v>45036</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="23">
-        <v>68263</v>
+        <v>38940</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="24">
-        <v>45065</v>
+        <v>45056</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="23">
-        <v>36757</v>
+        <v>68263</v>
       </c>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="24">
-        <v>45072</v>
+        <v>45065</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="23">
+        <v>36757</v>
+      </c>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="24">
+        <v>45072</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="23">
         <v>64900</v>
       </c>
-      <c r="F17" s="25">
-        <f>E12+E13+E14+E15+E16+E17</f>
+      <c r="F18" s="25">
+        <f>E13+E14+E15+E16+E17+E18</f>
         <v>313290</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B20" s="24">
         <v>45036</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="23">
-        <v>93220</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="24">
-        <v>45069</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>59</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="23">
+        <v>93220</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="24">
+        <v>45069</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="23">
         <v>96996</v>
       </c>
-      <c r="F20" s="25">
-        <f>E19+E20</f>
+      <c r="F21" s="25">
+        <f>E20+E21</f>
         <v>190216</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>4</v>
       </c>
-      <c r="B22" s="24">
-        <v>45057</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="23">
-        <v>38527</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
       <c r="B23" s="24">
         <v>45057</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="23">
+        <v>38527</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="24">
+        <v>45057</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="23">
         <v>57791</v>
       </c>
-      <c r="F23" s="25">
-        <f>E22+E23</f>
+      <c r="F24" s="25">
+        <f>E23+E24</f>
         <v>96318</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="24">
-        <v>45058</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="23">
-        <v>3983</v>
-      </c>
-      <c r="F25" s="25">
-        <f>E25</f>
-        <v>3983</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="B26" s="3">
+        <v>45070</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="9">
+        <v>123133</v>
+      </c>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3">
+        <v>45071</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="9">
+        <v>36816</v>
+      </c>
+      <c r="F27" s="25">
+        <f>E26+E27</f>
+        <v>159949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>6</v>
       </c>
-      <c r="B27" s="3">
-        <v>45070</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="9">
-        <v>123133</v>
-      </c>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3">
-        <v>45071</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="9">
-        <v>36816</v>
-      </c>
-      <c r="F28" s="25">
-        <f>E27+E28</f>
-        <v>159949</v>
+      <c r="B29" s="27">
+        <v>45082</v>
+      </c>
+      <c r="C29" s="26">
+        <v>276</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="9">
+        <v>11500</v>
+      </c>
+      <c r="F29" s="25">
+        <f>E29</f>
+        <v>11500</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1106,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1265,7 +1296,7 @@
         <v>45058</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1281,7 +1312,7 @@
         <v>45058</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>
@@ -1297,7 +1328,7 @@
         <v>45063</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>14</v>
@@ -1313,7 +1344,7 @@
         <v>45063</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>14</v>
@@ -1329,7 +1360,7 @@
         <v>45070</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>14</v>
@@ -1345,7 +1376,7 @@
         <v>45070</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>14</v>
@@ -1361,7 +1392,7 @@
         <v>45080</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>14</v>
@@ -1377,7 +1408,7 @@
         <v>45080</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>14</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Sr. No</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Marcfremiot</t>
   </si>
   <si>
-    <t>Digi.2324/0090</t>
-  </si>
-  <si>
     <t>Digiserve</t>
   </si>
   <si>
@@ -164,27 +161,15 @@
     <t>b23-24MQ109</t>
   </si>
   <si>
-    <t>b23-24MQ111</t>
-  </si>
-  <si>
     <t>11/23-24</t>
   </si>
   <si>
     <t>I-C-1-23-450796</t>
   </si>
   <si>
-    <t>b23-24MQ112</t>
-  </si>
-  <si>
-    <t>b23-24MQ113</t>
-  </si>
-  <si>
     <t>b23-24MQ114</t>
   </si>
   <si>
-    <t>b23-24MQ115</t>
-  </si>
-  <si>
     <t>INV-012553</t>
   </si>
   <si>
@@ -200,9 +185,6 @@
     <t>b23-24MQ116</t>
   </si>
   <si>
-    <t>b23-24AQ117</t>
-  </si>
-  <si>
     <t>I-C-1-23-450927</t>
   </si>
   <si>
@@ -237,6 +219,36 @@
   </si>
   <si>
     <t>Chq no 089916 Dated 02-07-2023</t>
+  </si>
+  <si>
+    <t>PNJ232401640</t>
+  </si>
+  <si>
+    <t>Silicon Computers</t>
+  </si>
+  <si>
+    <t>Chq no 089918 Dated 25-06-2023</t>
+  </si>
+  <si>
+    <t>21/23-24</t>
+  </si>
+  <si>
+    <t>B&amp;B/23-24/038</t>
+  </si>
+  <si>
+    <t>Bits &amp; Bytes Technologies</t>
+  </si>
+  <si>
+    <t>PNJ232401692</t>
+  </si>
+  <si>
+    <t>Chq no 089919 Dated 28-06-2023</t>
+  </si>
+  <si>
+    <t>b23-24MQ120</t>
+  </si>
+  <si>
+    <t>b23-24AQ121</t>
   </si>
 </sst>
 </file>
@@ -289,7 +301,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -312,11 +324,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -397,6 +422,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -679,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -730,7 +758,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9">
         <v>94430</v>
@@ -746,7 +774,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9">
         <v>26491</v>
@@ -759,10 +787,10 @@
         <v>45041</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="9">
         <v>113339</v>
@@ -775,10 +803,10 @@
         <v>45044</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="E5" s="9">
         <v>76971</v>
@@ -791,10 +819,10 @@
         <v>45048</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="23">
         <v>29140</v>
@@ -810,10 +838,10 @@
         <v>45059</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="23">
         <v>38238</v>
@@ -829,10 +857,10 @@
         <v>45064</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="23">
         <v>67874</v>
@@ -859,10 +887,10 @@
         <v>45075</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="23">
         <v>122868</v>
@@ -878,60 +906,60 @@
         <v>45083</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="23">
         <v>168475</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="9">
         <f>F10+E11</f>
         <v>487826</v>
       </c>
     </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="24">
+        <v>45089</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="9">
+        <f>F11-200000</f>
+        <v>287826</v>
+      </c>
+    </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="9"/>
+      <c r="B13" s="24">
+        <v>45087</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="23">
+        <v>97055</v>
+      </c>
+      <c r="F13" s="25">
+        <f>F12+E13</f>
+        <v>384881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B15" s="24">
         <v>45015</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="24">
-        <v>45036</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>29</v>
@@ -939,192 +967,277 @@
       <c r="E15" s="23">
         <v>38940</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="24">
-        <v>45056</v>
+        <v>45015</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="23">
-        <v>68263</v>
+        <v>65490</v>
       </c>
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="24">
-        <v>45065</v>
+        <v>45036</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="23">
-        <v>36757</v>
+        <v>38940</v>
       </c>
       <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="24">
-        <v>45072</v>
+        <v>45056</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="23">
+        <v>68263</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="24">
+        <v>45065</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="23">
+        <v>36757</v>
+      </c>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="24">
+        <v>45072</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="23">
         <v>64900</v>
       </c>
-      <c r="F18" s="25">
-        <f>E13+E14+E15+E16+E17+E18</f>
+      <c r="F20" s="25">
+        <f>E15+E16+E17+E18+E19+E20</f>
         <v>313290</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="24">
-        <v>45036</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="B22" s="24">
+        <v>45069</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="23">
-        <v>93220</v>
-      </c>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="24">
-        <v>45069</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="E22" s="23">
         <v>96996</v>
       </c>
-      <c r="F21" s="25">
-        <f>E20+E21</f>
-        <v>190216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="F22" s="25">
+        <f>E22</f>
+        <v>96996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B23" s="24">
-        <v>45057</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="23">
-        <v>38527</v>
-      </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
       <c r="B24" s="24">
         <v>45057</v>
       </c>
       <c r="C24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="23">
+        <v>38527</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="24">
+        <v>45057</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="23">
+        <v>57791</v>
+      </c>
+      <c r="F25" s="25">
+        <f>E24+E25</f>
+        <v>96318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45070</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="23">
-        <v>57791</v>
-      </c>
-      <c r="F24" s="25">
-        <f>E23+E24</f>
-        <v>96318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3">
-        <v>45070</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="9">
         <v>123133</v>
       </c>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3">
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3">
         <v>45071</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="9">
+        <v>36816</v>
+      </c>
+      <c r="F28" s="25">
+        <f>E27+E28</f>
+        <v>159949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>6</v>
+      </c>
+      <c r="B30" s="24">
+        <v>45072</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="23">
+        <v>13250</v>
+      </c>
+      <c r="F30" s="25">
+        <f>E30</f>
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>7</v>
+      </c>
+      <c r="B32" s="27">
+        <v>45082</v>
+      </c>
+      <c r="C32" s="26">
+        <v>276</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="9">
+        <v>11500</v>
+      </c>
+      <c r="F32" s="28">
+        <f>E32</f>
+        <v>11500</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>8</v>
+      </c>
+      <c r="B34" s="24">
+        <v>45087</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="9">
-        <v>36816</v>
-      </c>
-      <c r="F27" s="25">
-        <f>E26+E27</f>
-        <v>159949</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>6</v>
-      </c>
-      <c r="B29" s="27">
-        <v>45082</v>
-      </c>
-      <c r="C29" s="26">
-        <v>276</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="9">
-        <v>11500</v>
-      </c>
-      <c r="F29" s="25">
-        <f>E29</f>
-        <v>11500</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>67</v>
+      <c r="D34" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="23">
+        <v>11092</v>
+      </c>
+      <c r="F34" s="25">
+        <f>E34</f>
+        <v>11092</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>9</v>
+      </c>
+      <c r="B36" s="24">
+        <v>45090</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="23">
+        <v>5546</v>
+      </c>
+      <c r="F36" s="25">
+        <f>E36</f>
+        <v>5546</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1135,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1264,7 +1377,7 @@
         <v>45051</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1277,396 +1390,348 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="21">
-        <v>45051</v>
+        <v>45063</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="22">
-        <v>6624.5</v>
+        <v>369945</v>
       </c>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="21">
-        <v>45058</v>
+        <v>45070</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="22">
-        <v>48630.2</v>
+        <v>861388.2</v>
       </c>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="21">
-        <v>45058</v>
+        <v>45080</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="22">
-        <v>28320</v>
+        <v>866704</v>
       </c>
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="21">
-        <v>45063</v>
+        <v>45080</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="22">
-        <v>369945</v>
+        <v>83667</v>
       </c>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="21">
-        <v>45063</v>
+        <v>45090</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="22">
-        <v>86671</v>
+        <v>309443.20000000001</v>
       </c>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="21">
-        <v>45070</v>
+        <v>45090</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="22">
-        <v>861388.2</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="21">
-        <v>45070</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="22">
-        <v>290754</v>
-      </c>
-      <c r="F15" s="20"/>
+        <v>380989</v>
+      </c>
+      <c r="F14" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
+        <v>3174312.04</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="21">
-        <v>45080</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="22">
-        <v>866704</v>
-      </c>
-      <c r="F16" s="20"/>
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="14">
+        <v>44841</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="15">
+        <v>64917.7</v>
+      </c>
+      <c r="F16" s="12">
+        <f>E16-50000</f>
+        <v>14917.699999999997</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="21">
-        <v>45080</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="22">
-        <v>83667</v>
-      </c>
-      <c r="F17" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17</f>
-        <v>2944879.54</v>
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>4</v>
+      </c>
+      <c r="B18" s="14">
+        <v>44861</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2689515</v>
+      </c>
+      <c r="F18" s="12">
+        <f>E18-2512515</f>
+        <v>177000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>3</v>
-      </c>
-      <c r="B19" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F19" s="12">
-        <f>E19-50000</f>
-        <v>14917.699999999997</v>
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="J19" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="6">
+        <v>5</v>
+      </c>
+      <c r="B20" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F20" s="12">
+        <f>E20-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>6</v>
+      </c>
+      <c r="B22" s="14">
+        <v>44984</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="15">
+        <v>414180</v>
+      </c>
+      <c r="F22" s="12">
+        <f>E22</f>
+        <v>414180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>7</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>8</v>
+      </c>
+      <c r="B26" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F26" s="12">
+        <f>E26</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="14">
-        <v>44861</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="15">
-        <v>2689515</v>
-      </c>
-      <c r="F21" s="12">
-        <f>E21-2512515</f>
-        <v>177000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="J22" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="15">
-        <v>2021558.3</v>
-      </c>
-      <c r="F23" s="12">
-        <f>E23-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>6</v>
-      </c>
-      <c r="B25" s="14">
-        <v>44984</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="15">
-        <v>414180</v>
-      </c>
-      <c r="F25" s="12">
-        <f>E25</f>
-        <v>414180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>7</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>8</v>
       </c>
-      <c r="B29" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F29" s="12">
-        <f>E29</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
+      <c r="B29" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F29" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>8</v>
-      </c>
-      <c r="B32" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
         <v>20000</v>
       </c>
-      <c r="F32" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F33" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6">
-        <f>F33+F32-E32-E33-E34</f>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <f>F30+F29-E29-E30-E31</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>Sr. No</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>b23-24AQ121</t>
+  </si>
+  <si>
+    <t>b23-24AQ122</t>
+  </si>
+  <si>
+    <t>b23-24MQ123</t>
+  </si>
+  <si>
+    <t>23/23-24</t>
   </si>
 </sst>
 </file>
@@ -707,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -946,297 +955,316 @@
       <c r="E13" s="23">
         <v>97055</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="9">
         <f>F12+E13</f>
         <v>384881</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="24">
+        <v>45093</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="23">
+        <v>87556.5</v>
+      </c>
+      <c r="F14" s="25">
+        <f>F13+E14</f>
+        <v>472437.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>2</v>
       </c>
-      <c r="B15" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
       <c r="B16" s="24">
         <v>45015</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>38940</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="24">
-        <v>45036</v>
+        <v>45015</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="23">
-        <v>38940</v>
+        <v>65490</v>
       </c>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="24">
-        <v>45056</v>
+        <v>45036</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="23">
-        <v>68263</v>
+        <v>38940</v>
       </c>
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="24">
-        <v>45065</v>
+        <v>45056</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="23">
-        <v>36757</v>
+        <v>68263</v>
       </c>
       <c r="F19" s="25"/>
     </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="24">
-        <v>45072</v>
+        <v>45065</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="23">
+        <v>36757</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="24">
+        <v>45072</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="23">
         <v>64900</v>
       </c>
-      <c r="F20" s="25">
-        <f>E15+E16+E17+E18+E19+E20</f>
+      <c r="F21" s="25">
+        <f>E16+E17+E18+E19+E20+E21</f>
         <v>313290</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B23" s="24">
         <v>45069</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E23" s="23">
         <v>96996</v>
       </c>
-      <c r="F22" s="25">
-        <f>E22</f>
+      <c r="F23" s="25">
+        <f>E23</f>
         <v>96996</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="24">
-        <v>45057</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="23">
-        <v>38527</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
       <c r="B25" s="24">
         <v>45057</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E25" s="23">
+        <v>38527</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="24">
+        <v>45057</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="23">
         <v>57791</v>
       </c>
-      <c r="F25" s="25">
-        <f>E24+E25</f>
+      <c r="F26" s="25">
+        <f>E25+E26</f>
         <v>96318</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>5</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3">
         <v>45070</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="9">
-        <v>123133</v>
-      </c>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3">
-        <v>45071</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="9">
+        <v>123133</v>
+      </c>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3">
+        <v>45071</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="9">
         <v>36816</v>
       </c>
-      <c r="F28" s="25">
-        <f>E27+E28</f>
+      <c r="F29" s="25">
+        <f>E28+E29</f>
         <v>159949</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>6</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B31" s="24">
         <v>45072</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C31" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D31" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E31" s="23">
         <v>13250</v>
       </c>
-      <c r="F30" s="25">
-        <f>E30</f>
+      <c r="F31" s="25">
+        <f>E31</f>
         <v>13250</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>7</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B33" s="27">
         <v>45082</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C33" s="26">
         <v>276</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D33" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>11500</v>
       </c>
-      <c r="F32" s="28">
-        <f>E32</f>
+      <c r="F33" s="28">
+        <f>E33</f>
         <v>11500</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <v>8</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B35" s="24">
         <v>45087</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C35" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D35" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E35" s="23">
         <v>11092</v>
       </c>
-      <c r="F34" s="25">
-        <f>E34</f>
+      <c r="F35" s="25">
+        <f>E35</f>
         <v>11092</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G35" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>9</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B37" s="24">
         <v>45090</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D37" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E37" s="23">
         <v>5546</v>
       </c>
-      <c r="F36" s="25">
-        <f>E36</f>
+      <c r="F37" s="25">
+        <f>E37</f>
         <v>5546</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G37" s="23" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1248,17 +1276,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="42.44140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" style="10" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="10" customWidth="1"/>
@@ -1481,59 +1509,62 @@
       <c r="E14" s="22">
         <v>380989</v>
       </c>
-      <c r="F14" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
-        <v>3174312.04</v>
-      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="21">
+        <v>45097</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="22">
+        <v>190867</v>
+      </c>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>3</v>
-      </c>
-      <c r="B16" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F16" s="12">
-        <f>E16-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="21">
+        <v>45097</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="22">
+        <v>22373</v>
+      </c>
+      <c r="F16" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16</f>
+        <v>3387552.04</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="14">
-        <v>44861</v>
+        <v>44841</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E18" s="15">
-        <v>2689515</v>
+        <v>64917.7</v>
       </c>
       <c r="F18" s="12">
-        <f>E18-2512515</f>
-        <v>177000</v>
+        <f>E18-50000</f>
+        <v>14917.699999999997</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1543,29 +1574,26 @@
       <c r="D19" s="17"/>
       <c r="E19" s="18"/>
       <c r="F19" s="19"/>
-      <c r="J19" s="10" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="14">
-        <v>44902</v>
+        <v>44861</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20" s="15">
-        <v>2021558.3</v>
+        <v>2689515</v>
       </c>
       <c r="F20" s="12">
-        <f>E20-175496-500000-800000</f>
-        <v>546062.30000000005</v>
+        <f>E20-2512515</f>
+        <v>177000</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1575,26 +1603,29 @@
       <c r="D21" s="17"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
+      <c r="J21" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="14">
-        <v>44984</v>
+        <v>44902</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E22" s="15">
-        <v>414180</v>
+        <v>2021558.3</v>
       </c>
       <c r="F22" s="12">
-        <f>E22</f>
-        <v>414180</v>
+        <f>E22-175496-500000-800000</f>
+        <v>546062.30000000005</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1607,17 +1638,24 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>7</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B24" s="14">
+        <v>44984</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="D24" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E24" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F24" s="12"/>
+        <v>414180</v>
+      </c>
+      <c r="F24" s="12">
+        <f>E24</f>
+        <v>414180</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
@@ -1629,24 +1667,17 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>8</v>
-      </c>
-      <c r="B26" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E26" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F26" s="12">
-        <f>E26</f>
-        <v>21900.799999999999</v>
-      </c>
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
@@ -1656,82 +1687,111 @@
       <c r="E27" s="18"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>8</v>
+      </c>
+      <c r="B28" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F28" s="12">
+        <f>E28</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>8</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B31" s="7">
         <v>44573</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F29" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F30" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
       <c r="E31" s="6">
         <v>20000</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6">
-        <f>F30+F29-E29-E30-E31</f>
+      <c r="F31" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F32" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <f>F32+F31-E31-E32-E33</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>Sr. No</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>23/23-24</t>
+  </si>
+  <si>
+    <t>25/23-24</t>
   </si>
 </sst>
 </file>
@@ -716,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -972,299 +975,318 @@
         <v>39</v>
       </c>
       <c r="E14" s="23">
-        <v>87556.5</v>
-      </c>
-      <c r="F14" s="25">
+        <v>87556</v>
+      </c>
+      <c r="F14" s="9">
         <f>F13+E14</f>
-        <v>472437.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+        <v>472437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="24">
+        <v>45099</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="23">
+        <v>40179</v>
+      </c>
+      <c r="F15" s="25">
+        <f>F14+E15</f>
+        <v>512616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>2</v>
       </c>
-      <c r="B16" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
       <c r="B17" s="24">
         <v>45015</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F17" s="25"/>
+        <v>38940</v>
+      </c>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="24">
-        <v>45036</v>
+        <v>45015</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="23">
-        <v>38940</v>
+        <v>65490</v>
       </c>
       <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="24">
-        <v>45056</v>
+        <v>45036</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="23">
-        <v>68263</v>
+        <v>38940</v>
       </c>
       <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="24">
-        <v>45065</v>
+        <v>45056</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="23">
-        <v>36757</v>
+        <v>68263</v>
       </c>
       <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="24">
-        <v>45072</v>
+        <v>45065</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="23">
+        <v>36757</v>
+      </c>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="24">
+        <v>45072</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="23">
         <v>64900</v>
       </c>
-      <c r="F21" s="25">
-        <f>E16+E17+E18+E19+E20+E21</f>
+      <c r="F22" s="25">
+        <f>E17+E18+E19+E20+E21+E22</f>
         <v>313290</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B24" s="24">
         <v>45069</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C24" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E24" s="23">
         <v>96996</v>
       </c>
-      <c r="F23" s="25">
-        <f>E23</f>
+      <c r="F24" s="25">
+        <f>E24</f>
         <v>96996</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>4</v>
       </c>
-      <c r="B25" s="24">
-        <v>45057</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="23">
-        <v>38527</v>
-      </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
       <c r="B26" s="24">
         <v>45057</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E26" s="23">
+        <v>38527</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="24">
+        <v>45057</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="23">
         <v>57791</v>
       </c>
-      <c r="F26" s="25">
-        <f>E25+E26</f>
+      <c r="F27" s="25">
+        <f>E26+E27</f>
         <v>96318</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>5</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>45070</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="9">
-        <v>123133</v>
-      </c>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="3">
-        <v>45071</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="9">
+        <v>123133</v>
+      </c>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3">
+        <v>45071</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="9">
         <v>36816</v>
       </c>
-      <c r="F29" s="25">
-        <f>E28+E29</f>
+      <c r="F30" s="25">
+        <f>E29+E30</f>
         <v>159949</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>6</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B32" s="24">
         <v>45072</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D32" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E32" s="23">
         <v>13250</v>
       </c>
-      <c r="F31" s="25">
-        <f>E31</f>
+      <c r="F32" s="25">
+        <f>E32</f>
         <v>13250</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>7</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B34" s="27">
         <v>45082</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C34" s="26">
         <v>276</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D34" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>11500</v>
       </c>
-      <c r="F33" s="28">
-        <f>E33</f>
+      <c r="F34" s="28">
+        <f>E34</f>
         <v>11500</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>8</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B36" s="24">
         <v>45087</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C36" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D36" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E36" s="23">
         <v>11092</v>
       </c>
-      <c r="F35" s="25">
-        <f>E35</f>
+      <c r="F36" s="25">
+        <f>E36</f>
         <v>11092</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G36" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
         <v>9</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B38" s="24">
         <v>45090</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C38" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D38" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E38" s="23">
         <v>5546</v>
       </c>
-      <c r="F37" s="25">
-        <f>E37</f>
+      <c r="F38" s="25">
+        <f>E38</f>
         <v>5546</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G38" s="23" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1278,15 +1300,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="10" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="42.44140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" style="10" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="10" customWidth="1"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -722,7 +722,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A42" sqref="A42:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t>Sr. No</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>25/23-24</t>
+  </si>
+  <si>
+    <t>b23-24AQ124</t>
   </si>
 </sst>
 </file>
@@ -721,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1298,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1563,257 +1566,273 @@
       <c r="E16" s="22">
         <v>22373</v>
       </c>
-      <c r="F16" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16</f>
-        <v>3387552.04</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="21">
+        <v>45101</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="22">
+        <v>101562.6</v>
+      </c>
+      <c r="F17" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17</f>
+        <v>3489114.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B19" s="14">
         <v>44841</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F18" s="12">
-        <f>E18-50000</f>
+      <c r="F19" s="12">
+        <f>E19-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-    </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>4</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B21" s="14">
         <v>44861</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>2689515</v>
       </c>
-      <c r="F20" s="12">
-        <f>E20-2512515</f>
+      <c r="F21" s="12">
+        <f>E21-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="J21" s="10" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="J22" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>5</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B23" s="14">
         <v>44902</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F22" s="12">
-        <f>E22-175496-500000-800000</f>
+      <c r="F23" s="12">
+        <f>E23-175496-500000-800000</f>
         <v>546062.30000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-    </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>6</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B25" s="14">
         <v>44984</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="15">
         <v>414180</v>
       </c>
-      <c r="F24" s="12">
-        <f>E24</f>
+      <c r="F25" s="12">
+        <f>E25</f>
         <v>414180</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-    </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>7</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>8</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B29" s="14">
         <v>45034</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>21900.799999999999</v>
       </c>
-      <c r="F28" s="12">
-        <f>E28</f>
+      <c r="F29" s="12">
+        <f>E29</f>
         <v>21900.799999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>8</v>
       </c>
-      <c r="B31" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F31" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
       <c r="B32" s="7">
         <v>44573</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F32" s="6">
-        <v>52362.5</v>
+        <v>29641.599999999999</v>
       </c>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F33" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7">
         <v>44954</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
         <v>20000</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6">
-        <f>F32+F31-E31-E32-E33</f>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <f>F33+F32-E32-E33-E34</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>Sr. No</t>
   </si>
@@ -221,13 +221,7 @@
     <t>Chq no 089916 Dated 02-07-2023</t>
   </si>
   <si>
-    <t>PNJ232401640</t>
-  </si>
-  <si>
     <t>Silicon Computers</t>
-  </si>
-  <si>
-    <t>Chq no 089918 Dated 25-06-2023</t>
   </si>
   <si>
     <t>21/23-24</t>
@@ -722,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -953,7 +947,7 @@
         <v>45087</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>39</v>
@@ -972,7 +966,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>39</v>
@@ -991,7 +985,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>39</v>
@@ -1208,10 +1202,10 @@
         <v>45072</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" s="23">
         <v>13250</v>
@@ -1250,47 +1244,23 @@
         <v>8</v>
       </c>
       <c r="B36" s="24">
-        <v>45087</v>
+        <v>45090</v>
       </c>
       <c r="C36" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>63</v>
-      </c>
       <c r="E36" s="23">
-        <v>11092</v>
+        <v>5546</v>
       </c>
       <c r="F36" s="25">
         <f>E36</f>
-        <v>11092</v>
+        <v>5546</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>9</v>
-      </c>
-      <c r="B38" s="24">
-        <v>45090</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="23">
-        <v>5546</v>
-      </c>
-      <c r="F38" s="25">
-        <f>E38</f>
-        <v>5546</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1303,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1510,7 +1480,7 @@
         <v>45090</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>14</v>
@@ -1526,7 +1496,7 @@
         <v>45090</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>14</v>
@@ -1542,7 +1512,7 @@
         <v>45097</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>14</v>
@@ -1558,7 +1528,7 @@
         <v>45097</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>14</v>
@@ -1574,7 +1544,7 @@
         <v>45101</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>14</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>Sr. No</t>
   </si>
@@ -158,9 +158,6 @@
     <t>08/23-24</t>
   </si>
   <si>
-    <t>b23-24MQ109</t>
-  </si>
-  <si>
     <t>11/23-24</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>13/23-24</t>
   </si>
   <si>
-    <t>b23-24MQ116</t>
-  </si>
-  <si>
     <t>I-C-1-23-450927</t>
   </si>
   <si>
@@ -206,58 +200,16 @@
     <t>VM/2575/23-24</t>
   </si>
   <si>
-    <t>b23-24MQ118</t>
-  </si>
-  <si>
-    <t>b23-24AQ119</t>
-  </si>
-  <si>
     <t>20/23-24</t>
   </si>
   <si>
-    <t>Sanyo &amp; Sanyo</t>
-  </si>
-  <si>
-    <t>Chq no 089916 Dated 02-07-2023</t>
-  </si>
-  <si>
-    <t>Silicon Computers</t>
-  </si>
-  <si>
     <t>21/23-24</t>
   </si>
   <si>
-    <t>B&amp;B/23-24/038</t>
-  </si>
-  <si>
-    <t>Bits &amp; Bytes Technologies</t>
-  </si>
-  <si>
-    <t>PNJ232401692</t>
-  </si>
-  <si>
-    <t>Chq no 089919 Dated 28-06-2023</t>
-  </si>
-  <si>
-    <t>b23-24MQ120</t>
-  </si>
-  <si>
-    <t>b23-24AQ121</t>
-  </si>
-  <si>
-    <t>b23-24AQ122</t>
-  </si>
-  <si>
-    <t>b23-24MQ123</t>
-  </si>
-  <si>
     <t>23/23-24</t>
   </si>
   <si>
     <t>25/23-24</t>
-  </si>
-  <si>
-    <t>b23-24AQ124</t>
   </si>
 </sst>
 </file>
@@ -310,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -333,24 +285,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -425,15 +364,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -716,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -847,7 +777,7 @@
         <v>45059</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -866,7 +796,7 @@
         <v>45064</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>39</v>
@@ -896,7 +826,7 @@
         <v>45075</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>39</v>
@@ -915,7 +845,7 @@
         <v>45083</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>39</v>
@@ -947,7 +877,7 @@
         <v>45087</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>39</v>
@@ -966,7 +896,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>39</v>
@@ -985,7 +915,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>39</v>
@@ -1054,7 +984,7 @@
         <v>45056</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>29</v>
@@ -1070,7 +1000,7 @@
         <v>45065</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>29</v>
@@ -1086,7 +1016,7 @@
         <v>45072</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>29</v>
@@ -1107,7 +1037,7 @@
         <v>45069</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>35</v>
@@ -1128,10 +1058,10 @@
         <v>45057</v>
       </c>
       <c r="C26" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>46</v>
       </c>
       <c r="E26" s="23">
         <v>38527</v>
@@ -1144,10 +1074,10 @@
         <v>45057</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="23">
         <v>57791</v>
@@ -1165,10 +1095,10 @@
         <v>45070</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="9">
         <v>123133</v>
@@ -1181,10 +1111,10 @@
         <v>45071</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E30" s="9">
         <v>36816</v>
@@ -1192,75 +1122,6 @@
       <c r="F30" s="25">
         <f>E29+E30</f>
         <v>159949</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>6</v>
-      </c>
-      <c r="B32" s="24">
-        <v>45072</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="23">
-        <v>13250</v>
-      </c>
-      <c r="F32" s="25">
-        <f>E32</f>
-        <v>13250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>7</v>
-      </c>
-      <c r="B34" s="27">
-        <v>45082</v>
-      </c>
-      <c r="C34" s="26">
-        <v>276</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="9">
-        <v>11500</v>
-      </c>
-      <c r="F34" s="28">
-        <f>E34</f>
-        <v>11500</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>8</v>
-      </c>
-      <c r="B36" s="24">
-        <v>45090</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="23">
-        <v>5546</v>
-      </c>
-      <c r="F36" s="25">
-        <f>E36</f>
-        <v>5546</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1271,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1290,7 +1151,7 @@
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1326,7 +1187,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1336,7 +1197,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1344,7 +1205,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1362,7 +1223,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
@@ -1378,7 +1239,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
@@ -1394,415 +1255,271 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
-        <v>45051</v>
+        <v>45063</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="22">
-        <v>223118</v>
-      </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="21">
-        <v>45063</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="22">
         <v>369945</v>
       </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="21">
-        <v>45070</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="22">
-        <v>861388.2</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="21">
-        <v>45080</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="22">
-        <v>866704</v>
-      </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="21">
-        <v>45080</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="22">
-        <v>83667</v>
-      </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="21">
-        <v>45090</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="22">
-        <v>309443.20000000001</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="21">
-        <v>45090</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="22">
-        <v>380989</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="21">
-        <v>45097</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="22">
-        <v>190867</v>
-      </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="21">
-        <v>45097</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="22">
-        <v>22373</v>
-      </c>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="21">
-        <v>45101</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="22">
-        <v>101562.6</v>
-      </c>
-      <c r="F17" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17</f>
-        <v>3489114.64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="F8" s="20">
+        <f>E5+E6+E7+E8</f>
+        <v>449002.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B10" s="14">
         <v>44841</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E10" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F19" s="12">
-        <f>E19-50000</f>
+      <c r="F10" s="12">
+        <f>E10-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B12" s="14">
         <v>44861</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E12" s="15">
         <v>2689515</v>
       </c>
-      <c r="F21" s="12">
-        <f>E21-2512515</f>
+      <c r="F12" s="12">
+        <f>E12-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="J22" s="10" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="J13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F14" s="12">
+        <f>E14-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14">
+        <v>44984</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15">
+        <v>414180</v>
+      </c>
+      <c r="F16" s="12">
+        <f>E16</f>
+        <v>414180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>7</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>8</v>
+      </c>
+      <c r="B20" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F20" s="12">
+        <f>E20</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>5</v>
-      </c>
-      <c r="B23" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="15">
-        <v>2021558.3</v>
-      </c>
-      <c r="F23" s="12">
-        <f>E23-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>6</v>
-      </c>
-      <c r="B25" s="14">
-        <v>44984</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="15">
-        <v>414180</v>
-      </c>
-      <c r="F25" s="12">
-        <f>E25</f>
-        <v>414180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>7</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>8</v>
-      </c>
-      <c r="B29" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F29" s="12">
-        <f>E29</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>8</v>
-      </c>
-      <c r="B32" s="7">
+        <v>9</v>
+      </c>
+      <c r="B23" s="7">
         <v>44573</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E23" s="6">
         <v>20000</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F23" s="6">
         <v>29641.599999999999</v>
       </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7">
         <v>44573</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E24" s="6">
         <v>10000</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F24" s="6">
         <v>52362.5</v>
       </c>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7">
         <v>44954</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
         <v>20000</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6">
-        <f>F33+F32-E32-E33-E34</f>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <f>F24+F23-E23-E24-E25</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>Sr. No</t>
   </si>
@@ -646,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -923,204 +923,219 @@
       <c r="E15" s="23">
         <v>40179</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="9">
         <f>F14+E15</f>
         <v>512616</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="24">
+        <v>45111</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="25">
+        <f>F15-400000</f>
+        <v>112616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="24">
-        <v>45015</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
       <c r="B18" s="24">
         <v>45015</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F18" s="25"/>
+        <v>38940</v>
+      </c>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="24">
-        <v>45036</v>
+        <v>45015</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="23">
-        <v>38940</v>
+        <v>65490</v>
       </c>
       <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="24">
-        <v>45056</v>
+        <v>45036</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="23">
-        <v>68263</v>
+        <v>38940</v>
       </c>
       <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="24">
-        <v>45065</v>
+        <v>45056</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="23">
-        <v>36757</v>
+        <v>68263</v>
       </c>
       <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="24">
-        <v>45072</v>
+        <v>45065</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="23">
+        <v>36757</v>
+      </c>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="24">
+        <v>45072</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="23">
         <v>64900</v>
       </c>
-      <c r="F22" s="25">
-        <f>E17+E18+E19+E20+E21+E22</f>
+      <c r="F23" s="25">
+        <f>E18+E19+E20+E21+E22+E23</f>
         <v>313290</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>3</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B25" s="24">
         <v>45069</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D25" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E25" s="23">
         <v>96996</v>
       </c>
-      <c r="F24" s="25">
-        <f>E24</f>
+      <c r="F25" s="25">
+        <f>E25</f>
         <v>96996</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>4</v>
       </c>
-      <c r="B26" s="24">
-        <v>45057</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="23">
-        <v>38527</v>
-      </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
       <c r="B27" s="24">
         <v>45057</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="23">
+        <v>38527</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="24">
+        <v>45057</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="23">
         <v>57791</v>
       </c>
-      <c r="F27" s="25">
-        <f>E26+E27</f>
+      <c r="F28" s="25">
+        <f>E27+E28</f>
         <v>96318</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>5</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <v>45070</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="9">
-        <v>123133</v>
-      </c>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3">
-        <v>45071</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="9">
+        <v>123133</v>
+      </c>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3">
+        <v>45071</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="9">
         <v>36816</v>
       </c>
-      <c r="F30" s="25">
-        <f>E29+E30</f>
+      <c r="F31" s="25">
+        <f>E30+E31</f>
         <v>159949</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Sr. No</t>
   </si>
@@ -119,15 +119,9 @@
     <t>b22-23MQ428</t>
   </si>
   <si>
-    <t>I-C-1-23-445419</t>
-  </si>
-  <si>
     <t>Collective Trade Links Pvt Ltd</t>
   </si>
   <si>
-    <t>I-C-1-23-445420</t>
-  </si>
-  <si>
     <t>02/23-24</t>
   </si>
   <si>
@@ -140,15 +134,9 @@
     <t>Marcfremiot</t>
   </si>
   <si>
-    <t>Digiserve</t>
-  </si>
-  <si>
     <t>06/23-24</t>
   </si>
   <si>
-    <t>I-C-1-23-450387</t>
-  </si>
-  <si>
     <t>07/23-24</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
     <t>11/23-24</t>
   </si>
   <si>
-    <t>I-C-1-23-450796</t>
-  </si>
-  <si>
     <t>b23-24MQ114</t>
   </si>
   <si>
@@ -182,22 +167,10 @@
     <t>I-C-1-23-450927</t>
   </si>
   <si>
-    <t>Digi.2324/0245</t>
-  </si>
-  <si>
-    <t>VM/2548/23-24</t>
-  </si>
-  <si>
-    <t>V M Traders</t>
-  </si>
-  <si>
     <t>17/23-24</t>
   </si>
   <si>
     <t>I-C-1-23-451040</t>
-  </si>
-  <si>
-    <t>VM/2575/23-24</t>
   </si>
   <si>
     <t>20/23-24</t>
@@ -646,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A24" sqref="A24:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -694,10 +667,10 @@
         <v>45028</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="9">
         <v>94430</v>
@@ -710,10 +683,10 @@
         <v>45030</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="9">
         <v>26491</v>
@@ -726,10 +699,10 @@
         <v>45041</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9">
         <v>113339</v>
@@ -742,10 +715,10 @@
         <v>45044</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E5" s="9">
         <v>76971</v>
@@ -758,10 +731,10 @@
         <v>45048</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" s="23">
         <v>29140</v>
@@ -777,10 +750,10 @@
         <v>45059</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E7" s="23">
         <v>38238</v>
@@ -796,10 +769,10 @@
         <v>45064</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" s="23">
         <v>67874</v>
@@ -826,10 +799,10 @@
         <v>45075</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="23">
         <v>122868</v>
@@ -845,10 +818,10 @@
         <v>45083</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" s="23">
         <v>168475</v>
@@ -877,10 +850,10 @@
         <v>45087</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E13" s="23">
         <v>97055</v>
@@ -896,10 +869,10 @@
         <v>45093</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E14" s="23">
         <v>87556</v>
@@ -915,10 +888,10 @@
         <v>45099</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E15" s="23">
         <v>40179</v>
@@ -935,7 +908,7 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="25">
@@ -948,195 +921,73 @@
         <v>2</v>
       </c>
       <c r="B18" s="24">
-        <v>45015</v>
+        <v>45065</v>
       </c>
       <c r="C18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>29</v>
-      </c>
       <c r="E18" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F18" s="9"/>
+        <v>36757</v>
+      </c>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="24">
-        <v>45015</v>
+        <v>45072</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="23">
-        <v>65490</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="24">
-        <v>45036</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="23">
-        <v>38940</v>
-      </c>
-      <c r="F20" s="25"/>
+        <v>64900</v>
+      </c>
+      <c r="F19" s="25">
+        <f>E18+E19</f>
+        <v>101657</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="9">
+        <v>3</v>
+      </c>
       <c r="B21" s="24">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E21" s="23">
-        <v>68263</v>
-      </c>
-      <c r="F21" s="25"/>
+        <v>38527</v>
+      </c>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="24">
-        <v>45065</v>
+        <v>45057</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E22" s="23">
-        <v>36757</v>
-      </c>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="24">
-        <v>45072</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="23">
-        <v>64900</v>
-      </c>
-      <c r="F23" s="25">
-        <f>E18+E19+E20+E21+E22+E23</f>
-        <v>313290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>3</v>
-      </c>
-      <c r="B25" s="24">
-        <v>45069</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="23">
-        <v>96996</v>
-      </c>
-      <c r="F25" s="25">
-        <f>E25</f>
-        <v>96996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>4</v>
-      </c>
-      <c r="B27" s="24">
-        <v>45057</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="23">
-        <v>38527</v>
-      </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="24">
-        <v>45057</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="23">
         <v>57791</v>
       </c>
-      <c r="F28" s="25">
-        <f>E27+E28</f>
+      <c r="F22" s="25">
+        <f>E21+E22</f>
         <v>96318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>5</v>
-      </c>
-      <c r="B30" s="3">
-        <v>45070</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="9">
-        <v>123133</v>
-      </c>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="3">
-        <v>45071</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="9">
-        <v>36816</v>
-      </c>
-      <c r="F31" s="25">
-        <f>E30+E31</f>
-        <v>159949</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1001,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1276,7 +1127,7 @@
         <v>45063</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1438,10 +1289,10 @@
         <v>45034</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="15">
         <v>21900.799999999999</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>Sr. No</t>
   </si>
@@ -150,15 +150,6 @@
   </si>
   <si>
     <t>b23-24MQ114</t>
-  </si>
-  <si>
-    <t>INV-012553</t>
-  </si>
-  <si>
-    <t>Pilz India Pvt Ltd</t>
-  </si>
-  <si>
-    <t>INV-012554</t>
   </si>
   <si>
     <t>13/23-24</t>
@@ -619,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD26"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -769,7 +760,7 @@
         <v>45064</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>35</v>
@@ -799,7 +790,7 @@
         <v>45075</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>35</v>
@@ -818,7 +809,7 @@
         <v>45083</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>35</v>
@@ -850,7 +841,7 @@
         <v>45087</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>35</v>
@@ -869,7 +860,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>35</v>
@@ -888,7 +879,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>35</v>
@@ -924,7 +915,7 @@
         <v>45065</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>28</v>
@@ -940,7 +931,7 @@
         <v>45072</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>28</v>
@@ -951,43 +942,6 @@
       <c r="F19" s="25">
         <f>E18+E19</f>
         <v>101657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>3</v>
-      </c>
-      <c r="B21" s="24">
-        <v>45057</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="23">
-        <v>38527</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="24">
-        <v>45057</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="23">
-        <v>57791</v>
-      </c>
-      <c r="F22" s="25">
-        <f>E21+E22</f>
-        <v>96318</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +955,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
   <si>
     <t>Sr. No</t>
   </si>
@@ -610,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -942,6 +942,283 @@
       <c r="F19" s="25">
         <f>E18+E19</f>
         <v>101657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45028</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="9">
+        <v>94430</v>
+      </c>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3">
+        <v>45030</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="9">
+        <v>26491</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3">
+        <v>45041</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="9">
+        <v>113339</v>
+      </c>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3">
+        <v>45044</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="9">
+        <v>76971</v>
+      </c>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="24">
+        <v>45048</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="23">
+        <v>29140</v>
+      </c>
+      <c r="F27" s="9">
+        <f>E23+E24+E25+E26+E27-150000</f>
+        <v>190371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="24">
+        <v>45059</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="23">
+        <v>38238</v>
+      </c>
+      <c r="F28" s="9">
+        <f>F27+E28</f>
+        <v>228609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="24">
+        <v>45064</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="23">
+        <v>67874</v>
+      </c>
+      <c r="F29" s="9">
+        <f>F28+E29</f>
+        <v>296483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="9">
+        <f>F29-100000</f>
+        <v>196483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="24">
+        <v>45075</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="23">
+        <v>122868</v>
+      </c>
+      <c r="F31" s="9">
+        <f>F30+E31</f>
+        <v>319351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="24">
+        <v>45083</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="23">
+        <v>168475</v>
+      </c>
+      <c r="F32" s="9">
+        <f>F31+E32</f>
+        <v>487826</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="24">
+        <v>45089</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="9">
+        <f>F32-200000</f>
+        <v>287826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="24">
+        <v>45087</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="23">
+        <v>97055</v>
+      </c>
+      <c r="F34" s="9">
+        <f>F33+E34</f>
+        <v>384881</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="24">
+        <v>45093</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="23">
+        <v>87556</v>
+      </c>
+      <c r="F35" s="9">
+        <f>F34+E35</f>
+        <v>472437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="24">
+        <v>45099</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="23">
+        <v>40179</v>
+      </c>
+      <c r="F36" s="9">
+        <f>F35+E36</f>
+        <v>512616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="24">
+        <v>45111</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="25">
+        <f>F36-400000</f>
+        <v>112616</v>
       </c>
     </row>
   </sheetData>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Sr. No</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>25/23-24</t>
+  </si>
+  <si>
+    <t>30/23-23</t>
   </si>
 </sst>
 </file>
@@ -610,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -902,323 +905,65 @@
         <v>35</v>
       </c>
       <c r="E16" s="23"/>
-      <c r="F16" s="25">
+      <c r="F16" s="9">
         <f>F15-400000</f>
         <v>112616</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="24">
+        <v>45118</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="23">
+        <v>31907</v>
+      </c>
+      <c r="F17" s="25">
+        <f>F16+E17</f>
+        <v>144523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B19" s="24">
         <v>45065</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="23">
-        <v>36757</v>
-      </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="24">
-        <v>45072</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="23">
+        <v>36757</v>
+      </c>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="24">
+        <v>45072</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="23">
         <v>64900</v>
       </c>
-      <c r="F19" s="25">
-        <f>E18+E19</f>
+      <c r="F20" s="25">
+        <f>E19+E20</f>
         <v>101657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>45028</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="9">
-        <v>94430</v>
-      </c>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3">
-        <v>45030</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="9">
-        <v>26491</v>
-      </c>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3">
-        <v>45041</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="9">
-        <v>113339</v>
-      </c>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3">
-        <v>45044</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="9">
-        <v>76971</v>
-      </c>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="24">
-        <v>45048</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="23">
-        <v>29140</v>
-      </c>
-      <c r="F27" s="9">
-        <f>E23+E24+E25+E26+E27-150000</f>
-        <v>190371</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="24">
-        <v>45059</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="23">
-        <v>38238</v>
-      </c>
-      <c r="F28" s="9">
-        <f>F27+E28</f>
-        <v>228609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="24">
-        <v>45064</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="23">
-        <v>67874</v>
-      </c>
-      <c r="F29" s="9">
-        <f>F28+E29</f>
-        <v>296483</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="9">
-        <f>F29-100000</f>
-        <v>196483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="24">
-        <v>45075</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="23">
-        <v>122868</v>
-      </c>
-      <c r="F31" s="9">
-        <f>F30+E31</f>
-        <v>319351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="24">
-        <v>45083</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="23">
-        <v>168475</v>
-      </c>
-      <c r="F32" s="9">
-        <f>F31+E32</f>
-        <v>487826</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="24">
-        <v>45089</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="9">
-        <f>F32-200000</f>
-        <v>287826</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="24">
-        <v>45087</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="23">
-        <v>97055</v>
-      </c>
-      <c r="F34" s="9">
-        <f>F33+E34</f>
-        <v>384881</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="24">
-        <v>45093</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="23">
-        <v>87556</v>
-      </c>
-      <c r="F35" s="9">
-        <f>F34+E35</f>
-        <v>472437</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="24">
-        <v>45099</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="23">
-        <v>40179</v>
-      </c>
-      <c r="F36" s="9">
-        <f>F35+E36</f>
-        <v>512616</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="24">
-        <v>45111</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="25">
-        <f>F36-400000</f>
-        <v>112616</v>
       </c>
     </row>
   </sheetData>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -616,7 +616,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Sr. No</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>30/23-23</t>
+  </si>
+  <si>
+    <t>b23-24MQ201</t>
+  </si>
+  <si>
+    <t>b23-24AQ202</t>
   </si>
 </sst>
 </file>
@@ -615,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -974,10 +980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1111,59 +1117,62 @@
       <c r="E8" s="22">
         <v>369945</v>
       </c>
-      <c r="F8" s="20">
-        <f>E5+E6+E7+E8</f>
-        <v>449002.64</v>
-      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="21">
+        <v>45122</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="22">
+        <v>133954</v>
+      </c>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F10" s="12">
-        <f>E10-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="21">
+        <v>45122</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="22">
+        <v>22899</v>
+      </c>
+      <c r="F10" s="20">
+        <f>E5+E6+E7+E8+E9+E10</f>
+        <v>605855.64</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="14">
-        <v>44861</v>
+        <v>44841</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="15">
-        <v>2689515</v>
+        <v>64917.7</v>
       </c>
       <c r="F12" s="12">
-        <f>E12-2512515</f>
-        <v>177000</v>
+        <f>E12-50000</f>
+        <v>14917.699999999997</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1173,29 +1182,26 @@
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
       <c r="F13" s="19"/>
-      <c r="J13" s="10" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="14">
-        <v>44902</v>
+        <v>44861</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" s="15">
-        <v>2021558.3</v>
+        <v>2689515</v>
       </c>
       <c r="F14" s="12">
-        <f>E14-175496-500000-800000</f>
-        <v>546062.30000000005</v>
+        <f>E14-2512515</f>
+        <v>177000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1205,26 +1211,29 @@
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="19"/>
+      <c r="J15" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="14">
-        <v>44984</v>
+        <v>44902</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E16" s="15">
-        <v>414180</v>
+        <v>2021558.3</v>
       </c>
       <c r="F16" s="12">
-        <f>E16</f>
-        <v>414180</v>
+        <f>E16-175496-500000-800000</f>
+        <v>546062.30000000005</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,17 +1246,24 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>7</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B18" s="14">
+        <v>44984</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="D18" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E18" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F18" s="12"/>
+        <v>414180</v>
+      </c>
+      <c r="F18" s="12">
+        <f>E18</f>
+        <v>414180</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -1259,24 +1275,17 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>8</v>
-      </c>
-      <c r="B20" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E20" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F20" s="12">
-        <f>E20</f>
-        <v>21900.799999999999</v>
-      </c>
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
@@ -1286,82 +1295,111 @@
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>8</v>
+      </c>
+      <c r="B22" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F22" s="12">
+        <f>E22</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>9</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B25" s="7">
         <v>44573</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F23" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F24" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
       <c r="E25" s="6">
         <v>20000</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <f>F24+F23-E23-E24-E25</f>
+      <c r="F25" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F26" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <f>F26+F25-E25-E26-E27</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>Sr. No</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>b23-24AQ202</t>
+  </si>
+  <si>
+    <t>SLH/1416</t>
+  </si>
+  <si>
+    <t>Shree Laxmi Lighting Hub</t>
   </si>
 </sst>
 </file>
@@ -619,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -970,6 +976,27 @@
       <c r="F20" s="25">
         <f>E19+E20</f>
         <v>101657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45102</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1033</v>
+      </c>
+      <c r="F22" s="25">
+        <f>E22</f>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Sr. No</t>
   </si>
@@ -185,10 +185,7 @@
     <t>b23-24AQ202</t>
   </si>
   <si>
-    <t>SLH/1416</t>
-  </si>
-  <si>
-    <t>Shree Laxmi Lighting Hub</t>
+    <t>33/23-24</t>
   </si>
 </sst>
 </file>
@@ -625,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -936,67 +933,65 @@
       <c r="E17" s="23">
         <v>31907</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="9">
         <f>F16+E17</f>
         <v>144523</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="24">
+        <v>45131</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="23">
+        <v>23842</v>
+      </c>
+      <c r="F18" s="25">
+        <f>F17+E18</f>
+        <v>168365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B20" s="24">
         <v>45065</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="23">
-        <v>36757</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="24">
-        <v>45072</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="23">
+        <v>36757</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="24">
+        <v>45072</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="23">
         <v>64900</v>
       </c>
-      <c r="F20" s="25">
-        <f>E19+E20</f>
+      <c r="F21" s="25">
+        <f>E20+E21</f>
         <v>101657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3">
-        <v>45102</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1033</v>
-      </c>
-      <c r="F22" s="25">
-        <f>E22</f>
-        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -1009,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>Sr. No</t>
   </si>
@@ -238,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -261,11 +261,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,6 +353,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -920,20 +942,20 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="24">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27">
         <v>45118</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="D17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="28">
         <v>31907</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="26">
         <f>F16+E17</f>
         <v>144523</v>
       </c>
@@ -952,45 +974,62 @@
       <c r="E18" s="23">
         <v>23842</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="9">
         <f>F17+E18</f>
         <v>168365</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="24">
+        <v>45138</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="23">
+        <v>50000</v>
+      </c>
+      <c r="F19" s="25">
+        <f>F18-E19</f>
+        <v>118365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>2</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B21" s="24">
         <v>45065</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C21" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="23">
-        <v>36757</v>
-      </c>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="24">
-        <v>45072</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="23">
+        <v>36757</v>
+      </c>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="24">
+        <v>45072</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="23">
         <v>64900</v>
       </c>
-      <c r="F21" s="25">
-        <f>E20+E21</f>
+      <c r="F22" s="25">
+        <f>E21+E22</f>
         <v>101657</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Sr. No</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>33/23-24</t>
+  </si>
+  <si>
+    <t>35/23-24</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -991,45 +994,64 @@
       <c r="E19" s="23">
         <v>50000</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="9">
         <f>F18-E19</f>
         <v>118365</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="24">
+        <v>45138</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="23">
+        <v>78175</v>
+      </c>
+      <c r="F20" s="25">
+        <f>F19+E20</f>
+        <v>196540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B22" s="24">
         <v>45065</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C22" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="23">
-        <v>36757</v>
-      </c>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="24">
-        <v>45072</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="23">
+        <v>36757</v>
+      </c>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="24">
+        <v>45072</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="23">
         <v>64900</v>
       </c>
-      <c r="F22" s="25">
-        <f>E21+E22</f>
+      <c r="F23" s="25">
+        <f>E22+E23</f>
         <v>101657</v>
       </c>
     </row>
@@ -1043,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -189,6 +189,21 @@
   </si>
   <si>
     <t>35/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ203</t>
+  </si>
+  <si>
+    <t>450/2023-2024</t>
+  </si>
+  <si>
+    <t>Max Inetrnational</t>
+  </si>
+  <si>
+    <t>A K Traders</t>
+  </si>
+  <si>
+    <t>I-C-1-23-452097</t>
   </si>
 </sst>
 </file>
@@ -647,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1050,9 +1065,67 @@
       <c r="E23" s="23">
         <v>64900</v>
       </c>
-      <c r="F23" s="25">
-        <f>E22+E23</f>
-        <v>101657</v>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="24">
+        <v>45138</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="23">
+        <v>99474</v>
+      </c>
+      <c r="F24" s="25">
+        <f>E22+E23+E24</f>
+        <v>201131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45139</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="9">
+        <v>13254</v>
+      </c>
+      <c r="F26" s="25">
+        <f>E26</f>
+        <v>13254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45143</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3544</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2474.46</v>
+      </c>
+      <c r="F28" s="25">
+        <f>E28</f>
+        <v>2474.46</v>
       </c>
     </row>
   </sheetData>
@@ -1063,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1232,257 +1305,273 @@
       <c r="E10" s="22">
         <v>22899</v>
       </c>
-      <c r="F10" s="20">
-        <f>E5+E6+E7+E8+E9+E10</f>
-        <v>605855.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="21">
+        <v>45143</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="22">
+        <v>360855.8</v>
+      </c>
+      <c r="F11" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11</f>
+        <v>966711.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B13" s="14">
         <v>44841</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F12" s="12">
-        <f>E12-50000</f>
+      <c r="F13" s="12">
+        <f>E13-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-    </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B15" s="14">
         <v>44861</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="15">
         <v>2689515</v>
       </c>
-      <c r="F14" s="12">
-        <f>E14-2512515</f>
+      <c r="F15" s="12">
+        <f>E15-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="J15" s="10" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="J16" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B17" s="14">
         <v>44902</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F16" s="12">
-        <f>E16-175496-500000-800000</f>
+      <c r="F17" s="12">
+        <f>E17-175496-500000-800000</f>
         <v>546062.30000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B19" s="14">
         <v>44984</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>414180</v>
       </c>
-      <c r="F18" s="12">
-        <f>E18</f>
+      <c r="F19" s="12">
+        <f>E19</f>
         <v>414180</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-    </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B23" s="14">
         <v>45034</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>21900.799999999999</v>
       </c>
-      <c r="F22" s="12">
-        <f>E22</f>
+      <c r="F23" s="12">
+        <f>E23</f>
         <v>21900.799999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>9</v>
       </c>
-      <c r="B25" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F25" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>44573</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F26" s="6">
-        <v>52362.5</v>
+        <v>29641.599999999999</v>
       </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7">
         <v>44954</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
         <v>20000</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <f>F26+F25-E25-E26-E27</f>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <f>F27+F26-E26-E27-E28</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>Sr. No</t>
   </si>
@@ -179,12 +179,6 @@
     <t>30/23-23</t>
   </si>
   <si>
-    <t>b23-24MQ201</t>
-  </si>
-  <si>
-    <t>b23-24AQ202</t>
-  </si>
-  <si>
     <t>33/23-24</t>
   </si>
   <si>
@@ -204,6 +198,9 @@
   </si>
   <si>
     <t>I-C-1-23-452097</t>
+  </si>
+  <si>
+    <t>b23-24MQ204</t>
   </si>
 </sst>
 </file>
@@ -662,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -984,7 +981,7 @@
         <v>45131</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>35</v>
@@ -1020,7 +1017,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>35</v>
@@ -1028,103 +1025,116 @@
       <c r="E20" s="23">
         <v>78175</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="9">
         <f>F19+E20</f>
         <v>196540</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="24">
+        <v>45147</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25">
+        <f>F20-100000</f>
+        <v>96540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B23" s="24">
         <v>45065</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="23">
-        <v>36757</v>
-      </c>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="24">
-        <v>45072</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="23">
-        <v>64900</v>
+        <v>36757</v>
       </c>
       <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="24">
-        <v>45138</v>
+        <v>45072</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="23">
+        <v>64900</v>
+      </c>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="24">
+        <v>45138</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="23">
         <v>99474</v>
       </c>
-      <c r="F24" s="25">
-        <f>E22+E23+E24</f>
+      <c r="F25" s="25">
+        <f>E23+E24+E25</f>
         <v>201131</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>3</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>45139</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="9">
+        <v>13254</v>
+      </c>
+      <c r="F27" s="25">
+        <f>E27</f>
+        <v>13254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45143</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3544</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="9">
-        <v>13254</v>
-      </c>
-      <c r="F26" s="25">
-        <f>E26</f>
-        <v>13254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3">
-        <v>45143</v>
-      </c>
-      <c r="C28" s="9">
-        <v>3544</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>2474.46</v>
       </c>
-      <c r="F28" s="25">
-        <f>E28</f>
+      <c r="F29" s="25">
+        <f>E29</f>
         <v>2474.46</v>
       </c>
     </row>
@@ -1136,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1278,300 +1288,284 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="21">
-        <v>45122</v>
+        <v>45143</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="22">
-        <v>133954</v>
+        <v>360855.8</v>
       </c>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="21">
-        <v>45122</v>
+        <v>45148</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="22">
-        <v>22899</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="21">
-        <v>45143</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="22">
-        <v>360855.8</v>
-      </c>
-      <c r="F11" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11</f>
-        <v>966711.44</v>
+        <v>183678.8</v>
+      </c>
+      <c r="F10" s="20">
+        <f>E5+E6+E7+E8+E9+E10</f>
+        <v>993537.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14">
+        <v>44841</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="15">
+        <v>64917.7</v>
+      </c>
+      <c r="F12" s="12">
+        <f>E12-50000</f>
+        <v>14917.699999999997</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>3</v>
-      </c>
-      <c r="B13" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F13" s="12">
-        <f>E13-50000</f>
-        <v>14917.699999999997</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" s="14">
+        <v>44861</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2689515</v>
+      </c>
+      <c r="F14" s="12">
+        <f>E14-2512515</f>
+        <v>177000</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="J15" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>5</v>
+      </c>
+      <c r="B16" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F16" s="12">
+        <f>E16-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>6</v>
+      </c>
+      <c r="B18" s="14">
+        <v>44984</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="15">
+        <v>414180</v>
+      </c>
+      <c r="F18" s="12">
+        <f>E18</f>
+        <v>414180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>7</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>8</v>
+      </c>
+      <c r="B22" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F22" s="12">
+        <f>E22</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="14">
-        <v>44861</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2689515</v>
-      </c>
-      <c r="F15" s="12">
-        <f>E15-2512515</f>
-        <v>177000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="J16" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2021558.3</v>
-      </c>
-      <c r="F17" s="12">
-        <f>E17-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>6</v>
-      </c>
-      <c r="B19" s="14">
-        <v>44984</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="15">
-        <v>414180</v>
-      </c>
-      <c r="F19" s="12">
-        <f>E19</f>
-        <v>414180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>7</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>8</v>
-      </c>
-      <c r="B23" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F23" s="12">
-        <f>E23</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A25" s="6">
+        <v>9</v>
+      </c>
+      <c r="B25" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F25" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>9</v>
-      </c>
+      <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>44573</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="6">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F26" s="6">
-        <v>29641.599999999999</v>
+        <v>52362.5</v>
       </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>44954</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F27" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
         <v>20000</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6">
-        <f>F27+F26-E26-E27-E28</f>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <f>F26+F25-E25-E26-E27</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>b23-24MQ204</t>
+  </si>
+  <si>
+    <t>I-C-1-23-452174</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1091,50 +1094,66 @@
       <c r="E25" s="23">
         <v>99474</v>
       </c>
-      <c r="F25" s="25">
-        <f>E23+E24+E25</f>
-        <v>201131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="24">
+        <v>45141</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="23">
+        <v>5251</v>
+      </c>
+      <c r="F26" s="25">
+        <f>E23+E24+E25+E26</f>
+        <v>206382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>3</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3">
         <v>45139</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>13254</v>
       </c>
-      <c r="F27" s="25">
-        <f>E27</f>
+      <c r="F28" s="25">
+        <f>E28</f>
         <v>13254</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>4</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <v>45143</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="9">
         <v>3544</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>2474.46</v>
       </c>
-      <c r="F29" s="25">
-        <f>E29</f>
+      <c r="F30" s="25">
+        <f>E30</f>
         <v>2474.46</v>
       </c>
     </row>
@@ -1148,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Sr. No</t>
   </si>
@@ -191,9 +191,6 @@
     <t>450/2023-2024</t>
   </si>
   <si>
-    <t>Max Inetrnational</t>
-  </si>
-  <si>
     <t>A K Traders</t>
   </si>
   <si>
@@ -204,6 +201,15 @@
   </si>
   <si>
     <t>I-C-1-23-452174</t>
+  </si>
+  <si>
+    <t>38/23-24</t>
+  </si>
+  <si>
+    <t>490/2023-2024</t>
+  </si>
+  <si>
+    <t>Max International</t>
   </si>
 </sst>
 </file>
@@ -662,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1041,119 +1047,154 @@
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="25">
+      <c r="F21" s="9">
         <f>F20-100000</f>
         <v>96540</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="24">
+        <v>45152</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="23">
+        <v>52982</v>
+      </c>
+      <c r="F22" s="25">
+        <f>F21+E22</f>
+        <v>149522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>2</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B24" s="24">
         <v>45065</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C24" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="23">
-        <v>36757</v>
-      </c>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="24">
-        <v>45072</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="23">
-        <v>64900</v>
+        <v>36757</v>
       </c>
       <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="24">
-        <v>45138</v>
+        <v>45072</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="23">
-        <v>99474</v>
+        <v>64900</v>
       </c>
       <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="24">
-        <v>45141</v>
+        <v>45138</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="23">
+        <v>99474</v>
+      </c>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="24">
+        <v>45141</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="23">
         <v>5251</v>
       </c>
-      <c r="F26" s="25">
-        <f>E23+E24+E25+E26</f>
+      <c r="F27" s="25">
+        <f>E24+E25+E26+E27</f>
         <v>206382</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>45139</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="9">
+        <v>13254</v>
+      </c>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="24">
+        <v>45148</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="23">
+        <v>11597</v>
+      </c>
+      <c r="F30" s="25">
+        <f>E29+E30</f>
+        <v>24851</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45143</v>
+      </c>
+      <c r="C32" s="9">
+        <v>3544</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="9">
-        <v>13254</v>
-      </c>
-      <c r="F28" s="25">
-        <f>E28</f>
-        <v>13254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3">
-        <v>45143</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3544</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="E32" s="9">
         <v>2474.46</v>
       </c>
-      <c r="F30" s="25">
-        <f>E30</f>
+      <c r="F32" s="25">
+        <f>E32</f>
         <v>2474.46</v>
       </c>
     </row>
@@ -1167,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1326,7 +1367,7 @@
         <v>45148</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Sr. No</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>450/2023-2024</t>
-  </si>
-  <si>
-    <t>A K Traders</t>
   </si>
   <si>
     <t>I-C-1-23-452097</t>
@@ -668,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1058,7 +1055,7 @@
         <v>45152</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>35</v>
@@ -1111,7 +1108,7 @@
         <v>45138</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>28</v>
@@ -1127,7 +1124,7 @@
         <v>45141</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>28</v>
@@ -1151,7 +1148,7 @@
         <v>51</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="9">
         <v>13254</v>
@@ -1164,10 +1161,10 @@
         <v>45148</v>
       </c>
       <c r="C30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="E30" s="23">
         <v>11597</v>
@@ -1175,27 +1172,6 @@
       <c r="F30" s="25">
         <f>E29+E30</f>
         <v>24851</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3">
-        <v>45143</v>
-      </c>
-      <c r="C32" s="9">
-        <v>3544</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="9">
-        <v>2474.46</v>
-      </c>
-      <c r="F32" s="25">
-        <f>E32</f>
-        <v>2474.46</v>
       </c>
     </row>
   </sheetData>
@@ -1208,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1367,7 +1343,7 @@
         <v>45148</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>Sr. No</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>Max International</t>
+  </si>
+  <si>
+    <t>b23-24MQ205</t>
+  </si>
+  <si>
+    <t>b23-24AQ206</t>
+  </si>
+  <si>
+    <t>40/23-24</t>
   </si>
 </sst>
 </file>
@@ -665,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1063,114 +1072,146 @@
       <c r="E22" s="23">
         <v>52982</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="9">
         <f>F21+E22</f>
         <v>149522</v>
       </c>
     </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="24">
+        <v>45159</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="23">
+        <v>22184</v>
+      </c>
+      <c r="F23" s="9">
+        <f>F22+E23</f>
+        <v>171706</v>
+      </c>
+    </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="9"/>
+      <c r="B24" s="24">
+        <v>45166</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="25">
+        <f>F23-100000</f>
+        <v>71706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>2</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B26" s="24">
         <v>45065</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C26" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="23">
-        <v>36757</v>
-      </c>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="24">
-        <v>45072</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="23">
-        <v>64900</v>
-      </c>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="24">
-        <v>45138</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>52</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="23">
-        <v>99474</v>
+        <v>36757</v>
       </c>
       <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="24">
-        <v>45141</v>
+        <v>45072</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="23">
+        <v>64900</v>
+      </c>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="24">
+        <v>45138</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="23">
+        <v>99474</v>
+      </c>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="24">
+        <v>45141</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="23">
         <v>5251</v>
       </c>
-      <c r="F27" s="25">
-        <f>E24+E25+E26+E27</f>
+      <c r="F29" s="25">
+        <f>E26+E27+E28+E29</f>
         <v>206382</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B31" s="3">
         <v>45139</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E31" s="9">
         <v>13254</v>
       </c>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="24">
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="24">
         <v>45148</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C32" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D32" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E32" s="23">
         <v>11597</v>
       </c>
-      <c r="F30" s="25">
-        <f>E29+E30</f>
+      <c r="F32" s="25">
+        <f>E31+E32</f>
         <v>24851</v>
       </c>
     </row>
@@ -1182,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1201,7 +1242,7 @@
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1237,7 +1278,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1247,7 +1288,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1255,7 +1296,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1273,7 +1314,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
@@ -1289,7 +1330,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
@@ -1305,7 +1346,7 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
         <v>45063</v>
@@ -1321,7 +1362,7 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="21">
         <v>45143</v>
@@ -1337,7 +1378,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="21">
         <v>45148</v>
@@ -1351,123 +1392,126 @@
       <c r="E10" s="22">
         <v>183678.8</v>
       </c>
-      <c r="F10" s="20">
-        <f>E5+E6+E7+E8+E9+E10</f>
-        <v>993537.24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="21">
+        <v>45156</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="22">
+        <v>112560.2</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="21">
+        <v>45156</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="22">
+        <v>66245.2</v>
+      </c>
+      <c r="F12" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11+E12</f>
+        <v>1172342.6399999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B14" s="14">
         <v>44841</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E14" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F12" s="12">
-        <f>E12-50000</f>
+      <c r="F14" s="12">
+        <f>E14-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>4</v>
-      </c>
-      <c r="B14" s="14">
-        <v>44861</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2689515</v>
-      </c>
-      <c r="F14" s="12">
-        <f>E14-2512515</f>
-        <v>177000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="19"/>
-      <c r="J15" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="14">
-        <v>44902</v>
+        <v>44861</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" s="15">
-        <v>2021558.3</v>
+        <v>2689515</v>
       </c>
       <c r="F16" s="12">
-        <f>E16-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E16-2512515</f>
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
       <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="14">
-        <v>44984</v>
+        <v>44902</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E18" s="15">
-        <v>414180</v>
+        <v>2021558.3</v>
       </c>
       <c r="F18" s="12">
-        <f>E18</f>
-        <v>414180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E18-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
@@ -1475,21 +1519,28 @@
       <c r="E19" s="18"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>7</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B20" s="14">
+        <v>44984</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>414180</v>
+      </c>
+      <c r="F20" s="12">
+        <f>E20</f>
+        <v>414180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -1497,28 +1548,21 @@
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>8</v>
-      </c>
-      <c r="B22" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E22" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F22" s="12">
-        <f>E22</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
@@ -1526,82 +1570,111 @@
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>8</v>
+      </c>
+      <c r="B24" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F24" s="12">
+        <f>E24</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>9</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B27" s="7">
         <v>44573</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F25" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F26" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
       <c r="E27" s="6">
         <v>20000</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <f>F26+F25-E25-E26-E27</f>
+      <c r="F27" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F28" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <f>F28+F27-E27-E28-E29</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Sr. No</t>
   </si>
@@ -107,12 +107,6 @@
     <t>Nerul</t>
   </si>
   <si>
-    <t>b22-23MQ422</t>
-  </si>
-  <si>
-    <t>Nerul Village Panchayat</t>
-  </si>
-  <si>
     <t>b22-23MQ425</t>
   </si>
   <si>
@@ -216,6 +210,9 @@
   </si>
   <si>
     <t>40/23-24</t>
+  </si>
+  <si>
+    <t>32/23-24</t>
   </si>
 </sst>
 </file>
@@ -225,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;&quot;0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +255,17 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -392,6 +400,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,13 +694,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.109375" style="2" customWidth="1"/>
@@ -694,7 +714,7 @@
     <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -722,74 +742,74 @@
         <v>45028</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="9">
         <v>94430</v>
       </c>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="9"/>
       <c r="B3" s="3">
         <v>45030</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="9">
         <v>26491</v>
       </c>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="9"/>
       <c r="B4" s="3">
         <v>45041</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="9">
         <v>113339</v>
       </c>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="9"/>
       <c r="B5" s="3">
         <v>45044</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="9">
         <v>76971</v>
       </c>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4">
       <c r="A6" s="9"/>
       <c r="B6" s="24">
         <v>45048</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="23">
         <v>29140</v>
@@ -799,16 +819,16 @@
         <v>190371</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4">
       <c r="A7" s="9"/>
       <c r="B7" s="24">
         <v>45059</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="23">
         <v>38238</v>
@@ -818,16 +838,16 @@
         <v>228609</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="9"/>
       <c r="B8" s="24">
         <v>45064</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="23">
         <v>67874</v>
@@ -837,7 +857,7 @@
         <v>296483</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="9"/>
       <c r="B9" s="24"/>
       <c r="C9" s="23"/>
@@ -848,16 +868,16 @@
         <v>196483</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="9"/>
       <c r="B10" s="24">
         <v>45075</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="23">
         <v>122868</v>
@@ -867,16 +887,16 @@
         <v>319351</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="9"/>
       <c r="B11" s="24">
         <v>45083</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="23">
         <v>168475</v>
@@ -886,7 +906,7 @@
         <v>487826</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="9"/>
       <c r="B12" s="24">
         <v>45089</v>
@@ -899,16 +919,16 @@
         <v>287826</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="9"/>
       <c r="B13" s="24">
         <v>45087</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="23">
         <v>97055</v>
@@ -918,16 +938,16 @@
         <v>384881</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="9"/>
       <c r="B14" s="24">
         <v>45093</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="23">
         <v>87556</v>
@@ -937,16 +957,16 @@
         <v>472437</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4">
       <c r="A15" s="9"/>
       <c r="B15" s="24">
         <v>45099</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="23">
         <v>40179</v>
@@ -956,14 +976,14 @@
         <v>512616</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.4">
       <c r="A16" s="9"/>
       <c r="B16" s="24">
         <v>45111</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="9">
@@ -971,16 +991,16 @@
         <v>112616</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="26"/>
       <c r="B17" s="27">
         <v>45118</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="28">
         <v>31907</v>
@@ -990,228 +1010,247 @@
         <v>144523</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="9"/>
       <c r="B18" s="24">
-        <v>45131</v>
+        <v>45121</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="23">
-        <v>23842</v>
+        <v>16072</v>
       </c>
       <c r="F18" s="9">
         <f>F17+E18</f>
-        <v>168365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>160595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="9"/>
       <c r="B19" s="24">
-        <v>45138</v>
-      </c>
-      <c r="C19" s="23"/>
+        <v>45131</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>46</v>
+      </c>
       <c r="D19" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="23">
-        <v>50000</v>
+        <v>23842</v>
       </c>
       <c r="F19" s="9">
-        <f>F18-E19</f>
-        <v>118365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <f>F18+E19</f>
+        <v>184437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.4">
       <c r="A20" s="9"/>
       <c r="B20" s="24">
         <v>45138</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="C20" s="23"/>
       <c r="D20" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="23">
-        <v>78175</v>
+        <v>50000</v>
       </c>
       <c r="F20" s="9">
-        <f>F19+E20</f>
-        <v>196540</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <f>F19-E20</f>
+        <v>134437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4">
       <c r="A21" s="9"/>
       <c r="B21" s="24">
-        <v>45147</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+        <v>45138</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="23">
+        <v>78175</v>
+      </c>
       <c r="F21" s="9">
-        <f>F20-100000</f>
-        <v>96540</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <f>F20+E21</f>
+        <v>212612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.4">
       <c r="A22" s="9"/>
       <c r="B22" s="24">
-        <v>45152</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="23">
-        <v>52982</v>
-      </c>
+        <v>45147</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="9">
-        <f>F21+E22</f>
-        <v>149522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <f>F21-100000</f>
+        <v>112612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.4">
       <c r="A23" s="9"/>
       <c r="B23" s="24">
-        <v>45159</v>
+        <v>45152</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" s="23">
-        <v>22184</v>
+        <v>52982</v>
       </c>
       <c r="F23" s="9">
         <f>F22+E23</f>
-        <v>171706</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>165594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.4">
       <c r="A24" s="9"/>
       <c r="B24" s="24">
+        <v>45159</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="23">
+        <v>22184</v>
+      </c>
+      <c r="F24" s="9">
+        <f>F23+E24</f>
+        <v>187778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="24">
         <v>45166</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="25">
-        <f>F23-100000</f>
-        <v>71706</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="25">
+        <f>F24-100000</f>
+        <v>87778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.4">
+      <c r="A27" s="9">
         <v>2</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B27" s="24">
         <v>45065</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="C27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="23">
         <v>36757</v>
       </c>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="24">
-        <v>45072</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="23">
-        <v>64900</v>
-      </c>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.4">
       <c r="A28" s="9"/>
       <c r="B28" s="24">
-        <v>45138</v>
+        <v>45072</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28" s="23">
-        <v>99474</v>
+        <v>64900</v>
       </c>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.4">
       <c r="A29" s="9"/>
       <c r="B29" s="24">
+        <v>45138</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="23">
+        <v>99474</v>
+      </c>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="24">
         <v>45141</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="23">
+        <v>5251</v>
+      </c>
+      <c r="F30" s="25">
+        <f>E27+E28+E29+E30</f>
+        <v>206382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="32" customFormat="1">
+      <c r="A32" s="29">
+        <v>3</v>
+      </c>
+      <c r="B32" s="30">
+        <v>45139</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="29">
+        <v>13254</v>
+      </c>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.4">
+      <c r="A33" s="9"/>
+      <c r="B33" s="24">
+        <v>45148</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="23">
-        <v>5251</v>
-      </c>
-      <c r="F29" s="25">
-        <f>E26+E27+E28+E29</f>
-        <v>206382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>3</v>
-      </c>
-      <c r="B31" s="3">
-        <v>45139</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="9">
-        <v>13254</v>
-      </c>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="24">
-        <v>45148</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="23">
+      <c r="D33" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="23">
         <v>11597</v>
       </c>
-      <c r="F32" s="25">
-        <f>E31+E32</f>
+      <c r="F33" s="25">
+        <f>E32+E33</f>
         <v>24851</v>
       </c>
     </row>
@@ -1223,13 +1262,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" style="10" customWidth="1"/>
@@ -1242,7 +1281,7 @@
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1278,7 +1317,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1288,7 +1327,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="11" customFormat="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1296,7 +1335,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1314,13 +1353,13 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>14</v>
@@ -1330,13 +1369,13 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>14</v>
@@ -1346,13 +1385,13 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
         <v>45063</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1362,13 +1401,13 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="21">
         <v>45143</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1378,13 +1417,13 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="6"/>
       <c r="B10" s="21">
         <v>45148</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1394,13 +1433,13 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="6"/>
       <c r="B11" s="21">
         <v>45156</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>
@@ -1410,13 +1449,13 @@
       </c>
       <c r="F11" s="20"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="6"/>
       <c r="B12" s="21">
         <v>45156</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>14</v>
@@ -1429,7 +1468,7 @@
         <v>1172342.6399999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="6">
         <v>3</v>
       </c>
@@ -1450,7 +1489,7 @@
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="11"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -1458,7 +1497,7 @@
       <c r="E15" s="18"/>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="6">
         <v>4</v>
       </c>
@@ -1479,7 +1518,7 @@
         <v>177000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="11"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
@@ -1490,7 +1529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="6">
         <v>5</v>
       </c>
@@ -1511,7 +1550,7 @@
         <v>546062.30000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="11"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
@@ -1519,28 +1558,21 @@
       <c r="E19" s="18"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="6">
         <v>6</v>
       </c>
-      <c r="B20" s="14">
-        <v>44984</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E20" s="15">
-        <v>414180</v>
-      </c>
-      <c r="F20" s="12">
-        <f>E20</f>
-        <v>414180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="11"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -1548,21 +1580,28 @@
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="D22" s="13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E22" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F22" s="12">
+        <f>E22</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="11"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
@@ -1570,111 +1609,82 @@
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="6">
         <v>8</v>
       </c>
-      <c r="B24" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F24" s="12">
-        <f>E24</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="B25" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="E25" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F25" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F26" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="6"/>
       <c r="B27" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>44954</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="6">
         <v>20000</v>
       </c>
-      <c r="F27" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F28" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6">
-        <f>F28+F27-E27-E28-E29</f>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <f>F26+F25-E25-E26-E27</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>Sr. No</t>
   </si>
@@ -179,40 +179,25 @@
     <t>35/23-24</t>
   </si>
   <si>
-    <t>b23-24MQ203</t>
-  </si>
-  <si>
-    <t>450/2023-2024</t>
-  </si>
-  <si>
     <t>I-C-1-23-452097</t>
   </si>
   <si>
-    <t>b23-24MQ204</t>
-  </si>
-  <si>
     <t>I-C-1-23-452174</t>
   </si>
   <si>
     <t>38/23-24</t>
   </si>
   <si>
-    <t>490/2023-2024</t>
-  </si>
-  <si>
-    <t>Max International</t>
-  </si>
-  <si>
     <t>b23-24MQ205</t>
   </si>
   <si>
-    <t>b23-24AQ206</t>
-  </si>
-  <si>
     <t>40/23-24</t>
   </si>
   <si>
     <t>32/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ207</t>
   </si>
 </sst>
 </file>
@@ -222,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;&quot;0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,17 +240,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri  "/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -400,18 +374,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -694,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.109375" style="2" customWidth="1"/>
@@ -714,7 +676,7 @@
     <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -752,7 +714,7 @@
       </c>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="3">
         <v>45030</v>
@@ -768,7 +730,7 @@
       </c>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="3">
         <v>45041</v>
@@ -784,7 +746,7 @@
       </c>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="3">
         <v>45044</v>
@@ -800,7 +762,7 @@
       </c>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="24">
         <v>45048</v>
@@ -819,7 +781,7 @@
         <v>190371</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.4">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="24">
         <v>45059</v>
@@ -838,7 +800,7 @@
         <v>228609</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="24">
         <v>45064</v>
@@ -857,7 +819,7 @@
         <v>296483</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="24"/>
       <c r="C9" s="23"/>
@@ -868,7 +830,7 @@
         <v>196483</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="24">
         <v>45075</v>
@@ -887,7 +849,7 @@
         <v>319351</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.4">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="24">
         <v>45083</v>
@@ -906,7 +868,7 @@
         <v>487826</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.4">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="24">
         <v>45089</v>
@@ -919,7 +881,7 @@
         <v>287826</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="24">
         <v>45087</v>
@@ -938,7 +900,7 @@
         <v>384881</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="24">
         <v>45093</v>
@@ -957,7 +919,7 @@
         <v>472437</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="24">
         <v>45099</v>
@@ -976,7 +938,7 @@
         <v>512616</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="24">
         <v>45111</v>
@@ -991,7 +953,7 @@
         <v>112616</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="27">
         <v>45118</v>
@@ -1010,13 +972,13 @@
         <v>144523</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="24">
         <v>45121</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>33</v>
@@ -1029,7 +991,7 @@
         <v>160595</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="24">
         <v>45131</v>
@@ -1048,7 +1010,7 @@
         <v>184437</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.4">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="24">
         <v>45138</v>
@@ -1065,7 +1027,7 @@
         <v>134437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.4">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="24">
         <v>45138</v>
@@ -1084,7 +1046,7 @@
         <v>212612</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.4">
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="24">
         <v>45147</v>
@@ -1097,13 +1059,13 @@
         <v>112612</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.4">
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="24">
         <v>45152</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>33</v>
@@ -1116,13 +1078,13 @@
         <v>165594</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.4">
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="24">
         <v>45159</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>33</v>
@@ -1135,7 +1097,7 @@
         <v>187778</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.4">
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="24">
         <v>45166</v>
@@ -1148,7 +1110,7 @@
         <v>87778</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.4">
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>2</v>
       </c>
@@ -1166,7 +1128,7 @@
       </c>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:6" ht="14.4">
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="24">
         <v>45072</v>
@@ -1182,13 +1144,13 @@
       </c>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" spans="1:6" ht="14.4">
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="24">
         <v>45138</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>26</v>
@@ -1198,13 +1160,13 @@
       </c>
       <c r="F29" s="25"/>
     </row>
-    <row r="30" spans="1:6" ht="14.4">
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="24">
         <v>45141</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>26</v>
@@ -1215,43 +1177,6 @@
       <c r="F30" s="25">
         <f>E27+E28+E29+E30</f>
         <v>206382</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="32" customFormat="1">
-      <c r="A32" s="29">
-        <v>3</v>
-      </c>
-      <c r="B32" s="30">
-        <v>45139</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="29">
-        <v>13254</v>
-      </c>
-      <c r="F32" s="31"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="24">
-        <v>45148</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="23">
-        <v>11597</v>
-      </c>
-      <c r="F33" s="25">
-        <f>E32+E33</f>
-        <v>24851</v>
       </c>
     </row>
   </sheetData>
@@ -1262,13 +1187,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" style="10" customWidth="1"/>
@@ -1281,7 +1206,7 @@
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1317,7 +1242,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1327,7 +1252,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1">
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1335,7 +1260,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1353,7 +1278,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
@@ -1369,7 +1294,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
@@ -1385,7 +1310,7 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
         <v>45063</v>
@@ -1401,156 +1326,146 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="21">
-        <v>45143</v>
+        <v>45156</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="22">
-        <v>360855.8</v>
+        <v>112560.2</v>
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="21">
-        <v>45148</v>
+        <v>45173</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="22">
-        <v>183678.8</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="21">
-        <v>45156</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="22">
-        <v>112560.2</v>
-      </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="21">
-        <v>45156</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="22">
-        <v>66245.2</v>
-      </c>
-      <c r="F12" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12</f>
-        <v>1172342.6399999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>57006</v>
+      </c>
+      <c r="F10" s="20">
+        <f>E5+E6+E7+E8+E9+E10</f>
+        <v>618568.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14">
+        <v>44841</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="15">
+        <v>64917.7</v>
+      </c>
+      <c r="F12" s="12">
+        <f>E12-50000</f>
+        <v>14917.699999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="14">
-        <v>44841</v>
+        <v>44861</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E14" s="15">
-        <v>64917.7</v>
+        <v>2689515</v>
       </c>
       <c r="F14" s="12">
-        <f>E14-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <f>E14-2512515</f>
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="J15" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="14">
-        <v>44861</v>
+        <v>44902</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="15">
-        <v>2689515</v>
+        <v>2021558.3</v>
       </c>
       <c r="F16" s="12">
-        <f>E16-2512515</f>
-        <v>177000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <f>E16-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
       <c r="F17" s="19"/>
-      <c r="J17" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>5</v>
-      </c>
-      <c r="B18" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E18" s="15">
-        <v>2021558.3</v>
-      </c>
-      <c r="F18" s="12">
-        <f>E18-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
@@ -1558,21 +1473,28 @@
       <c r="E19" s="18"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>6</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E20" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:10">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F20" s="12">
+        <f>E20</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -1580,111 +1502,82 @@
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="6">
-        <v>7</v>
-      </c>
-      <c r="B22" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F22" s="12">
-        <f>E22</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="11"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>8</v>
       </c>
+      <c r="B23" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F23" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
       <c r="B25" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>44954</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="6">
         <v>20000</v>
       </c>
-      <c r="F25" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F26" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <f>F26+F25-E25-E26-E27</f>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <f>F24+F23-E23-E24-E25</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>Sr. No</t>
   </si>
@@ -149,13 +149,7 @@
     <t>13/23-24</t>
   </si>
   <si>
-    <t>I-C-1-23-450927</t>
-  </si>
-  <si>
     <t>17/23-24</t>
-  </si>
-  <si>
-    <t>I-C-1-23-451040</t>
   </si>
   <si>
     <t>20/23-24</t>
@@ -656,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -836,7 +830,7 @@
         <v>45075</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>33</v>
@@ -855,7 +849,7 @@
         <v>45083</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>33</v>
@@ -887,7 +881,7 @@
         <v>45087</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>33</v>
@@ -906,7 +900,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>33</v>
@@ -925,7 +919,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>33</v>
@@ -959,7 +953,7 @@
         <v>45118</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>33</v>
@@ -978,7 +972,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>33</v>
@@ -997,7 +991,7 @@
         <v>45131</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>33</v>
@@ -1033,7 +1027,7 @@
         <v>45138</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>33</v>
@@ -1065,7 +1059,7 @@
         <v>45152</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>33</v>
@@ -1084,7 +1078,7 @@
         <v>45159</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>33</v>
@@ -1115,68 +1109,36 @@
         <v>2</v>
       </c>
       <c r="B27" s="24">
-        <v>45065</v>
+        <v>45138</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="23">
-        <v>36757</v>
+        <v>99474</v>
       </c>
       <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="24">
-        <v>45072</v>
+        <v>45141</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="23">
-        <v>64900</v>
-      </c>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="24">
-        <v>45138</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="23">
-        <v>99474</v>
-      </c>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="24">
-        <v>45141</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="23">
         <v>5251</v>
       </c>
-      <c r="F30" s="25">
-        <f>E27+E28+E29+E30</f>
-        <v>206382</v>
+      <c r="F28" s="25">
+        <f>E27+E28</f>
+        <v>104725</v>
       </c>
     </row>
   </sheetData>
@@ -1189,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1332,7 +1294,7 @@
         <v>45156</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1348,7 +1310,7 @@
         <v>45173</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>Sr. No</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>b23-24MQ207</t>
+  </si>
+  <si>
+    <t>PAN7404/23-24</t>
+  </si>
+  <si>
+    <t>Microciti</t>
   </si>
 </sst>
 </file>
@@ -650,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1141,6 +1147,27 @@
         <v>104725</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45173</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="9">
+        <v>7198</v>
+      </c>
+      <c r="F30" s="25">
+        <f>E30</f>
+        <v>7198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1152,7 +1179,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A28" sqref="A28:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>Sr. No</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Microciti</t>
+  </si>
+  <si>
+    <t>50/23-24</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1079,20 +1082,20 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="24">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27">
         <v>45159</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="D24" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="28">
         <v>22184</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="26">
         <f>F23+E24</f>
         <v>187778</v>
       </c>
@@ -1105,66 +1108,85 @@
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
-      <c r="F25" s="25">
+      <c r="F25" s="9">
         <f>F24-100000</f>
         <v>87778</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="24">
+        <v>45180</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="23">
+        <v>33040</v>
+      </c>
+      <c r="F26" s="25">
+        <f>F25+E26</f>
+        <v>120818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>2</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B28" s="24">
         <v>45138</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C28" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="23">
-        <v>99474</v>
-      </c>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="24">
-        <v>45141</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="23">
+        <v>99474</v>
+      </c>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="24">
+        <v>45141</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="23">
         <v>5251</v>
       </c>
-      <c r="F28" s="25">
-        <f>E27+E28</f>
+      <c r="F29" s="25">
+        <f>E28+E29</f>
         <v>104725</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>3</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>45173</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>7198</v>
       </c>
-      <c r="F30" s="25">
-        <f>E30</f>
+      <c r="F31" s="25">
+        <f>E31</f>
         <v>7198</v>
       </c>
     </row>
@@ -1178,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>50/23-24</t>
+  </si>
+  <si>
+    <t>51/23-24</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1127,66 +1130,85 @@
       <c r="E26" s="23">
         <v>33040</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="9">
         <f>F25+E26</f>
         <v>120818</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="24">
+        <v>45184</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="23">
+        <v>26491</v>
+      </c>
+      <c r="F27" s="25">
+        <f>F26+E27</f>
+        <v>147309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>2</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B29" s="24">
         <v>45138</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C29" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="23">
-        <v>99474</v>
-      </c>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="24">
-        <v>45141</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="23">
+        <v>99474</v>
+      </c>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="24">
+        <v>45141</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="23">
         <v>5251</v>
       </c>
-      <c r="F29" s="25">
-        <f>E28+E29</f>
+      <c r="F30" s="25">
+        <f>E29+E30</f>
         <v>104725</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>3</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="3">
         <v>45173</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>7198</v>
       </c>
-      <c r="F31" s="25">
-        <f>E31</f>
+      <c r="F32" s="25">
+        <f>E32</f>
         <v>7198</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>Sr. No</t>
   </si>
@@ -143,9 +143,6 @@
     <t>11/23-24</t>
   </si>
   <si>
-    <t>b23-24MQ114</t>
-  </si>
-  <si>
     <t>13/23-24</t>
   </si>
   <si>
@@ -182,16 +179,10 @@
     <t>38/23-24</t>
   </si>
   <si>
-    <t>b23-24MQ205</t>
-  </si>
-  <si>
     <t>40/23-24</t>
   </si>
   <si>
     <t>32/23-24</t>
-  </si>
-  <si>
-    <t>b23-24MQ207</t>
   </si>
   <si>
     <t>PAN7404/23-24</t>
@@ -665,7 +656,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -812,7 +803,7 @@
         <v>45064</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>33</v>
@@ -842,7 +833,7 @@
         <v>45075</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>33</v>
@@ -861,7 +852,7 @@
         <v>45083</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>33</v>
@@ -893,7 +884,7 @@
         <v>45087</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>33</v>
@@ -912,7 +903,7 @@
         <v>45093</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>33</v>
@@ -931,7 +922,7 @@
         <v>45099</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>33</v>
@@ -965,7 +956,7 @@
         <v>45118</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>33</v>
@@ -984,7 +975,7 @@
         <v>45121</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>33</v>
@@ -1003,7 +994,7 @@
         <v>45131</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>33</v>
@@ -1039,7 +1030,7 @@
         <v>45138</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>33</v>
@@ -1071,7 +1062,7 @@
         <v>45152</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>33</v>
@@ -1090,7 +1081,7 @@
         <v>45159</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>33</v>
@@ -1122,7 +1113,7 @@
         <v>45180</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>33</v>
@@ -1141,7 +1132,7 @@
         <v>45184</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>33</v>
@@ -1162,7 +1153,7 @@
         <v>45138</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>26</v>
@@ -1178,7 +1169,7 @@
         <v>45141</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>26</v>
@@ -1199,10 +1190,10 @@
         <v>45173</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E32" s="9">
         <v>7198</v>
@@ -1220,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1341,276 +1332,228 @@
       <c r="E7" s="22">
         <v>15389.56</v>
       </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="21">
-        <v>45063</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="22">
-        <v>369945</v>
-      </c>
-      <c r="F8" s="20"/>
+      <c r="F7" s="20">
+        <f>E5+E6+E7</f>
+        <v>79057.64</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="21">
-        <v>45156</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="22">
-        <v>112560.2</v>
-      </c>
-      <c r="F9" s="20"/>
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14">
+        <v>44841</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="15">
+        <v>64917.7</v>
+      </c>
+      <c r="F9" s="12">
+        <f>E9-50000</f>
+        <v>14917.699999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="21">
-        <v>45173</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="22">
-        <v>57006</v>
-      </c>
-      <c r="F10" s="20">
-        <f>E5+E6+E7+E8+E9+E10</f>
-        <v>618568.84</v>
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14">
+        <v>44861</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2689515</v>
+      </c>
+      <c r="F11" s="12">
+        <f>E11-2512515</f>
+        <v>177000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>3</v>
-      </c>
-      <c r="B12" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F12" s="12">
-        <f>E12-50000</f>
-        <v>14917.699999999997</v>
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="J12" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="6">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F13" s="12">
+        <f>E13-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>7</v>
+      </c>
+      <c r="B17" s="14">
+        <v>45034</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="15">
+        <v>21900.799999999999</v>
+      </c>
+      <c r="F17" s="12">
+        <f>E17</f>
+        <v>21900.799999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="14">
-        <v>44861</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2689515</v>
-      </c>
-      <c r="F14" s="12">
-        <f>E14-2512515</f>
-        <v>177000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="J15" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="15">
-        <v>2021558.3</v>
-      </c>
-      <c r="F16" s="12">
-        <f>E16-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>6</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>7</v>
-      </c>
-      <c r="B20" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F20" s="12">
-        <f>E20</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="B20" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>8</v>
-      </c>
-      <c r="B23" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
         <v>20000</v>
       </c>
-      <c r="F23" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F24" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <f>F24+F23-E23-E24-E25</f>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <f>F21+F20-E20-E21-E22</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>Sr. No</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>51/23-24</t>
+  </si>
+  <si>
+    <t>SLH/1993</t>
+  </si>
+  <si>
+    <t>Shree Laxmi Lighting Hub</t>
   </si>
 </sst>
 </file>
@@ -653,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1201,6 +1207,27 @@
       <c r="F32" s="25">
         <f>E32</f>
         <v>7198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1432</v>
+      </c>
+      <c r="F34" s="25">
+        <f>E34</f>
+        <v>1432</v>
       </c>
     </row>
   </sheetData>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Shree Laxmi Lighting Hub</t>
+  </si>
+  <si>
+    <t>b22-23MQ208</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1230,6 +1233,571 @@
         <v>1432</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45028</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="9">
+        <v>94430</v>
+      </c>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="3">
+        <v>45030</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="9">
+        <v>26491</v>
+      </c>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="3">
+        <v>45041</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="9">
+        <v>113339</v>
+      </c>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="3">
+        <v>45044</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="9">
+        <v>76971</v>
+      </c>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="24">
+        <v>45048</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="23">
+        <v>29140</v>
+      </c>
+      <c r="F45" s="9">
+        <f>E41+E42+E43+E44+E45-150000</f>
+        <v>190371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="24">
+        <v>45059</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="23">
+        <v>38238</v>
+      </c>
+      <c r="F46" s="9">
+        <f>F45+E46</f>
+        <v>228609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="24">
+        <v>45064</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="23">
+        <v>67874</v>
+      </c>
+      <c r="F47" s="9">
+        <f>F46+E47</f>
+        <v>296483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="9">
+        <f>F47-100000</f>
+        <v>196483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="24">
+        <v>45075</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="23">
+        <v>122868</v>
+      </c>
+      <c r="F49" s="9">
+        <f>F48+E49</f>
+        <v>319351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="24">
+        <v>45083</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="23">
+        <v>168475</v>
+      </c>
+      <c r="F50" s="9">
+        <f>F49+E50</f>
+        <v>487826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="24">
+        <v>45089</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="9">
+        <f>F50-200000</f>
+        <v>287826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="24">
+        <v>45087</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="23">
+        <v>97055</v>
+      </c>
+      <c r="F52" s="9">
+        <f>F51+E52</f>
+        <v>384881</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="24">
+        <v>45093</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="23">
+        <v>87556</v>
+      </c>
+      <c r="F53" s="9">
+        <f>F52+E53</f>
+        <v>472437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="24">
+        <v>45099</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="23">
+        <v>40179</v>
+      </c>
+      <c r="F54" s="9">
+        <f>F53+E54</f>
+        <v>512616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="24">
+        <v>45111</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="23"/>
+      <c r="F55" s="9">
+        <f>F54-400000</f>
+        <v>112616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27">
+        <v>45118</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="28">
+        <v>31907</v>
+      </c>
+      <c r="F56" s="26">
+        <f>F55+E56</f>
+        <v>144523</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="24">
+        <v>45121</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="23">
+        <v>16072</v>
+      </c>
+      <c r="F57" s="9">
+        <f>F56+E57</f>
+        <v>160595</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="24">
+        <v>45131</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="23">
+        <v>23842</v>
+      </c>
+      <c r="F58" s="9">
+        <f>F57+E58</f>
+        <v>184437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="24">
+        <v>45138</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="23">
+        <v>50000</v>
+      </c>
+      <c r="F59" s="9">
+        <f>F58-E59</f>
+        <v>134437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="24">
+        <v>45138</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="23">
+        <v>78175</v>
+      </c>
+      <c r="F60" s="9">
+        <f>F59+E60</f>
+        <v>212612</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="24">
+        <v>45147</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="9">
+        <f>F60-100000</f>
+        <v>112612</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="24">
+        <v>45152</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="23">
+        <v>52982</v>
+      </c>
+      <c r="F62" s="9">
+        <f>F61+E62</f>
+        <v>165594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27">
+        <v>45159</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="28">
+        <v>22184</v>
+      </c>
+      <c r="F63" s="26">
+        <f>F62+E63</f>
+        <v>187778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="24">
+        <v>45166</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="9">
+        <f>F63-100000</f>
+        <v>87778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="24">
+        <v>45180</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="23">
+        <v>33040</v>
+      </c>
+      <c r="F65" s="9">
+        <f>F64+E65</f>
+        <v>120818</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+      <c r="B66" s="24">
+        <v>45184</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="23">
+        <v>26491</v>
+      </c>
+      <c r="F66" s="25">
+        <f>F65+E66</f>
+        <v>147309</v>
+      </c>
+      <c r="G66" s="2">
+        <f>F66-E67</f>
+        <v>87778</v>
+      </c>
+      <c r="H66" s="2">
+        <f>G66+E67</f>
+        <v>147309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E67" s="2">
+        <f>SUM(E65:E66)</f>
+        <v>59531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>2</v>
+      </c>
+      <c r="B68" s="24">
+        <v>45138</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="23">
+        <v>99474</v>
+      </c>
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
+      <c r="B69" s="24">
+        <v>45141</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="23">
+        <v>5251</v>
+      </c>
+      <c r="F69" s="25">
+        <f>E68+E69</f>
+        <v>104725</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>3</v>
+      </c>
+      <c r="B71" s="3">
+        <v>45173</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="9">
+        <v>7198</v>
+      </c>
+      <c r="F71" s="25">
+        <f>E71</f>
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>4</v>
+      </c>
+      <c r="B73" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" s="9">
+        <v>1432</v>
+      </c>
+      <c r="F73" s="25">
+        <f>E73</f>
+        <v>1432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1238,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1359,228 +1927,244 @@
       <c r="E7" s="22">
         <v>15389.56</v>
       </c>
-      <c r="F7" s="20">
-        <f>E5+E6+E7</f>
-        <v>79057.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="21">
+        <v>45190</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="22">
+        <v>144302.20000000001</v>
+      </c>
+      <c r="F8" s="20">
+        <f>E5+E6+E7+E8</f>
+        <v>223359.84000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B10" s="14">
         <v>44841</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F9" s="12">
-        <f>E9-50000</f>
+      <c r="F10" s="12">
+        <f>E10-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B12" s="14">
         <v>44861</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>2689515</v>
       </c>
-      <c r="F11" s="12">
-        <f>E11-2512515</f>
+      <c r="F12" s="12">
+        <f>E12-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="J12" s="10" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="J13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B14" s="14">
         <v>44902</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E14" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F13" s="12">
-        <f>E13-175496-500000-800000</f>
+      <c r="F14" s="12">
+        <f>E14-175496-500000-800000</f>
         <v>546062.30000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>6</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E16" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>7</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B18" s="14">
         <v>45034</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="15">
         <v>21900.799999999999</v>
       </c>
-      <c r="F17" s="12">
-        <f>E17</f>
+      <c r="F18" s="12">
+        <f>E18</f>
         <v>21900.799999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>8</v>
       </c>
-      <c r="B20" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F20" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
       <c r="B21" s="7">
         <v>44573</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F21" s="6">
-        <v>52362.5</v>
+        <v>29641.599999999999</v>
       </c>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7">
         <v>44954</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
         <v>20000</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
-        <f>F21+F20-E20-E21-E22</f>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <f>F22+F21-E21-E22-E23</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>Sr. No</t>
   </si>
@@ -183,12 +183,6 @@
   </si>
   <si>
     <t>32/23-24</t>
-  </si>
-  <si>
-    <t>PAN7404/23-24</t>
-  </si>
-  <si>
-    <t>Microciti</t>
   </si>
   <si>
     <t>50/23-24</t>
@@ -662,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -683,22 +677,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1122,7 +1116,7 @@
         <v>45180</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>33</v>
@@ -1141,7 +1135,7 @@
         <v>45184</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>33</v>
@@ -1149,652 +1143,81 @@
       <c r="E27" s="23">
         <v>26491</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="9">
         <f>F26+E27</f>
         <v>147309</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="24">
+        <v>45195</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="25">
+        <f>F27-87778</f>
+        <v>59531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>2</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B30" s="24">
         <v>45138</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C30" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="23">
-        <v>99474</v>
-      </c>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="24">
-        <v>45141</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>46</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="23">
+        <v>99474</v>
+      </c>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="24">
+        <v>45141</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="23">
         <v>5251</v>
       </c>
-      <c r="F30" s="25">
-        <f>E29+E30</f>
+      <c r="F31" s="25">
+        <f>E30+E31</f>
         <v>104725</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>3</v>
       </c>
-      <c r="B32" s="3">
-        <v>45173</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="9">
-        <v>7198</v>
-      </c>
-      <c r="F32" s="25">
-        <f>E32</f>
-        <v>7198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3">
+      <c r="B33" s="3">
         <v>45187</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="C33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="9">
         <v>1432</v>
       </c>
-      <c r="F34" s="25">
-        <f>E34</f>
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>1</v>
-      </c>
-      <c r="B41" s="3">
-        <v>45028</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="9">
-        <v>94430</v>
-      </c>
-      <c r="F41" s="25"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="3">
-        <v>45030</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="9">
-        <v>26491</v>
-      </c>
-      <c r="F42" s="25"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="3">
-        <v>45041</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="9">
-        <v>113339</v>
-      </c>
-      <c r="F43" s="25"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="3">
-        <v>45044</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="9">
-        <v>76971</v>
-      </c>
-      <c r="F44" s="25"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="24">
-        <v>45048</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="23">
-        <v>29140</v>
-      </c>
-      <c r="F45" s="9">
-        <f>E41+E42+E43+E44+E45-150000</f>
-        <v>190371</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="24">
-        <v>45059</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="23">
-        <v>38238</v>
-      </c>
-      <c r="F46" s="9">
-        <f>F45+E46</f>
-        <v>228609</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="24">
-        <v>45064</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="23">
-        <v>67874</v>
-      </c>
-      <c r="F47" s="9">
-        <f>F46+E47</f>
-        <v>296483</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="9">
-        <f>F47-100000</f>
-        <v>196483</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="24">
-        <v>45075</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="23">
-        <v>122868</v>
-      </c>
-      <c r="F49" s="9">
-        <f>F48+E49</f>
-        <v>319351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="24">
-        <v>45083</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="23">
-        <v>168475</v>
-      </c>
-      <c r="F50" s="9">
-        <f>F49+E50</f>
-        <v>487826</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="24">
-        <v>45089</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="9">
-        <f>F50-200000</f>
-        <v>287826</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="24">
-        <v>45087</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="23">
-        <v>97055</v>
-      </c>
-      <c r="F52" s="9">
-        <f>F51+E52</f>
-        <v>384881</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="24">
-        <v>45093</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="23">
-        <v>87556</v>
-      </c>
-      <c r="F53" s="9">
-        <f>F52+E53</f>
-        <v>472437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="24">
-        <v>45099</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="23">
-        <v>40179</v>
-      </c>
-      <c r="F54" s="9">
-        <f>F53+E54</f>
-        <v>512616</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="24">
-        <v>45111</v>
-      </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="9">
-        <f>F54-400000</f>
-        <v>112616</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27">
-        <v>45118</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="28">
-        <v>31907</v>
-      </c>
-      <c r="F56" s="26">
-        <f>F55+E56</f>
-        <v>144523</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="24">
-        <v>45121</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="23">
-        <v>16072</v>
-      </c>
-      <c r="F57" s="9">
-        <f>F56+E57</f>
-        <v>160595</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="24">
-        <v>45131</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="23">
-        <v>23842</v>
-      </c>
-      <c r="F58" s="9">
-        <f>F57+E58</f>
-        <v>184437</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="24">
-        <v>45138</v>
-      </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="23">
-        <v>50000</v>
-      </c>
-      <c r="F59" s="9">
-        <f>F58-E59</f>
-        <v>134437</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="24">
-        <v>45138</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="23">
-        <v>78175</v>
-      </c>
-      <c r="F60" s="9">
-        <f>F59+E60</f>
-        <v>212612</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="24">
-        <v>45147</v>
-      </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="9">
-        <f>F60-100000</f>
-        <v>112612</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="24">
-        <v>45152</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="23">
-        <v>52982</v>
-      </c>
-      <c r="F62" s="9">
-        <f>F61+E62</f>
-        <v>165594</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27">
-        <v>45159</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="28">
-        <v>22184</v>
-      </c>
-      <c r="F63" s="26">
-        <f>F62+E63</f>
-        <v>187778</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="24">
-        <v>45166</v>
-      </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="9">
-        <f>F63-100000</f>
-        <v>87778</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
-      <c r="B65" s="24">
-        <v>45180</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="23">
-        <v>33040</v>
-      </c>
-      <c r="F65" s="9">
-        <f>F64+E65</f>
-        <v>120818</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
-      <c r="B66" s="24">
-        <v>45184</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="23">
-        <v>26491</v>
-      </c>
-      <c r="F66" s="25">
-        <f>F65+E66</f>
-        <v>147309</v>
-      </c>
-      <c r="G66" s="2">
-        <f>F66-E67</f>
-        <v>87778</v>
-      </c>
-      <c r="H66" s="2">
-        <f>G66+E67</f>
-        <v>147309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E67" s="2">
-        <f>SUM(E65:E66)</f>
-        <v>59531</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="9">
-        <v>2</v>
-      </c>
-      <c r="B68" s="24">
-        <v>45138</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="23">
-        <v>99474</v>
-      </c>
-      <c r="F68" s="25"/>
-    </row>
-    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
-      <c r="B69" s="24">
-        <v>45141</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="23">
-        <v>5251</v>
-      </c>
-      <c r="F69" s="25">
-        <f>E68+E69</f>
-        <v>104725</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
-        <v>3</v>
-      </c>
-      <c r="B71" s="3">
-        <v>45173</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71" s="9">
-        <v>7198</v>
-      </c>
-      <c r="F71" s="25">
-        <f>E71</f>
-        <v>7198</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
-        <v>4</v>
-      </c>
-      <c r="B73" s="3">
-        <v>45187</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E73" s="9">
-        <v>1432</v>
-      </c>
-      <c r="F73" s="25">
-        <f>E73</f>
+      <c r="F33" s="25">
+        <f>E33</f>
         <v>1432</v>
       </c>
     </row>
@@ -1808,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1935,7 +1358,7 @@
         <v>45190</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -2050,7 +1473,10 @@
       <c r="E16" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="12">
+        <f>E16-1364617</f>
+        <v>782381.20000000019</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -375,6 +375,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,7 +1235,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1473,7 +1476,7 @@
       <c r="E16" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="29">
         <f>E16-1364617</f>
         <v>782381.20000000019</v>
       </c>
@@ -1483,8 +1486,13 @@
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="15">
+        <v>2196181</v>
+      </c>
+      <c r="F17" s="12">
+        <f>E17-1364617</f>
+        <v>831564</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -197,7 +197,13 @@
     <t>Shree Laxmi Lighting Hub</t>
   </si>
   <si>
-    <t>b22-23MQ208</t>
+    <t>54/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ208</t>
+  </si>
+  <si>
+    <t>b23-24MQ210</t>
   </si>
 </sst>
 </file>
@@ -659,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1161,66 +1167,85 @@
         <v>33</v>
       </c>
       <c r="E28" s="23"/>
-      <c r="F28" s="25">
+      <c r="F28" s="9">
         <f>F27-87778</f>
         <v>59531</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="24">
+        <v>45197</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="23">
+        <v>26491</v>
+      </c>
+      <c r="F29" s="25">
+        <f>F28+E29</f>
+        <v>86022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>2</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B31" s="24">
         <v>45138</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C31" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="23">
-        <v>99474</v>
-      </c>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="24">
-        <v>45141</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>46</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="23">
+        <v>99474</v>
+      </c>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="24">
+        <v>45141</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="23">
         <v>5251</v>
       </c>
-      <c r="F31" s="25">
-        <f>E30+E31</f>
+      <c r="F32" s="25">
+        <f>E31+E32</f>
         <v>104725</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>3</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="3">
         <v>45187</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>1432</v>
       </c>
-      <c r="F33" s="25">
-        <f>E33</f>
+      <c r="F34" s="25">
+        <f>E34</f>
         <v>1432</v>
       </c>
     </row>
@@ -1232,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1361,7 +1386,7 @@
         <v>45190</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1369,236 +1394,252 @@
       <c r="E8" s="22">
         <v>144302.20000000001</v>
       </c>
-      <c r="F8" s="20">
-        <f>E5+E6+E7+E8</f>
-        <v>223359.84000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="21">
+        <v>45199</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="22">
+        <v>39747</v>
+      </c>
+      <c r="F9" s="20">
+        <f>E5+E6+E7+E8+E9</f>
+        <v>263106.84000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B11" s="14">
         <v>44841</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F10" s="12">
-        <f>E10-50000</f>
+      <c r="F11" s="12">
+        <f>E11-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B13" s="14">
         <v>44861</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <v>2689515</v>
       </c>
-      <c r="F12" s="12">
-        <f>E12-2512515</f>
+      <c r="F13" s="12">
+        <f>E13-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="J13" s="10" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="J14" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B15" s="14">
         <v>44902</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F14" s="12">
-        <f>E14-175496-500000-800000</f>
+      <c r="F15" s="12">
+        <f>E15-175496-500000-800000</f>
         <v>546062.30000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-    </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>6</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F16" s="29">
-        <f>E16-1364617</f>
+      <c r="F17" s="29">
+        <f>E17-1364617</f>
         <v>782381.20000000019</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="15">
         <v>2196181</v>
       </c>
-      <c r="F17" s="12">
-        <f>E17-1364617</f>
+      <c r="F18" s="12">
+        <f>E18-1364617</f>
         <v>831564</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>7</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B19" s="14">
         <v>45034</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>21900.799999999999</v>
       </c>
-      <c r="F18" s="12">
-        <f>E18</f>
+      <c r="F19" s="12">
+        <f>E19</f>
         <v>21900.799999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>8</v>
       </c>
-      <c r="B21" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F21" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
       <c r="B22" s="7">
         <v>44573</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F22" s="6">
-        <v>52362.5</v>
+        <v>29641.599999999999</v>
       </c>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F23" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7">
         <v>44954</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
         <v>20000</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6">
-        <f>F22+F21-E21-E22-E23</f>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <f>F23+F22-E22-E23-E24</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1257,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1536,110 +1536,118 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>7</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B20" s="14">
         <v>45034</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <v>21900.799999999999</v>
       </c>
-      <c r="F19" s="12">
-        <f>E19</f>
+      <c r="F20" s="12">
+        <f>E20</f>
         <v>21900.799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>8</v>
       </c>
-      <c r="B22" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
       <c r="B23" s="7">
         <v>44573</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F23" s="6">
-        <v>52362.5</v>
+        <v>29641.599999999999</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7">
         <v>44954</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
         <v>20000</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
-        <f>F23+F22-E22-E23-E24</f>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <f>F24+F23-E23-E24-E25</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>Sr. No</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>b23-24MQ210</t>
+  </si>
+  <si>
+    <t>INV/23-24/1065</t>
+  </si>
+  <si>
+    <t>Cassun Electricals</t>
   </si>
 </sst>
 </file>
@@ -665,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1249,6 +1255,27 @@
         <v>1432</v>
       </c>
     </row>
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>4</v>
+      </c>
+      <c r="B36" s="24">
+        <v>45199</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="23">
+        <v>6080</v>
+      </c>
+      <c r="F36" s="25">
+        <f>E36</f>
+        <v>6080</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1259,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -674,7 +674,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -120,12 +120,6 @@
   </si>
   <si>
     <t>03/23-24</t>
-  </si>
-  <si>
-    <t>b23-24MQ106</t>
-  </si>
-  <si>
-    <t>Marcfremiot</t>
   </si>
   <si>
     <t>06/23-24</t>
@@ -722,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9">
         <v>94430</v>
@@ -738,7 +732,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9">
         <v>26491</v>
@@ -751,10 +745,10 @@
         <v>45041</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9">
         <v>113339</v>
@@ -767,10 +761,10 @@
         <v>45044</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9">
         <v>76971</v>
@@ -783,10 +777,10 @@
         <v>45048</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="23">
         <v>29140</v>
@@ -802,10 +796,10 @@
         <v>45059</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="23">
         <v>38238</v>
@@ -821,10 +815,10 @@
         <v>45064</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="23">
         <v>67874</v>
@@ -851,10 +845,10 @@
         <v>45075</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="23">
         <v>122868</v>
@@ -870,10 +864,10 @@
         <v>45083</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="23">
         <v>168475</v>
@@ -902,10 +896,10 @@
         <v>45087</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="23">
         <v>97055</v>
@@ -921,10 +915,10 @@
         <v>45093</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="23">
         <v>87556</v>
@@ -940,10 +934,10 @@
         <v>45099</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="23">
         <v>40179</v>
@@ -960,7 +954,7 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="9">
@@ -974,10 +968,10 @@
         <v>45118</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="28">
         <v>31907</v>
@@ -993,10 +987,10 @@
         <v>45121</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="23">
         <v>16072</v>
@@ -1012,10 +1006,10 @@
         <v>45131</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="23">
         <v>23842</v>
@@ -1032,7 +1026,7 @@
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="23">
         <v>50000</v>
@@ -1048,10 +1042,10 @@
         <v>45138</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="23">
         <v>78175</v>
@@ -1080,10 +1074,10 @@
         <v>45152</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="23">
         <v>52982</v>
@@ -1099,10 +1093,10 @@
         <v>45159</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24" s="28">
         <v>22184</v>
@@ -1131,10 +1125,10 @@
         <v>45180</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E26" s="23">
         <v>33040</v>
@@ -1150,10 +1144,10 @@
         <v>45184</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" s="23">
         <v>26491</v>
@@ -1170,7 +1164,7 @@
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="9">
@@ -1184,10 +1178,10 @@
         <v>45197</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="23">
         <v>26491</v>
@@ -1205,7 +1199,7 @@
         <v>45138</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>26</v>
@@ -1221,7 +1215,7 @@
         <v>45141</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>26</v>
@@ -1242,10 +1236,10 @@
         <v>45187</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34" s="9">
         <v>1432</v>
@@ -1263,10 +1257,10 @@
         <v>45199</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" s="23">
         <v>6080</v>
@@ -1284,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1413,7 +1407,7 @@
         <v>45190</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1429,7 +1423,7 @@
         <v>45199</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1555,11 +1549,11 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="15">
-        <v>2196181</v>
+        <v>2202021.6</v>
       </c>
       <c r="F18" s="12">
         <f>E18-1364617</f>
-        <v>831564</v>
+        <v>837404.60000000009</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1570,111 +1564,82 @@
       <c r="E19" s="15"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>7</v>
-      </c>
-      <c r="B20" s="14">
-        <v>45034</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="15">
-        <v>21900.799999999999</v>
-      </c>
-      <c r="F20" s="12">
-        <f>E20</f>
-        <v>21900.799999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>8</v>
-      </c>
+      <c r="A23" s="6"/>
       <c r="B23" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>44954</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>20000</v>
       </c>
-      <c r="F23" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F24" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <f>F24+F23-E23-E24-E25</f>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <f>F22+F21-E21-E22-E23</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>Sr. No</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>Cassun Electricals</t>
+  </si>
+  <si>
+    <t>PAN9562/23-24</t>
+  </si>
+  <si>
+    <t>Microciti</t>
+  </si>
+  <si>
+    <t>2023-24/7826</t>
+  </si>
+  <si>
+    <t>Print House</t>
   </si>
 </sst>
 </file>
@@ -665,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -977,8 +989,7 @@
         <v>31907</v>
       </c>
       <c r="F17" s="26">
-        <f>F16+E17</f>
-        <v>144523</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -997,7 +1008,7 @@
       </c>
       <c r="F18" s="9">
         <f>F17+E18</f>
-        <v>160595</v>
+        <v>17422</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1016,7 +1027,7 @@
       </c>
       <c r="F19" s="9">
         <f>F18+E19</f>
-        <v>184437</v>
+        <v>41264</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1033,7 +1044,7 @@
       </c>
       <c r="F20" s="9">
         <f>F19-E20</f>
-        <v>134437</v>
+        <v>-8736</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1052,7 +1063,7 @@
       </c>
       <c r="F21" s="9">
         <f>F20+E21</f>
-        <v>212612</v>
+        <v>69439</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1065,7 +1076,7 @@
       <c r="E22" s="23"/>
       <c r="F22" s="9">
         <f>F21-100000</f>
-        <v>112612</v>
+        <v>-30561</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1084,7 +1095,7 @@
       </c>
       <c r="F23" s="9">
         <f>F22+E23</f>
-        <v>165594</v>
+        <v>22421</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1103,7 +1114,7 @@
       </c>
       <c r="F24" s="26">
         <f>F23+E24</f>
-        <v>187778</v>
+        <v>44605</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1116,7 +1127,7 @@
       <c r="E25" s="23"/>
       <c r="F25" s="9">
         <f>F24-100000</f>
-        <v>87778</v>
+        <v>-55395</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1135,7 +1146,7 @@
       </c>
       <c r="F26" s="9">
         <f>F25+E26</f>
-        <v>120818</v>
+        <v>-22355</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1154,7 +1165,7 @@
       </c>
       <c r="F27" s="9">
         <f>F26+E27</f>
-        <v>147309</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1169,7 +1180,7 @@
       <c r="E28" s="23"/>
       <c r="F28" s="9">
         <f>F27-87778</f>
-        <v>59531</v>
+        <v>-83642</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1188,7 +1199,7 @@
       </c>
       <c r="F29" s="25">
         <f>F28+E29</f>
-        <v>86022</v>
+        <v>-57151</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1269,6 +1280,51 @@
         <f>E36</f>
         <v>6080</v>
       </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45216</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1145</v>
+      </c>
+      <c r="F38" s="25">
+        <f>E38</f>
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45218</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="9">
+        <v>413</v>
+      </c>
+      <c r="F40" s="25">
+        <f>E40</f>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1281,7 +1337,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -200,22 +200,10 @@
     <t>b23-24MQ210</t>
   </si>
   <si>
-    <t>INV/23-24/1065</t>
-  </si>
-  <si>
-    <t>Cassun Electricals</t>
-  </si>
-  <si>
     <t>PAN9562/23-24</t>
   </si>
   <si>
     <t>Microciti</t>
-  </si>
-  <si>
-    <t>2023-24/7826</t>
-  </si>
-  <si>
-    <t>Print House</t>
   </si>
 </sst>
 </file>
@@ -268,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -304,11 +292,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -395,6 +396,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -677,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1260,71 +1267,29 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>4</v>
       </c>
-      <c r="B36" s="24">
-        <v>45199</v>
-      </c>
-      <c r="C36" s="23" t="s">
+      <c r="B37" s="3">
+        <v>45216</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D37" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="23">
-        <v>6080</v>
-      </c>
-      <c r="F36" s="25">
-        <f>E36</f>
-        <v>6080</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>5</v>
-      </c>
-      <c r="B38" s="3">
-        <v>45216</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="9">
+      <c r="E37" s="9">
         <v>1145</v>
       </c>
-      <c r="F38" s="25">
-        <f>E38</f>
+      <c r="F37" s="25">
+        <f>E37</f>
         <v>1145</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>6</v>
-      </c>
-      <c r="B40" s="3">
-        <v>45218</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="9">
-        <v>413</v>
-      </c>
-      <c r="F40" s="25">
-        <f>E40</f>
-        <v>413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F41" s="9"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1337,7 +1302,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1600,10 +1565,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="15">
         <v>2202021.6</v>
       </c>
@@ -1617,8 +1582,8 @@
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -684,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1204,9 +1204,9 @@
       <c r="E29" s="23">
         <v>26491</v>
       </c>
-      <c r="F29" s="25">
-        <f>F28+E29</f>
-        <v>-57151</v>
+      <c r="F29" s="25" t="e">
+        <f>F28+G29E29</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1267,29 +1267,29 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>4</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B36" s="3">
         <v>45216</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E36" s="9">
         <v>1145</v>
       </c>
-      <c r="F37" s="25">
-        <f>E37</f>
+      <c r="F36" s="25">
+        <f>E36</f>
         <v>1145</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F39" s="9"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1301,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Sr. No</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Microciti</t>
+  </si>
+  <si>
+    <t>I-C-1-23-453322</t>
   </si>
 </sst>
 </file>
@@ -593,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -682,50 +685,66 @@
       <c r="E5" s="23">
         <v>5251</v>
       </c>
-      <c r="F5" s="25">
-        <f>E4+E5</f>
-        <v>104725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="24">
+        <v>45224</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="23">
+        <v>52510</v>
+      </c>
+      <c r="F6" s="25">
+        <f>E4+E5+E6</f>
+        <v>157235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>45187</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>1432</v>
       </c>
-      <c r="F7" s="25">
-        <f>E7</f>
+      <c r="F8" s="25">
+        <f>E8</f>
         <v>1432</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>45216</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>1145</v>
       </c>
-      <c r="F9" s="25">
-        <f>E9</f>
+      <c r="F10" s="25">
+        <f>E10</f>
         <v>1145</v>
       </c>
     </row>
@@ -739,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Sr. No</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>I-C-1-23-453322</t>
+  </si>
+  <si>
+    <t>I-C-1-23-453414</t>
+  </si>
+  <si>
+    <t>64/23-24</t>
   </si>
 </sst>
 </file>
@@ -596,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -648,103 +654,135 @@
       <c r="E2" s="9">
         <v>86022</v>
       </c>
-      <c r="F2" s="25">
-        <f>E2</f>
-        <v>86022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="24">
+        <v>45230</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="23">
+        <v>82748</v>
+      </c>
+      <c r="F3" s="25">
+        <f>E2+E3</f>
+        <v>168770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B5" s="24">
         <v>45138</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C5" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="23">
-        <v>99474</v>
-      </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="24">
-        <v>45141</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="23">
-        <v>5251</v>
+        <v>99474</v>
       </c>
       <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="24">
-        <v>45224</v>
+        <v>45141</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="23">
+        <v>5251</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="24">
+        <v>45224</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="23">
         <v>52510</v>
       </c>
-      <c r="F6" s="25">
-        <f>E4+E5+E6</f>
-        <v>157235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45187</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1432</v>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="24">
+        <v>45226</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="23">
+        <v>25960</v>
       </c>
       <c r="F8" s="25">
-        <f>E8</f>
-        <v>1432</v>
+        <f>E5+E6+E7+E8</f>
+        <v>183195</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="3">
-        <v>45216</v>
+        <v>45187</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="9">
-        <v>1145</v>
+        <v>1432</v>
       </c>
       <c r="F10" s="25">
         <f>E10</f>
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45216</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1145</v>
+      </c>
+      <c r="F12" s="25">
+        <f>E12</f>
         <v>1145</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Sr. No</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>64/23-24</t>
+  </si>
+  <si>
+    <t>46ID23A0987483</t>
+  </si>
+  <si>
+    <t>Ingram Micro India Private Limited</t>
+  </si>
+  <si>
+    <t>b23-24AQ302</t>
+  </si>
+  <si>
+    <t>b23-24MQ303</t>
+  </si>
+  <si>
+    <t>66/23-24</t>
   </si>
 </sst>
 </file>
@@ -602,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -670,120 +685,157 @@
       <c r="E3" s="23">
         <v>82748</v>
       </c>
-      <c r="F3" s="25">
-        <f>E2+E3</f>
-        <v>168770</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="24">
+        <v>45232</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="23">
+        <v>50917</v>
+      </c>
+      <c r="F4" s="25">
+        <f>E2+E3+E4</f>
+        <v>219687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B6" s="24">
         <v>45138</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C6" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="23">
-        <v>99474</v>
-      </c>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="24">
-        <v>45141</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="23">
-        <v>5251</v>
+        <v>99474</v>
       </c>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="24">
-        <v>45224</v>
+        <v>45141</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="23">
-        <v>52510</v>
+        <v>5251</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="24">
-        <v>45226</v>
+        <v>45224</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="23">
+        <v>52510</v>
+      </c>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="24">
+        <v>45226</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="23">
         <v>25960</v>
       </c>
-      <c r="F8" s="25">
-        <f>E5+E6+E7+E8</f>
+      <c r="F9" s="25">
+        <f>E6+E7+E8+E9</f>
         <v>183195</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>45187</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>1432</v>
       </c>
-      <c r="F10" s="25">
-        <f>E10</f>
+      <c r="F11" s="25">
+        <f>E11</f>
         <v>1432</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>45216</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>1145</v>
       </c>
-      <c r="F12" s="25">
-        <f>E12</f>
+      <c r="F13" s="25">
+        <f>E13</f>
         <v>1145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="24">
+        <v>45233</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="23">
+        <v>4130</v>
+      </c>
+      <c r="F15" s="25">
+        <f>E15</f>
+        <v>4130</v>
       </c>
     </row>
   </sheetData>
@@ -794,10 +846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -915,59 +967,62 @@
       <c r="E7" s="22">
         <v>15389.56</v>
       </c>
-      <c r="F7" s="20">
-        <f>E5+E6+E7</f>
-        <v>79057.64</v>
-      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="21">
+        <v>45233</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="22">
+        <v>112076</v>
+      </c>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F9" s="12">
-        <f>E9-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="21">
+        <v>45233</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="22">
+        <v>338370.9</v>
+      </c>
+      <c r="F9" s="20">
+        <f>E5+E6+E7+E8+E9</f>
+        <v>529504.54</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="14">
-        <v>44861</v>
+        <v>44841</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" s="15">
-        <v>2689515</v>
+        <v>64917.7</v>
       </c>
       <c r="F11" s="12">
-        <f>E11-2512515</f>
-        <v>177000</v>
+        <f>E11-50000</f>
+        <v>14917.699999999997</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -977,29 +1032,26 @@
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
-      <c r="J12" s="10" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="14">
-        <v>44902</v>
+        <v>44861</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="15">
-        <v>2021558.3</v>
+        <v>2689515</v>
       </c>
       <c r="F13" s="12">
-        <f>E13-175496-500000-800000</f>
-        <v>546062.30000000005</v>
+        <f>E13-2512515</f>
+        <v>177000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1009,121 +1061,153 @@
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
+      <c r="J14" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
+        <v>5</v>
+      </c>
+      <c r="B15" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F15" s="12">
+        <f>E15-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>6</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E17" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F15" s="26">
-        <f>E15-1364617</f>
+      <c r="F17" s="26">
+        <f>E17-1364617</f>
         <v>782381.20000000019</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15">
         <v>2202021.6</v>
       </c>
-      <c r="F16" s="12">
-        <f>E16-1364617</f>
+      <c r="F18" s="12">
+        <f>E18-1364617</f>
         <v>837404.60000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>1</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B21" s="7">
         <v>44573</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F19" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F20" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
       <c r="E21" s="6">
         <v>20000</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6">
-        <f>F20+F19-E19-E20-E21</f>
+      <c r="F21" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <f>F22+F21-E21-E22-E23</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Sr. No</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>66/23-24</t>
+  </si>
+  <si>
+    <t>INV/23-24/1281</t>
+  </si>
+  <si>
+    <t>Cassun Electricals</t>
   </si>
 </sst>
 </file>
@@ -617,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -838,6 +844,27 @@
         <v>4130</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45234</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="9">
+        <v>14313</v>
+      </c>
+      <c r="F17" s="25">
+        <f>E17</f>
+        <v>14313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -848,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Sr. No</t>
   </si>
@@ -165,14 +165,30 @@
   </si>
   <si>
     <t>Cassun Electricals</t>
+  </si>
+  <si>
+    <t>68/23-24</t>
+  </si>
+  <si>
+    <t>PNJ/NOV23/90</t>
+  </si>
+  <si>
+    <t>Prithvi IT Products Pvt Ltd</t>
+  </si>
+  <si>
+    <t>b23-24MQ304</t>
+  </si>
+  <si>
+    <t>b23-24AQ305</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;&quot;0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -257,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -342,6 +358,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -707,162 +726,199 @@
       <c r="E4" s="23">
         <v>50917</v>
       </c>
-      <c r="F4" s="25">
-        <f>E2+E3+E4</f>
-        <v>219687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="24">
+        <v>45237</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="23">
+        <v>128349</v>
+      </c>
+      <c r="F5" s="25">
+        <f>E2+E3+E4+E5</f>
+        <v>348036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B7" s="24">
         <v>45138</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="23">
-        <v>99474</v>
-      </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="24">
-        <v>45141</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="23">
-        <v>5251</v>
+        <v>99474</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="24">
-        <v>45224</v>
+        <v>45141</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="23">
-        <v>52510</v>
+        <v>5251</v>
       </c>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="24">
-        <v>45226</v>
+        <v>45224</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="23">
+        <v>52510</v>
+      </c>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="24">
+        <v>45226</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="23">
         <v>25960</v>
       </c>
-      <c r="F9" s="25">
-        <f>E6+E7+E8+E9</f>
+      <c r="F10" s="25">
+        <f>E7+E8+E9+E10</f>
         <v>183195</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>45187</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>1432</v>
       </c>
-      <c r="F11" s="25">
-        <f>E11</f>
+      <c r="F12" s="25">
+        <f>E12</f>
         <v>1432</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>45216</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>1145</v>
       </c>
-      <c r="F13" s="25">
-        <f>E13</f>
+      <c r="F14" s="25">
+        <f>E14</f>
         <v>1145</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>5</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B16" s="24">
         <v>45233</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E16" s="23">
         <v>4130</v>
       </c>
-      <c r="F15" s="25">
-        <f>E15</f>
+      <c r="F16" s="25">
+        <f>E16</f>
         <v>4130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>6</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>45234</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>14313</v>
       </c>
-      <c r="F17" s="25">
-        <f>E17</f>
+      <c r="F18" s="25">
+        <f>E18</f>
         <v>14313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45239</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="9">
+        <v>21384</v>
+      </c>
+      <c r="F20" s="25">
+        <f>E20</f>
+        <v>21384</v>
       </c>
     </row>
   </sheetData>
@@ -873,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1026,59 +1082,62 @@
       <c r="E9" s="22">
         <v>338370.9</v>
       </c>
-      <c r="F9" s="20">
-        <f>E5+E6+E7+E8+E9</f>
-        <v>529504.54</v>
-      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="21">
+        <v>45239</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="22">
+        <v>304575.7</v>
+      </c>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>3</v>
-      </c>
-      <c r="B11" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F11" s="12">
-        <f>E11-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="21">
+        <v>45239</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="22">
+        <v>134289</v>
+      </c>
+      <c r="F11" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11</f>
+        <v>968369.24</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="14">
-        <v>44861</v>
+        <v>44841</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" s="15">
-        <v>2689515</v>
+        <v>64917.7</v>
       </c>
       <c r="F13" s="12">
-        <f>E13-2512515</f>
-        <v>177000</v>
+        <f>E13-50000</f>
+        <v>14917.699999999997</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1088,29 +1147,26 @@
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
-      <c r="J14" s="10" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="14">
-        <v>44902</v>
+        <v>44861</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" s="15">
-        <v>2021558.3</v>
+        <v>2689515</v>
       </c>
       <c r="F15" s="12">
-        <f>E15-175496-500000-800000</f>
-        <v>546062.30000000005</v>
+        <f>E15-2512515</f>
+        <v>177000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1120,121 +1176,157 @@
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
+      <c r="J16" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F17" s="12">
+        <f>E17-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E19" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F17" s="26">
-        <f>E17-1364617</f>
+      <c r="F19" s="26">
+        <f>E19-1364617</f>
         <v>782381.20000000019</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15">
         <v>2202021.6</v>
       </c>
-      <c r="F18" s="12">
-        <f>E18-1364617</f>
+      <c r="F20" s="12">
+        <f>E20-1364617</f>
         <v>837404.60000000009</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="G20" s="29">
+        <f>F20-F19</f>
+        <v>55023.399999999907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>1</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B23" s="7">
         <v>44573</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F21" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>20000</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6">
-        <f>F22+F21-E21-E22-E23</f>
+      <c r="F23" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <f>F24+F23-E23-E24-E25</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Sr. No</t>
   </si>
@@ -642,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -686,238 +686,226 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="24">
+        <v>45230</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="D2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="9">
-        <v>86022</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="E2" s="23">
+        <v>82748</v>
+      </c>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="24">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="23">
-        <v>82748</v>
+        <v>50917</v>
       </c>
       <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="24">
-        <v>45232</v>
+        <v>45237</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="23">
-        <v>50917</v>
-      </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="24">
-        <v>45237</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="23">
         <v>128349</v>
       </c>
-      <c r="F5" s="25">
-        <f>E2+E3+E4+E5</f>
-        <v>348036</v>
-      </c>
+      <c r="F4" s="25">
+        <f>E2+E3+E4</f>
+        <v>262014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24">
+        <v>45138</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="23">
+        <v>99474</v>
+      </c>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
+      <c r="A7" s="9"/>
       <c r="B7" s="24">
-        <v>45138</v>
+        <v>45141</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="23">
-        <v>99474</v>
+        <v>5251</v>
       </c>
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="24">
-        <v>45141</v>
+        <v>45224</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="23">
-        <v>5251</v>
+        <v>52510</v>
       </c>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="24">
-        <v>45224</v>
+        <v>45226</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="23">
-        <v>52510</v>
-      </c>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="24">
-        <v>45226</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="23">
         <v>25960</v>
       </c>
-      <c r="F10" s="25">
-        <f>E7+E8+E9+E10</f>
+      <c r="F9" s="25">
+        <f>E6+E7+E8+E9</f>
         <v>183195</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B11" s="3">
         <v>45187</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E11" s="9">
         <v>1432</v>
       </c>
-      <c r="F12" s="25">
-        <f>E12</f>
+      <c r="F11" s="25">
+        <f>E11</f>
         <v>1432</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B13" s="3">
         <v>45216</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E13" s="9">
         <v>1145</v>
       </c>
-      <c r="F14" s="25">
-        <f>E14</f>
+      <c r="F13" s="25">
+        <f>E13</f>
         <v>1145</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B15" s="24">
         <v>45233</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E15" s="23">
         <v>4130</v>
       </c>
-      <c r="F16" s="25">
-        <f>E16</f>
+      <c r="F15" s="25">
+        <f>E15</f>
         <v>4130</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>6</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B17" s="3">
         <v>45234</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E17" s="9">
         <v>14313</v>
       </c>
-      <c r="F18" s="25">
-        <f>E18</f>
+      <c r="F17" s="25">
+        <f>E17</f>
         <v>14313</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>7</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B19" s="3">
         <v>45239</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E19" s="9">
         <v>21384</v>
       </c>
-      <c r="F20" s="25">
-        <f>E20</f>
+      <c r="F19" s="25">
+        <f>E19</f>
         <v>21384</v>
       </c>
     </row>
@@ -931,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Sr. No</t>
   </si>
@@ -119,12 +119,6 @@
     <t>Namrata Rubber Product Pvt Ltd</t>
   </si>
   <si>
-    <t>I-C-1-23-452097</t>
-  </si>
-  <si>
-    <t>I-C-1-23-452174</t>
-  </si>
-  <si>
     <t>SLH/1993</t>
   </si>
   <si>
@@ -180,6 +174,12 @@
   </si>
   <si>
     <t>b23-24AQ305</t>
+  </si>
+  <si>
+    <t>Sanyo and Sanyo</t>
+  </si>
+  <si>
+    <t>Chq no 089933</t>
   </si>
 </sst>
 </file>
@@ -642,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -690,7 +690,7 @@
         <v>45230</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>27</v>
@@ -706,7 +706,7 @@
         <v>45232</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>27</v>
@@ -722,7 +722,7 @@
         <v>45237</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>27</v>
@@ -740,76 +740,65 @@
         <v>2</v>
       </c>
       <c r="B6" s="24">
-        <v>45138</v>
+        <v>45224</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="23">
-        <v>99474</v>
+        <v>52510</v>
       </c>
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="24">
-        <v>45141</v>
+        <v>45226</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="23">
-        <v>5251</v>
-      </c>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="24">
-        <v>45224</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="23">
-        <v>52510</v>
-      </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="24">
-        <v>45226</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="23">
         <v>25960</v>
       </c>
+      <c r="F7" s="25">
+        <f>E6+E7</f>
+        <v>78470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1432</v>
+      </c>
       <c r="F9" s="25">
-        <f>E6+E7+E8+E9</f>
-        <v>183195</v>
+        <f>E9</f>
+        <v>1432</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
-        <v>45187</v>
+        <v>45216</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>30</v>
@@ -818,95 +807,96 @@
         <v>31</v>
       </c>
       <c r="E11" s="9">
-        <v>1432</v>
+        <v>1145</v>
       </c>
       <c r="F11" s="25">
         <f>E11</f>
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45216</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1145</v>
+        <v>5</v>
+      </c>
+      <c r="B13" s="24">
+        <v>45233</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="23">
+        <v>4130</v>
       </c>
       <c r="F13" s="25">
         <f>E13</f>
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <v>5</v>
-      </c>
-      <c r="B15" s="24">
-        <v>45233</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="23">
-        <v>4130</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45234</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="9">
+        <v>14313</v>
       </c>
       <c r="F15" s="25">
         <f>E15</f>
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>45234</v>
+        <v>45239</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="9">
-        <v>14313</v>
+        <v>21384</v>
       </c>
       <c r="F17" s="25">
         <f>E17</f>
-        <v>14313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3">
-        <v>45239</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>45</v>
-      </c>
+        <v>45274</v>
+      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="9">
-        <v>21384</v>
+        <v>60441</v>
       </c>
       <c r="F19" s="25">
         <f>E19</f>
-        <v>21384</v>
+        <v>60441</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -919,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -931,7 +921,7 @@
     <col min="4" max="4" width="42.44140625" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" style="10" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="10" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
@@ -1046,7 +1036,7 @@
         <v>45233</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1062,7 +1052,7 @@
         <v>45233</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1078,7 +1068,7 @@
         <v>45239</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1094,7 +1084,7 @@
         <v>45239</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Sr. No</t>
   </si>
@@ -162,12 +162,6 @@
   </si>
   <si>
     <t>68/23-24</t>
-  </si>
-  <si>
-    <t>PNJ/NOV23/90</t>
-  </si>
-  <si>
-    <t>Prithvi IT Products Pvt Ltd</t>
   </si>
   <si>
     <t>b23-24MQ304</t>
@@ -642,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -861,42 +855,21 @@
         <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>45239</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>45274</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="9">
-        <v>21384</v>
+        <v>60441</v>
       </c>
       <c r="F17" s="25">
         <f>E17</f>
-        <v>21384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3">
-        <v>45274</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="9">
         <v>60441</v>
       </c>
-      <c r="F19" s="25">
-        <f>E19</f>
-        <v>60441</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>48</v>
+      <c r="G17" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -909,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1041,7 @@
         <v>45239</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1084,7 +1057,7 @@
         <v>45239</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Sr. No</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>Chq no 089933</t>
+  </si>
+  <si>
+    <t>Bale &amp; Sons</t>
+  </si>
+  <si>
+    <t>VM/10538/23-24</t>
+  </si>
+  <si>
+    <t>V M Traders</t>
   </si>
 </sst>
 </file>
@@ -636,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -855,21 +864,65 @@
         <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>45274</v>
-      </c>
-      <c r="C17" s="9"/>
+        <v>45240</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="D17" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E17" s="9">
-        <v>60441</v>
+        <v>39412</v>
       </c>
       <c r="F17" s="25">
         <f>E17</f>
+        <v>39412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45274</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1164</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="9">
         <v>60441</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="F19" s="25">
+        <f>E19</f>
+        <v>60441</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45244</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3054</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="9">
+        <v>25620</v>
+      </c>
+      <c r="F21" s="25">
+        <f>E21</f>
+        <v>25620</v>
       </c>
     </row>
   </sheetData>
@@ -882,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Sr. No</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Shree Laxmi Lighting Hub</t>
   </si>
   <si>
-    <t>PAN9562/23-24</t>
-  </si>
-  <si>
-    <t>Microciti</t>
-  </si>
-  <si>
     <t>I-C-1-23-453322</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
   </si>
   <si>
     <t>Chq no 089933</t>
-  </si>
-  <si>
-    <t>Bale &amp; Sons</t>
   </si>
   <si>
     <t>VM/10538/23-24</t>
@@ -645,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -693,7 +684,7 @@
         <v>45230</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>27</v>
@@ -709,7 +700,7 @@
         <v>45232</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>27</v>
@@ -725,7 +716,7 @@
         <v>45237</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>27</v>
@@ -746,7 +737,7 @@
         <v>45224</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>26</v>
@@ -762,7 +753,7 @@
         <v>45226</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>26</v>
@@ -796,46 +787,46 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
-        <v>45216</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1145</v>
+      <c r="B11" s="24">
+        <v>45233</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="23">
+        <v>4130</v>
       </c>
       <c r="F11" s="25">
         <f>E11</f>
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="24">
-        <v>45233</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="23">
-        <v>4130</v>
+      <c r="B13" s="3">
+        <v>45234</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9">
+        <v>14313</v>
       </c>
       <c r="F13" s="25">
         <f>E13</f>
-        <v>4130</v>
+        <v>14313</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,20 +834,20 @@
         <v>6</v>
       </c>
       <c r="B15" s="3">
-        <v>45234</v>
+        <v>45240</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E15" s="9">
-        <v>14313</v>
+        <v>39412</v>
       </c>
       <c r="F15" s="25">
         <f>E15</f>
-        <v>14313</v>
+        <v>39412</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -864,65 +855,23 @@
         <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>45240</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>48</v>
+        <v>45274</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1164</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17" s="9">
-        <v>39412</v>
+        <v>60441</v>
       </c>
       <c r="F17" s="25">
         <f>E17</f>
-        <v>39412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3">
-        <v>45274</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1164</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="9">
         <v>60441</v>
       </c>
-      <c r="F19" s="25">
-        <f>E19</f>
-        <v>60441</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>9</v>
-      </c>
-      <c r="B21" s="3">
-        <v>45244</v>
-      </c>
-      <c r="C21" s="9">
-        <v>3054</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="9">
-        <v>25620</v>
-      </c>
-      <c r="F21" s="25">
-        <f>E21</f>
-        <v>25620</v>
+      <c r="G17" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1011,7 @@
         <v>45233</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1078,7 +1027,7 @@
         <v>45233</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1094,7 +1043,7 @@
         <v>45239</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1110,7 +1059,7 @@
         <v>45239</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -885,7 +885,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E34"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Sr. No</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>V M Traders</t>
+  </si>
+  <si>
+    <t>b23-24AQ307</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -354,6 +357,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -882,10 +894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -901,7 +913,7 @@
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -937,7 +949,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -947,7 +959,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -955,7 +967,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -973,7 +985,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
@@ -989,7 +1001,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
@@ -1005,7 +1017,7 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
         <v>45233</v>
@@ -1021,7 +1033,7 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="21">
         <v>45233</v>
@@ -1037,7 +1049,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="21">
         <v>45239</v>
@@ -1053,7 +1065,7 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="21">
         <v>45239</v>
@@ -1067,219 +1079,243 @@
       <c r="E11" s="22">
         <v>134289</v>
       </c>
-      <c r="F11" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11</f>
-        <v>968369.24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="21">
+        <v>45251</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="22">
+        <v>106200</v>
+      </c>
+      <c r="F12" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11+E12</f>
+        <v>1074569.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B15" s="14">
         <v>44841</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E15" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F13" s="12">
-        <f>E13-50000</f>
+      <c r="F15" s="12">
+        <f>E15-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>4</v>
-      </c>
-      <c r="B15" s="14">
-        <v>44861</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2689515</v>
-      </c>
-      <c r="F15" s="12">
-        <f>E15-2512515</f>
-        <v>177000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
-      <c r="J16" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="14">
-        <v>44902</v>
+        <v>44861</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="15">
-        <v>2021558.3</v>
+        <v>2689515</v>
       </c>
       <c r="F17" s="12">
-        <f>E17-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <f>E17-2512515</f>
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
       <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
+        <v>5</v>
+      </c>
+      <c r="B19" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F19" s="12">
+        <f>E19-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E21" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F19" s="26">
-        <f>E19-1364617</f>
+      <c r="F21" s="26">
+        <f>E21-1364617</f>
         <v>782381.20000000019</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15">
         <v>2202021.6</v>
       </c>
-      <c r="F20" s="12">
-        <f>E20-1364617</f>
+      <c r="F22" s="12">
+        <f>E22-1364617</f>
         <v>837404.60000000009</v>
       </c>
-      <c r="G20" s="29">
-        <f>F20-F19</f>
+      <c r="G22" s="29">
+        <f>F22-F21</f>
         <v>55023.399999999907</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>1</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B25" s="7">
         <v>44573</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F23" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F24" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
       <c r="E25" s="6">
         <v>20000</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <f>F24+F23-E23-E24-E25</f>
+      <c r="F25" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F26" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <f>F26+F25-E25-E26-E27</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Sr. No</t>
   </si>
@@ -648,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -886,6 +886,27 @@
         <v>44</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45252</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="9">
+        <v>11500</v>
+      </c>
+      <c r="F19" s="25">
+        <f>E19</f>
+        <v>11500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -896,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Sr. No</t>
   </si>
@@ -140,12 +140,6 @@
     <t>Ingram Micro India Private Limited</t>
   </si>
   <si>
-    <t>b23-24AQ302</t>
-  </si>
-  <si>
-    <t>b23-24MQ303</t>
-  </si>
-  <si>
     <t>66/23-24</t>
   </si>
   <si>
@@ -158,12 +152,6 @@
     <t>68/23-24</t>
   </si>
   <si>
-    <t>b23-24MQ304</t>
-  </si>
-  <si>
-    <t>b23-24AQ305</t>
-  </si>
-  <si>
     <t>Sanyo and Sanyo</t>
   </si>
   <si>
@@ -177,6 +165,15 @@
   </si>
   <si>
     <t>b23-24AQ307</t>
+  </si>
+  <si>
+    <t>PAN11425/23-24</t>
+  </si>
+  <si>
+    <t>Microciti</t>
+  </si>
+  <si>
+    <t>71/23-24</t>
   </si>
 </sst>
 </file>
@@ -648,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -712,7 +709,7 @@
         <v>45232</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>27</v>
@@ -728,7 +725,7 @@
         <v>45237</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>27</v>
@@ -736,175 +733,212 @@
       <c r="E4" s="23">
         <v>128349</v>
       </c>
-      <c r="F4" s="25">
-        <f>E2+E3+E4</f>
-        <v>262014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="24">
+        <v>45251</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="23">
+        <v>26491</v>
+      </c>
+      <c r="F5" s="25">
+        <f>E2+E3+E4+E5</f>
+        <v>288505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B7" s="24">
         <v>45224</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="23">
-        <v>52510</v>
-      </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="24">
-        <v>45226</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="23">
+        <v>52510</v>
+      </c>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="24">
+        <v>45226</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="23">
         <v>25960</v>
       </c>
-      <c r="F7" s="25">
-        <f>E6+E7</f>
+      <c r="F8" s="25">
+        <f>E7+E8</f>
         <v>78470</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>45187</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>1432</v>
       </c>
-      <c r="F9" s="25">
-        <f>E9</f>
+      <c r="F10" s="25">
+        <f>E10</f>
         <v>1432</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B12" s="24">
         <v>45233</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E12" s="23">
         <v>4130</v>
       </c>
-      <c r="F11" s="25">
-        <f>E11</f>
+      <c r="F12" s="25">
+        <f>E12</f>
         <v>4130</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>45234</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="9">
+        <v>14313</v>
+      </c>
+      <c r="F14" s="25">
+        <f>E14</f>
+        <v>14313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45240</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="9">
+        <v>39412</v>
+      </c>
+      <c r="F16" s="25">
+        <f>E16</f>
+        <v>39412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45274</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1164</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="9">
-        <v>14313</v>
-      </c>
-      <c r="F13" s="25">
-        <f>E13</f>
-        <v>14313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45240</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="E18" s="9">
+        <v>60441</v>
+      </c>
+      <c r="F18" s="25">
+        <f>E18</f>
+        <v>60441</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45252</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="9">
+        <v>11500</v>
+      </c>
+      <c r="F20" s="25">
+        <f>E20</f>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45254</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="9">
-        <v>39412</v>
-      </c>
-      <c r="F15" s="25">
-        <f>E15</f>
-        <v>39412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3">
-        <v>45274</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1164</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="9">
-        <v>60441</v>
-      </c>
-      <c r="F17" s="25">
-        <f>E17</f>
-        <v>60441</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3">
-        <v>45252</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1200</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="9">
-        <v>11500</v>
-      </c>
-      <c r="F19" s="25">
-        <f>E19</f>
-        <v>11500</v>
+      <c r="E22" s="9">
+        <v>342</v>
+      </c>
+      <c r="F22" s="25">
+        <f>E22</f>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -915,10 +949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -934,7 +968,7 @@
     <col min="9" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -970,7 +1004,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -980,7 +1014,7 @@
         <v>123498</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -988,7 +1022,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1006,7 +1040,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="21">
         <v>44989</v>
@@ -1022,7 +1056,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="21">
         <v>44998</v>
@@ -1038,119 +1072,116 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
-        <v>45233</v>
+        <v>45251</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="22">
-        <v>112076</v>
-      </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="21">
-        <v>45233</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="22">
-        <v>338370.9</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="21">
-        <v>45239</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="22">
-        <v>304575.7</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="21">
-        <v>45239</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="22">
-        <v>134289</v>
-      </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="21">
-        <v>45251</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="22">
         <v>106200</v>
       </c>
-      <c r="F12" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11+E12</f>
-        <v>1074569.24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="20">
+        <f>E5+E6+E7+E8</f>
+        <v>185257.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14">
+        <v>44841</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="15">
+        <v>64917.7</v>
+      </c>
+      <c r="F11" s="12">
+        <f>E11-50000</f>
+        <v>14917.699999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14">
+        <v>44861</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2689515</v>
+      </c>
+      <c r="F13" s="12">
+        <f>E13-2512515</f>
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="J14" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" s="14">
-        <v>44841</v>
+        <v>44902</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15" s="15">
-        <v>64917.7</v>
+        <v>2021558.3</v>
       </c>
       <c r="F15" s="12">
-        <f>E15-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <f>E15-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
@@ -1158,185 +1189,124 @@
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
+        <v>6</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F17" s="26">
+        <f>E17-1364617</f>
+        <v>782381.20000000019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15">
+        <v>2202021.6</v>
+      </c>
+      <c r="F18" s="12">
+        <f>E18-1364617</f>
+        <v>837404.60000000009</v>
+      </c>
+      <c r="G18" s="29">
+        <f>F18-F17</f>
+        <v>55023.399999999907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="14">
-        <v>44861</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2689515</v>
-      </c>
-      <c r="F17" s="12">
-        <f>E17-2512515</f>
-        <v>177000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="J18" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2021558.3</v>
-      </c>
-      <c r="F19" s="12">
-        <f>E19-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>6</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F21" s="26">
-        <f>E21-1364617</f>
-        <v>782381.20000000019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15">
-        <v>2202021.6</v>
-      </c>
-      <c r="F22" s="12">
-        <f>E22-1364617</f>
-        <v>837404.60000000009</v>
-      </c>
-      <c r="G22" s="29">
-        <f>F22-F21</f>
-        <v>55023.399999999907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="B22" s="7">
         <v>44573</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E22" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
         <v>20000</v>
       </c>
-      <c r="F25" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F26" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <f>F26+F25-E25-E26-E27</f>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <f>F22+F21-E21-E22-E23</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Sr. No</t>
   </si>
@@ -131,16 +131,10 @@
     <t>I-C-1-23-453414</t>
   </si>
   <si>
-    <t>64/23-24</t>
-  </si>
-  <si>
     <t>46ID23A0987483</t>
   </si>
   <si>
     <t>Ingram Micro India Private Limited</t>
-  </si>
-  <si>
-    <t>66/23-24</t>
   </si>
   <si>
     <t>INV/23-24/1281</t>
@@ -645,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -665,7 +659,7 @@
     <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -685,259 +679,232 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="24">
-        <v>45230</v>
+        <v>45237</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="23">
-        <v>82748</v>
+        <v>128349</v>
       </c>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="24">
-        <v>45232</v>
+        <v>45251</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="23">
-        <v>50917</v>
-      </c>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="24">
-        <v>45237</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="23">
-        <v>128349</v>
-      </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+        <v>26491</v>
+      </c>
+      <c r="F3" s="25">
+        <f>E2+E3</f>
+        <v>154840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
       <c r="B5" s="24">
-        <v>45251</v>
+        <v>45224</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="23">
-        <v>26491</v>
-      </c>
-      <c r="F5" s="25">
-        <f>E2+E3+E4+E5</f>
-        <v>288505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="24">
-        <v>45224</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="23" t="s">
+        <v>52510</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="24">
+        <v>45226</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="23">
-        <v>52510</v>
-      </c>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="24">
-        <v>45226</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="E6" s="23">
         <v>25960</v>
       </c>
+      <c r="F6" s="25">
+        <f>E5+E6</f>
+        <v>78470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1432</v>
+      </c>
       <c r="F8" s="25">
-        <f>E7+E8</f>
-        <v>78470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <f>E8</f>
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3">
-        <v>45187</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1432</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="24">
+        <v>45233</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="23">
+        <v>4130</v>
       </c>
       <c r="F10" s="25">
         <f>E10</f>
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <v>4</v>
-      </c>
-      <c r="B12" s="24">
-        <v>45233</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45234</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="23">
-        <v>4130</v>
+      <c r="D12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="9">
+        <v>14313</v>
       </c>
       <c r="F12" s="25">
         <f>E12</f>
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3">
-        <v>45234</v>
+        <v>45240</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14" s="9">
-        <v>14313</v>
+        <v>39412</v>
       </c>
       <c r="F14" s="25">
         <f>E14</f>
-        <v>14313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3">
-        <v>45240</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>41</v>
+        <v>45274</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1164</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E16" s="9">
-        <v>39412</v>
+        <v>60441</v>
       </c>
       <c r="F16" s="25">
         <f>E16</f>
-        <v>39412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60441</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3">
-        <v>45274</v>
+        <v>45252</v>
       </c>
       <c r="C18" s="9">
-        <v>1164</v>
+        <v>1200</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="9">
-        <v>60441</v>
+        <v>11500</v>
       </c>
       <c r="F18" s="25">
         <f>E18</f>
-        <v>60441</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" s="3">
-        <v>45252</v>
-      </c>
-      <c r="C20" s="9">
-        <v>1200</v>
+        <v>45254</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E20" s="9">
-        <v>11500</v>
+        <v>342</v>
       </c>
       <c r="F20" s="25">
         <f>E20</f>
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>9</v>
-      </c>
-      <c r="B22" s="3">
-        <v>45254</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="9">
-        <v>342</v>
-      </c>
-      <c r="F22" s="25">
-        <f>E22</f>
         <v>342</v>
       </c>
     </row>
@@ -1078,7 +1045,7 @@
         <v>45251</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -916,10 +916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B5" sqref="B5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1277,6 +1277,12 @@
         <v>32004.100000000006</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="10">
+        <f>3050*1.18</f>
+        <v>3599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Sr. No</t>
   </si>
@@ -137,12 +137,6 @@
     <t>Ingram Micro India Private Limited</t>
   </si>
   <si>
-    <t>INV/23-24/1281</t>
-  </si>
-  <si>
-    <t>Cassun Electricals</t>
-  </si>
-  <si>
     <t>68/23-24</t>
   </si>
   <si>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>71/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ311</t>
+  </si>
+  <si>
+    <t>b23-24AQ312</t>
   </si>
 </sst>
 </file>
@@ -639,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -687,7 +687,7 @@
         <v>45237</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>27</v>
@@ -703,7 +703,7 @@
         <v>45251</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>27</v>
@@ -805,20 +805,20 @@
         <v>5</v>
       </c>
       <c r="B12" s="3">
-        <v>45234</v>
+        <v>45240</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" s="9">
-        <v>14313</v>
+        <v>39412</v>
       </c>
       <c r="F12" s="25">
         <f>E12</f>
-        <v>14313</v>
+        <v>39412</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -826,44 +826,44 @@
         <v>6</v>
       </c>
       <c r="B14" s="3">
-        <v>45240</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>45274</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1164</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14" s="9">
-        <v>39412</v>
+        <v>60441</v>
       </c>
       <c r="F14" s="25">
         <f>E14</f>
-        <v>39412</v>
+        <v>60441</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3">
-        <v>45274</v>
+        <v>45252</v>
       </c>
       <c r="C16" s="9">
-        <v>1164</v>
+        <v>1200</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="9">
-        <v>60441</v>
+        <v>11500</v>
       </c>
       <c r="F16" s="25">
         <f>E16</f>
-        <v>60441</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>38</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,40 +871,19 @@
         <v>8</v>
       </c>
       <c r="B18" s="3">
-        <v>45252</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1200</v>
+        <v>45254</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E18" s="9">
-        <v>11500</v>
+        <v>342</v>
       </c>
       <c r="F18" s="25">
         <f>E18</f>
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>9</v>
-      </c>
-      <c r="B20" s="3">
-        <v>45254</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="9">
-        <v>342</v>
-      </c>
-      <c r="F20" s="25">
-        <f>E20</f>
         <v>342</v>
       </c>
     </row>
@@ -916,10 +895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F8"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1045,7 +1024,7 @@
         <v>45251</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1053,67 +1032,70 @@
       <c r="E8" s="22">
         <v>106200</v>
       </c>
-      <c r="F8" s="20">
-        <f>E5+E6+E7+E8</f>
-        <v>185257.64</v>
-      </c>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="21">
+        <v>45258</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="22">
+        <v>66245</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="21">
+        <v>45258</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="22">
+        <v>83473</v>
+      </c>
+      <c r="F10" s="20">
+        <f>E5+E6+E7+E8+E9+E10</f>
+        <v>334975.64</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>3</v>
-      </c>
-      <c r="B11" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F11" s="12">
-        <f>E11-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="14">
-        <v>44861</v>
+        <v>44841</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" s="15">
-        <v>2689515</v>
+        <v>64917.7</v>
       </c>
       <c r="F13" s="12">
-        <f>E13-2512515</f>
-        <v>177000</v>
+        <f>E13-50000</f>
+        <v>14917.699999999997</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1123,29 +1105,26 @@
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
-      <c r="J14" s="10" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="14">
-        <v>44902</v>
+        <v>44861</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" s="15">
-        <v>2021558.3</v>
+        <v>2689515</v>
       </c>
       <c r="F15" s="12">
-        <f>E15-175496-500000-800000</f>
-        <v>546062.30000000005</v>
+        <f>E15-2512515</f>
+        <v>177000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1155,130 +1134,162 @@
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
+      <c r="J16" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F17" s="12">
+        <f>E17-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E19" s="15">
         <v>2146998.2000000002</v>
       </c>
-      <c r="F17" s="26">
-        <f>E17-1364617</f>
+      <c r="F19" s="26">
+        <f>E19-1364617</f>
         <v>782381.20000000019</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15">
         <v>2202021.6</v>
       </c>
-      <c r="F18" s="12">
-        <f>E18-1364617</f>
+      <c r="F20" s="12">
+        <f>E20-1364617</f>
         <v>837404.60000000009</v>
       </c>
-      <c r="G18" s="29">
-        <f>F18-F17</f>
+      <c r="G20" s="29">
+        <f>F20-F19</f>
         <v>55023.399999999907</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>1</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B23" s="7">
         <v>44573</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F21" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
       <c r="E23" s="6">
         <v>20000</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6">
-        <f>F22+F21-E21-E22-E23</f>
+      <c r="F23" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <f>F24+F23-E23-E24-E25</f>
         <v>32004.100000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="10">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="10">
         <f>3050*1.18</f>
         <v>3599</v>
       </c>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Sr. No</t>
   </si>
@@ -113,9 +113,6 @@
     <t>b22-23MQ428</t>
   </si>
   <si>
-    <t>Collective Trade Links Pvt Ltd</t>
-  </si>
-  <si>
     <t>Namrata Rubber Product Pvt Ltd</t>
   </si>
   <si>
@@ -125,21 +122,12 @@
     <t>Shree Laxmi Lighting Hub</t>
   </si>
   <si>
-    <t>I-C-1-23-453322</t>
-  </si>
-  <si>
-    <t>I-C-1-23-453414</t>
-  </si>
-  <si>
     <t>46ID23A0987483</t>
   </si>
   <si>
     <t>Ingram Micro India Private Limited</t>
   </si>
   <si>
-    <t>68/23-24</t>
-  </si>
-  <si>
     <t>Sanyo and Sanyo</t>
   </si>
   <si>
@@ -168,6 +156,9 @@
   </si>
   <si>
     <t>b23-24AQ312</t>
+  </si>
+  <si>
+    <t>Asha Enterprises</t>
   </si>
 </sst>
 </file>
@@ -639,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -684,165 +675,154 @@
         <v>1</v>
       </c>
       <c r="B2" s="24">
-        <v>45237</v>
+        <v>45251</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="23">
+        <v>26491</v>
+      </c>
+      <c r="F2" s="25">
+        <f>E2</f>
+        <v>26491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="23">
-        <v>128349</v>
-      </c>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="24">
-        <v>45251</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="23">
-        <v>26491</v>
-      </c>
-      <c r="F3" s="25">
-        <f>E2+E3</f>
-        <v>154840</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24">
-        <v>45224</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1432</v>
+      </c>
+      <c r="F4" s="25">
+        <f>E4</f>
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24">
+        <v>45233</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="23">
-        <v>52510</v>
-      </c>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="24">
-        <v>45226</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="23">
-        <v>25960</v>
+        <v>4130</v>
       </c>
       <c r="F6" s="25">
-        <f>E5+E6</f>
-        <v>78470</v>
+        <f>E6</f>
+        <v>4130</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>45187</v>
+        <v>45240</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E8" s="9">
-        <v>1432</v>
+        <v>39412</v>
       </c>
       <c r="F8" s="25">
         <f>E8</f>
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>39412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <v>4</v>
-      </c>
-      <c r="B10" s="24">
-        <v>45233</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="23">
-        <v>4130</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45274</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1164</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9">
+        <v>60441</v>
       </c>
       <c r="F10" s="25">
         <f>E10</f>
-        <v>4130</v>
+        <v>60441</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>45240</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>37</v>
+        <v>45252</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1200</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E12" s="9">
-        <v>39412</v>
+        <v>11500</v>
       </c>
       <c r="F12" s="25">
         <f>E12</f>
-        <v>39412</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3">
-        <v>45274</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1164</v>
+        <v>45254</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="9">
-        <v>60441</v>
+        <v>342</v>
       </c>
       <c r="F14" s="25">
         <f>E14</f>
-        <v>60441</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>36</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -850,41 +830,36 @@
         <v>8</v>
       </c>
       <c r="B16" s="3">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="C16" s="9">
-        <v>1200</v>
+        <v>2067</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E16" s="9">
-        <v>11500</v>
-      </c>
-      <c r="F16" s="25">
-        <f>E16</f>
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3">
-        <v>45254</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="9" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3">
+        <v>45262</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2074</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="9">
-        <v>342</v>
-      </c>
-      <c r="F18" s="25">
-        <f>E18</f>
-        <v>342</v>
+      <c r="E17" s="9">
+        <v>496</v>
+      </c>
+      <c r="F17" s="25">
+        <f>E16+E17</f>
+        <v>3057</v>
       </c>
     </row>
   </sheetData>
@@ -895,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1024,7 +999,7 @@
         <v>45251</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1040,7 +1015,7 @@
         <v>45258</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1056,7 +1031,7 @@
         <v>45258</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1288,12 +1263,6 @@
         <v>32004.100000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="10">
-        <f>3050*1.18</f>
-        <v>3599</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Sr. No</t>
   </si>
@@ -140,9 +140,6 @@
     <t>V M Traders</t>
   </si>
   <si>
-    <t>b23-24AQ307</t>
-  </si>
-  <si>
     <t>PAN11425/23-24</t>
   </si>
   <si>
@@ -150,12 +147,6 @@
   </si>
   <si>
     <t>71/23-24</t>
-  </si>
-  <si>
-    <t>b23-24MQ311</t>
-  </si>
-  <si>
-    <t>b23-24AQ312</t>
   </si>
   <si>
     <t>Asha Enterprises</t>
@@ -632,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -678,7 +669,7 @@
         <v>45251</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>26</v>
@@ -812,10 +803,10 @@
         <v>45254</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="E14" s="9">
         <v>342</v>
@@ -836,7 +827,7 @@
         <v>2067</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="9">
         <v>2561</v>
@@ -852,7 +843,7 @@
         <v>2074</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="9">
         <v>496</v>
@@ -870,10 +861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -991,147 +982,141 @@
       <c r="E7" s="22">
         <v>15389.56</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="20">
+        <f>E5+E6+E7</f>
+        <v>79057.64</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="21">
-        <v>45251</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="22">
-        <v>106200</v>
-      </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="21">
-        <v>45258</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="22">
-        <v>66245</v>
-      </c>
-      <c r="F9" s="20"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="21">
-        <v>45258</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="22">
-        <v>83473</v>
-      </c>
-      <c r="F10" s="20">
-        <f>E5+E6+E7+E8+E9+E10</f>
-        <v>334975.64</v>
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14">
+        <v>44841</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="15">
+        <v>64917.7</v>
+      </c>
+      <c r="F10" s="12">
+        <f>E10-50000</f>
+        <v>14917.699999999997</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="14">
+        <v>44861</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2689515</v>
+      </c>
+      <c r="F12" s="12">
+        <f>E12-2512515</f>
+        <v>177000</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>3</v>
-      </c>
-      <c r="B13" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F13" s="12">
-        <f>E13-50000</f>
-        <v>14917.699999999997</v>
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="J13" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F14" s="12">
+        <f>E14-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>4</v>
-      </c>
-      <c r="B15" s="14">
-        <v>44861</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2689515</v>
-      </c>
-      <c r="F15" s="12">
-        <f>E15-2512515</f>
-        <v>177000</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="J16" s="10" t="s">
-        <v>22</v>
+      <c r="A16" s="6">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F16" s="26">
+        <f>E16-1364617</f>
+        <v>782381.20000000019</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>5</v>
-      </c>
-      <c r="B17" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="15">
-        <v>2021558.3</v>
+        <v>2202021.6</v>
       </c>
       <c r="F17" s="12">
-        <f>E17-175496-500000-800000</f>
-        <v>546062.30000000005</v>
+        <f>E17-1364617</f>
+        <v>837404.60000000009</v>
+      </c>
+      <c r="G17" s="29">
+        <f>F17-F16</f>
+        <v>55023.399999999907</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1139,127 +1124,85 @@
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F19" s="26">
-        <f>E19-1364617</f>
-        <v>782381.20000000019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15">
-        <v>2202021.6</v>
-      </c>
-      <c r="F20" s="12">
-        <f>E20-1364617</f>
-        <v>837404.60000000009</v>
-      </c>
-      <c r="G20" s="29">
-        <f>F20-F19</f>
-        <v>55023.399999999907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="G19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
         <v>20000</v>
       </c>
-      <c r="F23" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F24" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <f>F24+F23-E23-E24-E25</f>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <f>F21+F20-E20-E21-E22</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Sr. No</t>
   </si>
@@ -150,6 +150,27 @@
   </si>
   <si>
     <t>Asha Enterprises</t>
+  </si>
+  <si>
+    <t>A K Traders</t>
+  </si>
+  <si>
+    <t>Print Hose</t>
+  </si>
+  <si>
+    <t>Chq no 089934</t>
+  </si>
+  <si>
+    <t>2023-24/9851</t>
+  </si>
+  <si>
+    <t>b23-24MQ310</t>
+  </si>
+  <si>
+    <t>Marcfremiot</t>
+  </si>
+  <si>
+    <t>b23-24MQ315</t>
   </si>
 </sst>
 </file>
@@ -160,7 +181,7 @@
     <numFmt numFmtId="164" formatCode="&quot;&quot;0.00"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +214,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,16 +263,14 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -323,23 +350,26 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -834,7 +864,7 @@
       </c>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3">
         <v>45262</v>
@@ -851,6 +881,51 @@
       <c r="F17" s="25">
         <f>E16+E17</f>
         <v>3057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45265</v>
+      </c>
+      <c r="C19" s="9">
+        <v>4279</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="9">
+        <v>5328</v>
+      </c>
+      <c r="F19" s="25">
+        <f>E19</f>
+        <v>5328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24">
+        <v>45271</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="23">
+        <v>4690</v>
+      </c>
+      <c r="F21" s="31">
+        <f>E21</f>
+        <v>4690</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -861,10 +936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -982,18 +1057,34 @@
       <c r="E7" s="22">
         <v>15389.56</v>
       </c>
-      <c r="F7" s="20">
-        <f>E5+E6+E7</f>
-        <v>79057.64</v>
-      </c>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="21">
+        <v>45271</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="22">
+        <v>170274</v>
+      </c>
+      <c r="F8" s="20">
+        <f>E5+E6+E7+E8</f>
+        <v>249331.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1114,7 +1205,7 @@
         <f>E17-1364617</f>
         <v>837404.60000000009</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="27">
         <f>F17-F16</f>
         <v>55023.399999999907</v>
       </c>
@@ -1124,85 +1215,117 @@
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>7</v>
+      </c>
+      <c r="B19" s="14">
+        <v>45257</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="15">
+        <v>42000</v>
+      </c>
+      <c r="F19" s="12">
+        <f>E19</f>
+        <v>42000</v>
+      </c>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>1</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B22" s="7">
         <v>44573</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F20" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F21" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
       <c r="E22" s="6">
         <v>20000</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
-        <f>F21+F20-E20-E21-E22</f>
+      <c r="F22" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F23" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <f>F23+F22-E22-E23-E24</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Sr. No</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Sanyo and Sanyo</t>
-  </si>
-  <si>
-    <t>Chq no 089933</t>
   </si>
   <si>
     <t>VM/10538/23-24</t>
@@ -651,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -671,7 +668,7 @@
     <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -691,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -699,7 +696,7 @@
         <v>45251</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>26</v>
@@ -712,12 +709,12 @@
         <v>26491</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -738,7 +735,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -759,7 +756,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -767,10 +764,10 @@
         <v>45240</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="E8" s="9">
         <v>39412</v>
@@ -780,152 +777,128 @@
         <v>39412</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>45274</v>
+        <v>45252</v>
       </c>
       <c r="C10" s="9">
-        <v>1164</v>
+        <v>1200</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="9">
-        <v>60441</v>
+        <v>11500</v>
       </c>
       <c r="F10" s="25">
         <f>E10</f>
-        <v>60441</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>45252</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1200</v>
+        <v>45254</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E12" s="9">
-        <v>11500</v>
+        <v>342</v>
       </c>
       <c r="F12" s="25">
         <f>E12</f>
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>7</v>
       </c>
       <c r="B14" s="3">
         <v>45254</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>35</v>
+      <c r="C14" s="9">
+        <v>2067</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="9">
-        <v>342</v>
-      </c>
-      <c r="F14" s="25">
-        <f>E14</f>
-        <v>342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+        <v>2561</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3">
+        <v>45262</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2074</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9">
+        <v>496</v>
+      </c>
+      <c r="F15" s="25">
+        <f>E14+E15</f>
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>8</v>
       </c>
-      <c r="B16" s="3">
-        <v>45254</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2067</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2561</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
       <c r="B17" s="3">
-        <v>45262</v>
+        <v>45265</v>
       </c>
       <c r="C17" s="9">
-        <v>2074</v>
+        <v>4279</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="9">
-        <v>496</v>
+        <v>5328</v>
       </c>
       <c r="F17" s="25">
-        <f>E16+E17</f>
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <f>E17</f>
+        <v>5328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
-        <v>45265</v>
-      </c>
-      <c r="C19" s="9">
-        <v>4279</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="24">
+        <v>45271</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="9">
-        <v>5328</v>
-      </c>
-      <c r="F19" s="25">
+      <c r="E19" s="23">
+        <v>4690</v>
+      </c>
+      <c r="F19" s="31">
         <f>E19</f>
-        <v>5328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>10</v>
-      </c>
-      <c r="B21" s="24">
-        <v>45271</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="23" t="s">
+        <v>4690</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="E21" s="23">
-        <v>4690</v>
-      </c>
-      <c r="F21" s="31">
-        <f>E21</f>
-        <v>4690</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +912,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1038,7 @@
         <v>45271</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1227,10 +1200,10 @@
         <v>45257</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="E19" s="15">
         <v>42000</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Sr. No</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Ingram Micro India Private Limited</t>
   </si>
   <si>
-    <t>Sanyo and Sanyo</t>
-  </si>
-  <si>
     <t>VM/10538/23-24</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
   </si>
   <si>
     <t>71/23-24</t>
-  </si>
-  <si>
-    <t>Asha Enterprises</t>
   </si>
   <si>
     <t>A K Traders</t>
@@ -648,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -668,7 +662,7 @@
     <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -688,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -696,7 +690,7 @@
         <v>45251</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>26</v>
@@ -709,12 +703,12 @@
         <v>26491</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -735,7 +729,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -756,7 +750,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -764,10 +758,10 @@
         <v>45240</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="9">
         <v>39412</v>
@@ -777,128 +771,70 @@
         <v>39412</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>45252</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1200</v>
+        <v>45254</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10" s="9">
-        <v>11500</v>
+        <v>342</v>
       </c>
       <c r="F10" s="25">
         <f>E10</f>
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>45254</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>45265</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4279</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="9">
-        <v>342</v>
+        <v>5328</v>
       </c>
       <c r="F12" s="25">
         <f>E12</f>
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>7</v>
       </c>
-      <c r="B14" s="3">
-        <v>45254</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2067</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="24">
+        <v>45271</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="9">
-        <v>2561</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3">
-        <v>45262</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2074</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="9">
-        <v>496</v>
-      </c>
-      <c r="F15" s="25">
-        <f>E14+E15</f>
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3">
-        <v>45265</v>
-      </c>
-      <c r="C17" s="9">
-        <v>4279</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="E14" s="23">
+        <v>4690</v>
+      </c>
+      <c r="F14" s="31">
+        <f>E14</f>
+        <v>4690</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="E17" s="9">
-        <v>5328</v>
-      </c>
-      <c r="F17" s="25">
-        <f>E17</f>
-        <v>5328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>9</v>
-      </c>
-      <c r="B19" s="24">
-        <v>45271</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="23">
-        <v>4690</v>
-      </c>
-      <c r="F19" s="31">
-        <f>E19</f>
-        <v>4690</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -911,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1038,7 +974,7 @@
         <v>45271</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1200,10 +1136,10 @@
         <v>45257</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="15">
         <v>42000</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Sr. No</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Microciti</t>
   </si>
   <si>
-    <t>71/23-24</t>
-  </si>
-  <si>
     <t>A K Traders</t>
   </si>
   <si>
@@ -162,6 +159,21 @@
   </si>
   <si>
     <t>b23-24MQ315</t>
+  </si>
+  <si>
+    <t>I-C-1-23-454055</t>
+  </si>
+  <si>
+    <t>Collective Trade Links Pvt Ltd</t>
+  </si>
+  <si>
+    <t>83/23-24</t>
+  </si>
+  <si>
+    <t>PNJ/23-24/3182</t>
+  </si>
+  <si>
+    <t>Hatley Technologies</t>
   </si>
 </sst>
 </file>
@@ -261,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -361,6 +373,15 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -687,26 +708,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="24">
-        <v>45251</v>
+        <v>45283</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="23">
-        <v>26491</v>
+        <v>52982</v>
       </c>
       <c r="F2" s="25">
         <f>E2</f>
-        <v>26491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>52982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
@@ -803,7 +827,7 @@
         <v>4279</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="9">
         <v>5328</v>
@@ -821,10 +845,10 @@
         <v>45271</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="23">
         <v>4690</v>
@@ -834,7 +858,49 @@
         <v>4690</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>8</v>
+      </c>
+      <c r="B16" s="24">
+        <v>45276</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="23">
+        <v>131275</v>
+      </c>
+      <c r="F16" s="25">
+        <f>E16</f>
+        <v>131275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>9</v>
+      </c>
+      <c r="B18" s="24">
+        <v>45287</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="23">
+        <v>23364</v>
+      </c>
+      <c r="F18" s="25">
+        <f>E18</f>
+        <v>23364</v>
       </c>
     </row>
   </sheetData>
@@ -847,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -974,7 +1040,7 @@
         <v>45271</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1136,17 +1202,17 @@
         <v>45257</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="E19" s="15">
         <v>42000</v>
       </c>
       <c r="F19" s="12">
-        <f>E19</f>
-        <v>42000</v>
+        <f>E19-20000</f>
+        <v>22000</v>
       </c>
       <c r="G19" s="27"/>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Sr. No</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Hatley Technologies</t>
+  </si>
+  <si>
+    <t>Anil Steel &amp; Co.</t>
   </si>
 </sst>
 </file>
@@ -663,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -887,19 +890,40 @@
         <v>9</v>
       </c>
       <c r="B18" s="24">
-        <v>45287</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>45</v>
+        <v>45282</v>
+      </c>
+      <c r="C18" s="23">
+        <v>3262</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="23">
-        <v>23364</v>
+        <v>5629</v>
       </c>
       <c r="F18" s="25">
         <f>E18</f>
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="24">
+        <v>45287</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="23">
+        <v>23364</v>
+      </c>
+      <c r="F20" s="25">
+        <f>E20</f>
         <v>23364</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>Sr. No</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>Anil Steel &amp; Co.</t>
+  </si>
+  <si>
+    <t>PNJ/23-24/3230</t>
+  </si>
+  <si>
+    <t>SLH/3399</t>
+  </si>
+  <si>
+    <t>2023-24/10627</t>
+  </si>
+  <si>
+    <t>Print House</t>
   </si>
 </sst>
 </file>
@@ -238,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -272,11 +284,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -384,6 +409,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -666,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -751,180 +779,230 @@
       <c r="E4" s="9">
         <v>1432</v>
       </c>
-      <c r="F4" s="25">
-        <f>E4</f>
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="24">
+        <v>45292</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="23">
+        <v>320</v>
+      </c>
+      <c r="F5" s="25">
+        <f>E4+E5</f>
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B7" s="24">
         <v>45233</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E7" s="23">
         <v>4130</v>
       </c>
-      <c r="F6" s="25">
-        <f>E6</f>
+      <c r="F7" s="25">
+        <f>E7</f>
         <v>4130</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>45240</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>39412</v>
       </c>
-      <c r="F8" s="25">
-        <f>E8</f>
+      <c r="F9" s="25">
+        <f>E9</f>
         <v>39412</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>45254</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>342</v>
       </c>
-      <c r="F10" s="25">
-        <f>E10</f>
+      <c r="F11" s="25">
+        <f>E11</f>
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>45265</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C13" s="9">
         <v>4279</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>5328</v>
       </c>
-      <c r="F12" s="25">
-        <f>E12</f>
+      <c r="F13" s="25">
+        <f>E13</f>
         <v>5328</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B15" s="24">
         <v>45271</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E15" s="23">
         <v>4690</v>
       </c>
-      <c r="F14" s="31">
-        <f>E14</f>
-        <v>4690</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>8</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" s="24">
-        <v>45276</v>
+        <v>45292</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E16" s="23">
-        <v>131275</v>
-      </c>
-      <c r="F16" s="25">
-        <f>E16</f>
-        <v>131275</v>
-      </c>
+        <v>6048</v>
+      </c>
+      <c r="F16" s="31">
+        <f>E15+E16</f>
+        <v>10738</v>
+      </c>
+      <c r="G16" s="36"/>
     </row>
     <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="24">
-        <v>45282</v>
-      </c>
-      <c r="C18" s="23">
-        <v>3262</v>
+        <v>45276</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E18" s="23">
-        <v>5629</v>
+        <v>131275</v>
       </c>
       <c r="F18" s="25">
         <f>E18</f>
-        <v>5629</v>
+        <v>131275</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="24">
-        <v>45287</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>45</v>
+        <v>45282</v>
+      </c>
+      <c r="C20" s="23">
+        <v>3262</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="23">
-        <v>23364</v>
+        <v>5629</v>
       </c>
       <c r="F20" s="25">
         <f>E20</f>
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24">
+        <v>45287</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="23">
         <v>23364</v>
+      </c>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="24">
+        <v>45290</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="23">
+        <f>24019-12974</f>
+        <v>11045</v>
+      </c>
+      <c r="F23" s="25">
+        <f>E22+E23</f>
+        <v>34409</v>
       </c>
     </row>
   </sheetData>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Sr. No</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Microciti</t>
   </si>
   <si>
-    <t>A K Traders</t>
-  </si>
-  <si>
     <t>Print Hose</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Marcfremiot</t>
   </si>
   <si>
-    <t>b23-24MQ315</t>
-  </si>
-  <si>
     <t>I-C-1-23-454055</t>
   </si>
   <si>
@@ -189,6 +183,18 @@
   </si>
   <si>
     <t>Print House</t>
+  </si>
+  <si>
+    <t>SH/23-24/4819</t>
+  </si>
+  <si>
+    <t>Shruti Infotech</t>
+  </si>
+  <si>
+    <t>b23-24MQ401</t>
+  </si>
+  <si>
+    <t>Pinge</t>
   </si>
 </sst>
 </file>
@@ -694,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -714,295 +720,295 @@
     <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B3" s="24">
         <v>45283</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="23">
+        <v>52982</v>
+      </c>
+      <c r="F3" s="25">
+        <f>E3</f>
+        <v>52982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1432</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="24">
+        <v>45292</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="23">
+        <v>320</v>
+      </c>
+      <c r="F6" s="25">
+        <f>E5+E6</f>
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="24">
+        <v>45233</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="23">
+        <v>4130</v>
+      </c>
+      <c r="F8" s="25">
+        <f>E8</f>
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45240</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9">
+        <v>39412</v>
+      </c>
+      <c r="F10" s="25">
+        <f>E10</f>
+        <v>39412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45254</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9">
+        <v>342</v>
+      </c>
+      <c r="F12" s="25">
+        <f>E12</f>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>6</v>
+      </c>
+      <c r="B14" s="24">
+        <v>45271</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="23">
+        <v>4690</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="24">
+        <v>45292</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="23">
+        <v>6048</v>
+      </c>
+      <c r="F15" s="31">
+        <f>E14+E15</f>
+        <v>10738</v>
+      </c>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="24">
+        <v>45276</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="23">
+        <v>131275</v>
+      </c>
+      <c r="F17" s="25">
+        <f>E17</f>
+        <v>131275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>8</v>
+      </c>
+      <c r="B19" s="24">
+        <v>45282</v>
+      </c>
+      <c r="C19" s="23">
+        <v>3262</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="23">
+        <v>5629</v>
+      </c>
+      <c r="F19" s="25">
+        <f>E19</f>
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>9</v>
+      </c>
+      <c r="B21" s="24">
+        <v>45287</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="23">
-        <v>52982</v>
-      </c>
-      <c r="F2" s="25">
-        <f>E2</f>
-        <v>52982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45187</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1432</v>
-      </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="24">
-        <v>45292</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="23">
-        <v>320</v>
-      </c>
-      <c r="F5" s="25">
-        <f>E4+E5</f>
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="24">
-        <v>45233</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="23">
-        <v>4130</v>
-      </c>
-      <c r="F7" s="25">
-        <f>E7</f>
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45240</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="9">
-        <v>39412</v>
-      </c>
-      <c r="F9" s="25">
-        <f>E9</f>
-        <v>39412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45254</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="9">
-        <v>342</v>
-      </c>
-      <c r="F11" s="25">
-        <f>E11</f>
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45265</v>
-      </c>
-      <c r="C13" s="9">
-        <v>4279</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="9">
-        <v>5328</v>
-      </c>
-      <c r="F13" s="25">
-        <f>E13</f>
-        <v>5328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>7</v>
-      </c>
-      <c r="B15" s="24">
-        <v>45271</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="23">
-        <v>4690</v>
-      </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="24">
-        <v>45292</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="23">
-        <v>6048</v>
-      </c>
-      <c r="F16" s="31">
-        <f>E15+E16</f>
-        <v>10738</v>
-      </c>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>8</v>
-      </c>
-      <c r="B18" s="24">
-        <v>45276</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="23">
-        <v>131275</v>
-      </c>
-      <c r="F18" s="25">
-        <f>E18</f>
-        <v>131275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>9</v>
-      </c>
-      <c r="B20" s="24">
-        <v>45282</v>
-      </c>
-      <c r="C20" s="23">
-        <v>3262</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="23">
-        <v>5629</v>
-      </c>
-      <c r="F20" s="25">
-        <f>E20</f>
-        <v>5629</v>
-      </c>
+      <c r="E21" s="23">
+        <v>23364</v>
+      </c>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>10</v>
-      </c>
+      <c r="A22" s="9"/>
       <c r="B22" s="24">
-        <v>45287</v>
+        <v>45290</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="23">
-        <v>23364</v>
-      </c>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="24">
-        <v>45290</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="23">
         <f>24019-12974</f>
         <v>11045</v>
       </c>
-      <c r="F23" s="25">
-        <f>E22+E23</f>
+      <c r="F22" s="25">
+        <f>E21+E22</f>
         <v>34409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45295</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="9">
+        <v>12000</v>
+      </c>
+      <c r="F24" s="25">
+        <f>E24</f>
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
@@ -1013,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1134,275 +1140,290 @@
       <c r="E7" s="22">
         <v>15389.56</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="20">
+        <f>E5+E6+E7</f>
+        <v>79057.64</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="21">
-        <v>45271</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="22">
-        <v>170274</v>
-      </c>
-      <c r="F8" s="20">
-        <f>E5+E6+E7+E8</f>
-        <v>249331.64</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14">
+        <v>44841</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="15">
+        <v>64917.7</v>
+      </c>
+      <c r="F9" s="12">
+        <f>E9-50000</f>
+        <v>14917.699999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F10" s="12">
-        <f>E10-50000</f>
-        <v>14917.699999999997</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14">
+        <v>44861</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2689515</v>
+      </c>
+      <c r="F11" s="12">
+        <f>E11-2512515</f>
+        <v>177000</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14">
-        <v>44861</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15">
-        <v>2689515</v>
-      </c>
-      <c r="F12" s="12">
-        <f>E12-2512515</f>
-        <v>177000</v>
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="J12" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="J13" s="10" t="s">
-        <v>22</v>
+      <c r="A13" s="6">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F13" s="12">
+        <f>E13-175496-500000-800000</f>
+        <v>546062.30000000005</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>5</v>
-      </c>
-      <c r="B14" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2021558.3</v>
-      </c>
-      <c r="F14" s="12">
-        <f>E14-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F15" s="26">
+        <f>E15-1364617</f>
+        <v>782381.20000000019</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>6</v>
-      </c>
+      <c r="A16" s="6"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F16" s="26">
+        <v>2202021.6</v>
+      </c>
+      <c r="F16" s="12">
         <f>E16-1364617</f>
-        <v>782381.20000000019</v>
+        <v>837404.60000000009</v>
+      </c>
+      <c r="G16" s="27">
+        <f>F16-F15</f>
+        <v>55023.399999999907</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15">
-        <v>2202021.6</v>
-      </c>
-      <c r="F17" s="12">
-        <f>E17-1364617</f>
-        <v>837404.60000000009</v>
-      </c>
-      <c r="G17" s="27">
-        <f>F17-F16</f>
-        <v>55023.399999999907</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="6">
+        <v>7</v>
+      </c>
+      <c r="B18" s="14">
+        <v>45257</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="15">
+        <v>42000</v>
+      </c>
+      <c r="F18" s="12">
+        <f>E18-20000</f>
+        <v>22000</v>
+      </c>
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>7</v>
-      </c>
-      <c r="B19" s="14">
-        <v>45257</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="15">
-        <v>42000</v>
-      </c>
-      <c r="F19" s="12">
-        <f>E19-20000</f>
-        <v>22000</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="A20" s="6">
+        <v>8</v>
+      </c>
+      <c r="B20" s="21">
+        <v>45293</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="22">
+        <v>82234.2</v>
+      </c>
+      <c r="F20" s="12">
+        <f>E20</f>
+        <v>82234.2</v>
+      </c>
       <c r="G20" s="27"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>1</v>
       </c>
-      <c r="B22" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
       <c r="B23" s="7">
         <v>44573</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F23" s="6">
-        <v>52362.5</v>
+        <v>29641.599999999999</v>
       </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7">
         <v>44954</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
         <v>20000</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6">
-        <f>F23+F22-E22-E23-E24</f>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <f>F24+F23-E23-E24-E25</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Sr. No</t>
   </si>
@@ -170,15 +170,9 @@
     <t>Hatley Technologies</t>
   </si>
   <si>
-    <t>Anil Steel &amp; Co.</t>
-  </si>
-  <si>
     <t>PNJ/23-24/3230</t>
   </si>
   <si>
-    <t>SLH/3399</t>
-  </si>
-  <si>
     <t>2023-24/10627</t>
   </si>
   <si>
@@ -195,6 +189,30 @@
   </si>
   <si>
     <t>Pinge</t>
+  </si>
+  <si>
+    <t>88/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ403</t>
+  </si>
+  <si>
+    <t>b23-24AQ404</t>
+  </si>
+  <si>
+    <t>b23-24MQ405</t>
+  </si>
+  <si>
+    <t>b23-24MQ402</t>
+  </si>
+  <si>
+    <t>El Shaddai</t>
+  </si>
+  <si>
+    <t>b23-24MQ309</t>
+  </si>
+  <si>
+    <t>Create</t>
   </si>
 </sst>
 </file>
@@ -256,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -303,11 +321,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -419,6 +463,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -756,54 +818,54 @@
       <c r="E3" s="23">
         <v>52982</v>
       </c>
-      <c r="F3" s="25">
-        <f>E3</f>
-        <v>52982</v>
-      </c>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A4" s="9"/>
+      <c r="B4" s="24">
+        <v>45295</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="23">
+        <v>146733</v>
+      </c>
+      <c r="F4" s="25">
+        <f>E3+E4</f>
+        <v>199715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>45187</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>1432</v>
       </c>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="24">
-        <v>45292</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="23">
-        <v>320</v>
-      </c>
       <c r="F6" s="25">
-        <f>E5+E6</f>
-        <v>1752</v>
+        <f>E6</f>
+        <v>1432</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -896,10 +958,10 @@
         <v>45292</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="23">
         <v>6048</v>
@@ -936,78 +998,57 @@
         <v>8</v>
       </c>
       <c r="B19" s="24">
-        <v>45282</v>
-      </c>
-      <c r="C19" s="23">
-        <v>3262</v>
+        <v>45287</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="23">
+        <v>23364</v>
+      </c>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="24">
+        <v>45290</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="23">
-        <v>5629</v>
-      </c>
-      <c r="F19" s="25">
-        <f>E19</f>
-        <v>5629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>9</v>
-      </c>
-      <c r="B21" s="24">
-        <v>45287</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="23">
-        <v>23364</v>
-      </c>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="24">
-        <v>45290</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="23">
+      <c r="E20" s="23">
         <f>24019-12974</f>
         <v>11045</v>
       </c>
+      <c r="F20" s="25">
+        <f>E19+E20</f>
+        <v>34409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45295</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="9">
+        <v>12000</v>
+      </c>
       <c r="F22" s="25">
-        <f>E21+E22</f>
-        <v>34409</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>10</v>
-      </c>
-      <c r="B24" s="3">
-        <v>45295</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="9">
-        <v>12000</v>
-      </c>
-      <c r="F24" s="25">
-        <f>E24</f>
+        <f>E22</f>
         <v>12000</v>
       </c>
     </row>
@@ -1019,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1140,290 +1181,399 @@
       <c r="E7" s="22">
         <v>15389.56</v>
       </c>
-      <c r="F7" s="20">
-        <f>E5+E6+E7</f>
-        <v>79057.64</v>
-      </c>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="21">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="22">
+        <v>521920</v>
+      </c>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="21">
+        <v>45297</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="22">
+        <v>99368</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="21">
+        <v>45297</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="22">
+        <v>17700</v>
+      </c>
+      <c r="F10" s="20">
+        <f>E5+E6+E7+E8+E9+E10</f>
+        <v>718045.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B12" s="14">
         <v>44841</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E12" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F9" s="12">
-        <f>E9-50000</f>
+      <c r="F12" s="12">
+        <f>E12-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B14" s="14">
         <v>44861</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E14" s="15">
         <v>2689515</v>
       </c>
-      <c r="F11" s="12">
-        <f>E11-2512515</f>
+      <c r="F14" s="12">
+        <f>E14-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="J12" s="10" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="J15" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B16" s="14">
         <v>44902</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E16" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F13" s="12">
-        <f>E13-175496-500000-800000</f>
+      <c r="F16" s="12">
+        <f>E16-175496-500000-800000</f>
         <v>546062.30000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>6</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F15" s="26">
-        <f>E15-1364617</f>
-        <v>782381.20000000019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15">
-        <v>2202021.6</v>
-      </c>
-      <c r="F16" s="12">
-        <f>E16-1364617</f>
-        <v>837404.60000000009</v>
-      </c>
-      <c r="G16" s="27">
-        <f>F16-F15</f>
-        <v>55023.399999999907</v>
-      </c>
-    </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="27"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="22">
+        <v>223588</v>
+      </c>
+      <c r="F17" s="12">
+        <f>E17</f>
+        <v>223588</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>7</v>
-      </c>
-      <c r="B18" s="14">
-        <v>45257</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="15">
-        <v>42000</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="12">
-        <f>E18-20000</f>
-        <v>22000</v>
-      </c>
-      <c r="G18" s="27"/>
+        <f>F16+F17</f>
+        <v>769650.3</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="27"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
+        <v>6</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F20" s="26">
+        <f>E20-1364617</f>
+        <v>782381.20000000019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="15">
+        <v>2202021.6</v>
+      </c>
+      <c r="F21" s="12">
+        <f>E21-1364617</f>
+        <v>837404.60000000009</v>
+      </c>
+      <c r="G21" s="27">
+        <f>F21-F20</f>
+        <v>55023.399999999907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>7</v>
+      </c>
+      <c r="B23" s="14">
+        <v>45252</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="15">
+        <v>153645</v>
+      </c>
+      <c r="F23" s="12">
+        <f>E23</f>
+        <v>153645</v>
+      </c>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>8</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B25" s="14">
+        <v>45257</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="15">
+        <v>42000</v>
+      </c>
+      <c r="F25" s="12">
+        <f>E25-20000</f>
+        <v>22000</v>
+      </c>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>9</v>
+      </c>
+      <c r="B27" s="21">
         <v>45293</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="C27" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="22">
         <v>82234.2</v>
       </c>
-      <c r="F20" s="12">
-        <f>E20</f>
+      <c r="F27" s="12">
+        <f>E27</f>
         <v>82234.2</v>
       </c>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>1</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B30" s="7">
         <v>44573</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E30" s="6">
         <v>20000</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F30" s="6">
         <v>29641.599999999999</v>
       </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7">
         <v>44573</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E31" s="6">
         <v>10000</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F31" s="6">
         <v>52362.5</v>
       </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7">
         <v>44954</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
         <v>20000</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <f>F24+F23-E23-E24-E25</f>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
+        <f>F31+F30-E30-E31-E32</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Sr. No</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Create</t>
+  </si>
+  <si>
+    <t>Asha Enterprise</t>
   </si>
 </sst>
 </file>
@@ -762,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1052,6 +1055,27 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45295</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2117</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1569</v>
+      </c>
+      <c r="F24" s="25">
+        <f>E24</f>
+        <v>1569</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1062,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Sr. No</t>
   </si>
@@ -138,15 +138,6 @@
   </si>
   <si>
     <t>Microciti</t>
-  </si>
-  <si>
-    <t>Print Hose</t>
-  </si>
-  <si>
-    <t>Chq no 089934</t>
-  </si>
-  <si>
-    <t>2023-24/9851</t>
   </si>
   <si>
     <t>b23-24MQ310</t>
@@ -277,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -312,19 +303,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -354,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -464,25 +442,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -765,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -813,7 +788,7 @@
         <v>45283</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
@@ -829,7 +804,7 @@
         <v>45295</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>26</v>
@@ -939,140 +914,121 @@
         <v>6</v>
       </c>
       <c r="B14" s="24">
-        <v>45271</v>
+        <v>45292</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="23">
+        <v>6048</v>
+      </c>
+      <c r="F14" s="31">
+        <f>E14</f>
+        <v>6048</v>
+      </c>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>7</v>
+      </c>
+      <c r="B16" s="24">
+        <v>45276</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="23">
-        <v>4690</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="24">
-        <v>45292</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="23">
-        <v>6048</v>
-      </c>
-      <c r="F15" s="31">
-        <f>E14+E15</f>
-        <v>10738</v>
-      </c>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>7</v>
-      </c>
-      <c r="B17" s="24">
-        <v>45276</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="D16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="23">
+        <v>131275</v>
+      </c>
+      <c r="F16" s="25">
+        <f>E16</f>
+        <v>131275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="24">
+        <v>45287</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="23">
-        <v>131275</v>
-      </c>
-      <c r="F17" s="25">
-        <f>E17</f>
-        <v>131275</v>
-      </c>
+      <c r="E18" s="23">
+        <v>23364</v>
+      </c>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>8</v>
-      </c>
+      <c r="A19" s="9"/>
       <c r="B19" s="24">
-        <v>45287</v>
+        <v>45290</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E19" s="23">
-        <v>23364</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="24">
-        <v>45290</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="23">
         <f>24019-12974</f>
         <v>11045</v>
       </c>
-      <c r="F20" s="25">
-        <f>E19+E20</f>
+      <c r="F19" s="25">
+        <f>E18+E19</f>
         <v>34409</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B21" s="3">
         <v>45295</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="9">
         <v>12000</v>
       </c>
-      <c r="F22" s="25">
-        <f>E22</f>
+      <c r="F21" s="25">
+        <f>E21</f>
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>10</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B23" s="3">
         <v>45295</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C23" s="9">
         <v>2117</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="9">
         <v>1569</v>
       </c>
-      <c r="F24" s="25">
-        <f>E24</f>
+      <c r="F23" s="25">
+        <f>E23</f>
         <v>1569</v>
       </c>
     </row>
@@ -1213,7 +1169,7 @@
         <v>45297</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1229,7 +1185,7 @@
         <v>45297</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1245,7 +1201,7 @@
         <v>45297</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1354,10 +1310,10 @@
         <v>45292</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" s="22">
         <v>223588</v>
@@ -1422,10 +1378,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="33"/>
       <c r="G22" s="27"/>
     </row>
@@ -1437,10 +1393,10 @@
         <v>45252</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="15">
         <v>153645</v>
@@ -1453,10 +1409,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="12"/>
       <c r="G24" s="27"/>
     </row>
@@ -1468,10 +1424,10 @@
         <v>45257</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E25" s="15">
         <v>42000</v>
@@ -1499,10 +1455,10 @@
         <v>45293</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" s="22">
         <v>82234.2</v>
@@ -1518,7 +1474,7 @@
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="38"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="33"/>
       <c r="G28" s="27"/>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -116,12 +116,6 @@
     <t>Namrata Rubber Product Pvt Ltd</t>
   </si>
   <si>
-    <t>SLH/1993</t>
-  </si>
-  <si>
-    <t>Shree Laxmi Lighting Hub</t>
-  </si>
-  <si>
     <t>46ID23A0987483</t>
   </si>
   <si>
@@ -134,12 +128,6 @@
     <t>V M Traders</t>
   </si>
   <si>
-    <t>PAN11425/23-24</t>
-  </si>
-  <si>
-    <t>Microciti</t>
-  </si>
-  <si>
     <t>b23-24MQ310</t>
   </si>
   <si>
@@ -206,7 +194,16 @@
     <t>Create</t>
   </si>
   <si>
-    <t>Asha Enterprise</t>
+    <t>I-C-1-24-45287</t>
+  </si>
+  <si>
+    <t>I-C-1-24-454286</t>
+  </si>
+  <si>
+    <t>b23-24MQ406</t>
+  </si>
+  <si>
+    <t>89/23-24</t>
   </si>
 </sst>
 </file>
@@ -740,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -760,7 +757,7 @@
     <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -780,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -788,7 +785,7 @@
         <v>45283</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
@@ -798,13 +795,13 @@
       </c>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="24">
         <v>45295</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>26</v>
@@ -812,224 +809,225 @@
       <c r="E4" s="23">
         <v>146733</v>
       </c>
-      <c r="F4" s="25">
-        <f>E3+E4</f>
-        <v>199715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="24">
+        <v>45299</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="23">
+        <v>36226</v>
+      </c>
+      <c r="F5" s="25">
+        <f>E3+E4+E5</f>
+        <v>235941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>45187</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B7" s="24">
+        <v>45233</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9">
-        <v>1432</v>
-      </c>
-      <c r="F6" s="25">
-        <f>E6</f>
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="E7" s="23">
+        <v>4130</v>
+      </c>
+      <c r="F7" s="25">
+        <f>E7</f>
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="24">
-        <v>45233</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="B9" s="3">
+        <v>45240</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="23">
-        <v>4130</v>
-      </c>
-      <c r="F8" s="25">
-        <f>E8</f>
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="E9" s="9">
+        <v>39412</v>
+      </c>
+      <c r="F9" s="25">
+        <f>E9</f>
+        <v>39412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="3">
-        <v>45240</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="9">
-        <v>39412</v>
-      </c>
-      <c r="F10" s="25">
-        <f>E10</f>
-        <v>39412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="B11" s="24">
+        <v>45276</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="23">
+        <v>131275</v>
+      </c>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="24">
+        <v>45294</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="23">
+        <v>64900</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="24">
+        <v>45294</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="23">
+        <v>34810</v>
+      </c>
+      <c r="F13" s="25">
+        <f>E11+E12+E13</f>
+        <v>230985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
-        <v>45254</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="9">
-        <v>342</v>
-      </c>
-      <c r="F12" s="25">
-        <f>E12</f>
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>6</v>
-      </c>
-      <c r="B14" s="24">
-        <v>45292</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="23">
-        <v>6048</v>
-      </c>
-      <c r="F14" s="31">
-        <f>E14</f>
-        <v>6048</v>
-      </c>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>7</v>
-      </c>
+      <c r="B15" s="24">
+        <v>45287</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="23">
+        <v>23364</v>
+      </c>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
       <c r="B16" s="24">
-        <v>45276</v>
+        <v>45290</v>
       </c>
       <c r="C16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>38</v>
-      </c>
       <c r="E16" s="23">
-        <v>131275</v>
-      </c>
-      <c r="F16" s="25">
-        <f>E16</f>
-        <v>131275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>8</v>
-      </c>
-      <c r="B18" s="24">
-        <v>45287</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="23">
-        <v>23364</v>
-      </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="24">
-        <v>45290</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="23">
         <f>24019-12974</f>
         <v>11045</v>
       </c>
-      <c r="F19" s="25">
-        <f>E18+E19</f>
+      <c r="F16" s="25">
+        <f>E15+E16</f>
         <v>34409</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>9</v>
-      </c>
-      <c r="B21" s="3">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>6</v>
+      </c>
+      <c r="B18" s="24">
+        <v>45292</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="23">
+        <v>6048</v>
+      </c>
+      <c r="F18" s="31">
+        <f>E18</f>
+        <v>6048</v>
+      </c>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3">
         <v>45295</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="9">
         <v>12000</v>
       </c>
-      <c r="F21" s="25">
-        <f>E21</f>
+      <c r="F20" s="25">
+        <f>E20</f>
         <v>12000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3">
-        <v>45295</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2117</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1569</v>
-      </c>
-      <c r="F23" s="25">
-        <f>E23</f>
-        <v>1569</v>
       </c>
     </row>
   </sheetData>
@@ -1040,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1169,7 +1167,7 @@
         <v>45297</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1185,7 +1183,7 @@
         <v>45297</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1201,7 +1199,7 @@
         <v>45297</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1209,351 +1207,367 @@
       <c r="E10" s="22">
         <v>17700</v>
       </c>
-      <c r="F10" s="20">
-        <f>E5+E6+E7+E8+E9+E10</f>
-        <v>718045.64</v>
-      </c>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="21">
+        <v>45301</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="22">
+        <v>269058</v>
+      </c>
+      <c r="F11" s="20">
+        <f>E5+E6+E7+E8+E9+E10+E11</f>
+        <v>987103.64</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="11"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B13" s="14">
         <v>44841</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F12" s="12">
-        <f>E12-50000</f>
+      <c r="F13" s="12">
+        <f>E13-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-    </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B15" s="14">
         <v>44861</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="15">
         <v>2689515</v>
       </c>
-      <c r="F14" s="12">
-        <f>E14-2512515</f>
+      <c r="F15" s="12">
+        <f>E15-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="J15" s="10" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="J16" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B17" s="14">
         <v>44902</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F16" s="12">
-        <f>E16-175496-500000-800000</f>
+      <c r="F17" s="12">
+        <f>E17-175496-500000-800000</f>
         <v>546062.30000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="21">
-        <v>45292</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="22">
-        <v>223588</v>
-      </c>
-      <c r="F17" s="12">
-        <f>E17</f>
-        <v>223588</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="22">
+        <v>223588</v>
+      </c>
       <c r="F18" s="12">
-        <f>F16+F17</f>
+        <f>E18</f>
+        <v>223588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="12">
+        <f>F17+F18</f>
         <v>769650.3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-    </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>6</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F20" s="26">
-        <f>E20-1364617</f>
-        <v>782381.20000000019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
       <c r="B21" s="14"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="E21" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F21" s="26">
+        <f>E21-1364617</f>
+        <v>782381.20000000019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="15">
         <v>2202021.6</v>
       </c>
-      <c r="F21" s="12">
-        <f>E21-1364617</f>
+      <c r="F22" s="12">
+        <f>E22-1364617</f>
         <v>837404.60000000009</v>
       </c>
-      <c r="G21" s="27">
-        <f>F21-F20</f>
+      <c r="G22" s="27">
+        <f>F22-F21</f>
         <v>55023.399999999907</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="27"/>
-    </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="11"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>7</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B24" s="14">
         <v>45252</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="C24" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="15">
         <v>153645</v>
       </c>
-      <c r="F23" s="12">
-        <f>E23</f>
+      <c r="F24" s="12">
+        <f>E24</f>
         <v>153645</v>
       </c>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="12"/>
       <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="11"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>8</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B26" s="14">
         <v>45257</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="C26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="15">
         <v>42000</v>
       </c>
-      <c r="F25" s="12">
-        <f>E25-20000</f>
+      <c r="F26" s="12">
+        <f>E26-20000</f>
         <v>22000</v>
       </c>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
       <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>9</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B28" s="21">
         <v>45293</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="22">
+      <c r="C28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="22">
         <v>82234.2</v>
       </c>
-      <c r="F27" s="12">
-        <f>E27</f>
+      <c r="F28" s="12">
+        <f>E28</f>
         <v>82234.2</v>
       </c>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="33"/>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>1</v>
       </c>
-      <c r="B30" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F30" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
       <c r="B31" s="7">
         <v>44573</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F31" s="6">
-        <v>52362.5</v>
+        <v>29641.599999999999</v>
       </c>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F32" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7">
         <v>44954</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
         <v>20000</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6">
-        <f>F31+F30-E30-E31-E32</f>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <f>F32+F31-E31-E32-E33</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Sr. No</t>
   </si>
@@ -186,12 +186,6 @@
   </si>
   <si>
     <t>El Shaddai</t>
-  </si>
-  <si>
-    <t>b23-24MQ309</t>
-  </si>
-  <si>
-    <t>Create</t>
   </si>
   <si>
     <t>I-C-1-24-45287</t>
@@ -265,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -312,24 +306,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -449,12 +430,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -817,7 +792,7 @@
         <v>45299</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>26</v>
@@ -904,7 +879,7 @@
         <v>45294</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>34</v>
@@ -920,7 +895,7 @@
         <v>45294</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>34</v>
@@ -1038,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:G34"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1215,7 +1190,7 @@
         <v>45301</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>
@@ -1404,170 +1379,139 @@
         <v>7</v>
       </c>
       <c r="B24" s="14">
-        <v>45252</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>52</v>
+        <v>45257</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="E24" s="15">
-        <v>153645</v>
+        <v>42000</v>
       </c>
       <c r="F24" s="12">
-        <f>E24</f>
-        <v>153645</v>
+        <f>E24-20000</f>
+        <v>22000</v>
       </c>
       <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>8</v>
       </c>
-      <c r="B26" s="14">
-        <v>45257</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="15">
-        <v>42000</v>
+      <c r="B26" s="21">
+        <v>45293</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="22">
+        <v>82234.2</v>
       </c>
       <c r="F26" s="12">
-        <f>E26-20000</f>
-        <v>22000</v>
+        <f>E26</f>
+        <v>82234.2</v>
       </c>
       <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="32"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="33"/>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="21">
-        <v>45293</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="22">
-        <v>82234.2</v>
-      </c>
-      <c r="F28" s="12">
-        <f>E28</f>
-        <v>82234.2</v>
-      </c>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="27"/>
+      <c r="E29" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F29" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>1</v>
-      </c>
+      <c r="A31" s="6"/>
       <c r="B31" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>44954</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="6">
         <v>20000</v>
       </c>
-      <c r="F31" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F32" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6">
-        <f>F32+F31-E31-E32-E33</f>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <f>F30+F29-E29-E30-E31</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -715,7 +715,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Sr. No</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Collective Trade Links Pvt Ltd</t>
-  </si>
-  <si>
-    <t>83/23-24</t>
   </si>
   <si>
     <t>PNJ/23-24/3182</t>
@@ -712,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -757,119 +754,119 @@
         <v>1</v>
       </c>
       <c r="B3" s="24">
-        <v>45283</v>
+        <v>45295</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="23">
-        <v>52982</v>
+        <v>146733</v>
       </c>
       <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="24">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="23">
-        <v>146733</v>
-      </c>
-      <c r="F4" s="25"/>
+        <v>36226</v>
+      </c>
+      <c r="F4" s="25">
+        <f>E3+E4</f>
+        <v>182959</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="24">
-        <v>45299</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="23">
-        <v>36226</v>
-      </c>
-      <c r="F5" s="25">
-        <f>E3+E4+E5</f>
-        <v>235941</v>
-      </c>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B6" s="24">
         <v>45233</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E6" s="23">
         <v>4130</v>
       </c>
-      <c r="F7" s="25">
-        <f>E7</f>
+      <c r="F6" s="25">
+        <f>E6</f>
         <v>4130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B8" s="3">
         <v>45240</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E8" s="9">
         <v>39412</v>
       </c>
-      <c r="F9" s="25">
-        <f>E9</f>
+      <c r="F8" s="25">
+        <f>E8</f>
         <v>39412</v>
       </c>
     </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="24">
+        <v>45276</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="23">
+        <v>131275</v>
+      </c>
+      <c r="F10" s="25"/>
+    </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>4</v>
-      </c>
+      <c r="A11" s="9"/>
       <c r="B11" s="24">
-        <v>45276</v>
+        <v>45294</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="23">
-        <v>131275</v>
+        <v>64900</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -885,123 +882,107 @@
         <v>34</v>
       </c>
       <c r="E12" s="23">
-        <v>64900</v>
-      </c>
-      <c r="F12" s="25"/>
+        <v>34810</v>
+      </c>
+      <c r="F12" s="25">
+        <f>E10+E11+E12</f>
+        <v>230985</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="24">
-        <v>45294</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="23">
-        <v>34810</v>
-      </c>
-      <c r="F13" s="25">
-        <f>E11+E12+E13</f>
-        <v>230985</v>
-      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="24">
+        <v>45287</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="23">
+        <v>23364</v>
+      </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>5</v>
-      </c>
+      <c r="A15" s="9"/>
       <c r="B15" s="24">
-        <v>45287</v>
+        <v>45290</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>37</v>
-      </c>
       <c r="E15" s="23">
-        <v>23364</v>
-      </c>
-      <c r="F15" s="25"/>
+        <f>24019-12974</f>
+        <v>11045</v>
+      </c>
+      <c r="F15" s="25">
+        <f>E14+E15</f>
+        <v>34409</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="24">
-        <v>45290</v>
-      </c>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="24">
+        <v>45292</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="23">
-        <f>24019-12974</f>
-        <v>11045</v>
-      </c>
-      <c r="F16" s="25">
-        <f>E15+E16</f>
-        <v>34409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>6</v>
-      </c>
-      <c r="B18" s="24">
-        <v>45292</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="D17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="E17" s="23">
+        <v>6048</v>
+      </c>
+      <c r="F17" s="31">
+        <f>E17</f>
+        <v>6048</v>
+      </c>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45295</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="23">
-        <v>6048</v>
-      </c>
-      <c r="F18" s="31">
-        <f>E18</f>
-        <v>6048</v>
-      </c>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>7</v>
-      </c>
-      <c r="B20" s="3">
-        <v>45295</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="E19" s="9">
         <v>12000</v>
       </c>
-      <c r="F20" s="25">
-        <f>E20</f>
+      <c r="F19" s="25">
+        <f>E19</f>
         <v>12000</v>
       </c>
     </row>
@@ -1015,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1142,7 +1123,7 @@
         <v>45297</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1158,7 +1139,7 @@
         <v>45297</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1174,7 +1155,7 @@
         <v>45297</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1190,7 +1171,7 @@
         <v>45301</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>
@@ -1299,10 +1280,10 @@
         <v>45292</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="E18" s="22">
         <v>223588</v>
@@ -1413,10 +1394,10 @@
         <v>45293</v>
       </c>
       <c r="C26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="E26" s="22">
         <v>82234.2</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Sr. No</t>
   </si>
@@ -195,6 +195,21 @@
   </si>
   <si>
     <t>89/23-24</t>
+  </si>
+  <si>
+    <t>IPS/1803</t>
+  </si>
+  <si>
+    <t>Vissu Virgincar &amp; Sons</t>
+  </si>
+  <si>
+    <t>Aquachemitech</t>
+  </si>
+  <si>
+    <t>SLH/3633</t>
+  </si>
+  <si>
+    <t>Shree Laxmi Lighting Hub</t>
   </si>
 </sst>
 </file>
@@ -709,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -984,6 +999,69 @@
       <c r="F19" s="25">
         <f>E19</f>
         <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>8</v>
+      </c>
+      <c r="B21" s="24">
+        <v>45302</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="23">
+        <v>40500</v>
+      </c>
+      <c r="F21" s="25">
+        <f>E21</f>
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>9</v>
+      </c>
+      <c r="B23" s="24">
+        <v>45306</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1436</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="23">
+        <v>26400</v>
+      </c>
+      <c r="F23" s="25">
+        <f>E23</f>
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>10</v>
+      </c>
+      <c r="B25" s="24">
+        <v>45308</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2877</v>
+      </c>
+      <c r="F25" s="25">
+        <f>E25</f>
+        <v>2877</v>
       </c>
     </row>
   </sheetData>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -197,19 +197,13 @@
     <t>89/23-24</t>
   </si>
   <si>
-    <t>IPS/1803</t>
-  </si>
-  <si>
-    <t>Vissu Virgincar &amp; Sons</t>
-  </si>
-  <si>
-    <t>Aquachemitech</t>
-  </si>
-  <si>
     <t>SLH/3633</t>
   </si>
   <si>
     <t>Shree Laxmi Lighting Hub</t>
+  </si>
+  <si>
+    <t>SLH/3601</t>
   </si>
 </sst>
 </file>
@@ -724,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1006,62 +1000,36 @@
         <v>8</v>
       </c>
       <c r="B21" s="24">
-        <v>45302</v>
+        <v>45307</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="23">
-        <v>40500</v>
-      </c>
-      <c r="F21" s="25">
-        <f>E21</f>
-        <v>40500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>9</v>
-      </c>
-      <c r="B23" s="24">
-        <v>45306</v>
-      </c>
-      <c r="C23" s="23">
-        <v>1436</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="23">
-        <v>26400</v>
-      </c>
-      <c r="F23" s="25">
-        <f>E23</f>
-        <v>26400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>10</v>
-      </c>
-      <c r="B25" s="24">
+        <v>3472</v>
+      </c>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="24">
         <v>45308</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="C22" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="23">
         <v>2877</v>
       </c>
-      <c r="F25" s="25">
-        <f>E25</f>
-        <v>2877</v>
+      <c r="F22" s="25">
+        <f>E21+E22</f>
+        <v>6349</v>
       </c>
     </row>
   </sheetData>
@@ -1074,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="14">
-        <v>45257</v>
+        <v>45261</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>31</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="K18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -721,7 +721,7 @@
   <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F24"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="K18:L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Sr. No</t>
   </si>
@@ -149,12 +149,6 @@
     <t>PNJ/23-24/3230</t>
   </si>
   <si>
-    <t>2023-24/10627</t>
-  </si>
-  <si>
-    <t>Print House</t>
-  </si>
-  <si>
     <t>SH/23-24/4819</t>
   </si>
   <si>
@@ -204,6 +198,9 @@
   </si>
   <si>
     <t>SLH/3601</t>
+  </si>
+  <si>
+    <t>A K Traders</t>
   </si>
 </sst>
 </file>
@@ -214,7 +211,7 @@
     <numFmt numFmtId="164" formatCode="&quot;&quot;0.00"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,14 +244,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -406,9 +395,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A2" sqref="A2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -766,7 +752,7 @@
         <v>45295</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
@@ -782,7 +768,7 @@
         <v>45299</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>26</v>
@@ -796,11 +782,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -869,7 +855,7 @@
         <v>45294</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>34</v>
@@ -885,7 +871,7 @@
         <v>45294</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>34</v>
@@ -952,84 +938,83 @@
       <c r="E16" s="23"/>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>6</v>
       </c>
-      <c r="B17" s="24">
-        <v>45292</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="3">
+        <v>45295</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="23">
-        <v>6048</v>
-      </c>
-      <c r="F17" s="31">
+      <c r="E17" s="9">
+        <v>12000</v>
+      </c>
+      <c r="F17" s="25">
         <f>E17</f>
-        <v>6048</v>
-      </c>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>7</v>
       </c>
-      <c r="B19" s="3">
-        <v>45295</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="9">
-        <v>12000</v>
-      </c>
-      <c r="F19" s="25">
-        <f>E19</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="B19" s="24">
+        <v>45307</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="23">
+        <v>3472</v>
+      </c>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="24">
+        <v>45308</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2877</v>
+      </c>
+      <c r="F20" s="25">
+        <f>E19+E20</f>
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>8</v>
       </c>
-      <c r="B21" s="24">
-        <v>45307</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="B22" s="3">
+        <v>45320</v>
+      </c>
+      <c r="C22" s="9">
+        <v>6308</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="23">
-        <v>3472</v>
-      </c>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="24">
-        <v>45308</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="23">
-        <v>2877</v>
+      <c r="E22" s="9">
+        <v>2019</v>
       </c>
       <c r="F22" s="25">
-        <f>E21+E22</f>
-        <v>6349</v>
+        <f>E22</f>
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1028,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1169,7 +1154,7 @@
         <v>45297</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1185,7 +1170,7 @@
         <v>45297</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1201,7 +1186,7 @@
         <v>45297</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1217,7 +1202,7 @@
         <v>45301</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>
@@ -1326,10 +1311,10 @@
         <v>45292</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="22">
         <v>223588</v>
@@ -1394,11 +1379,11 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="33"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1428,8 +1413,8 @@
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1440,17 +1425,17 @@
         <v>45293</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" s="22">
         <v>82234.2</v>
       </c>
       <c r="F26" s="12">
-        <f>E26</f>
-        <v>82234.2</v>
+        <f>E26-70000-4181.4</f>
+        <v>8052.7999999999975</v>
       </c>
       <c r="G26" s="27"/>
     </row>
@@ -1459,8 +1444,8 @@
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="33"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Sr. No</t>
   </si>
@@ -138,15 +138,6 @@
   </si>
   <si>
     <t>Collective Trade Links Pvt Ltd</t>
-  </si>
-  <si>
-    <t>PNJ/23-24/3182</t>
-  </si>
-  <si>
-    <t>Hatley Technologies</t>
-  </si>
-  <si>
-    <t>PNJ/23-24/3230</t>
   </si>
   <si>
     <t>SH/23-24/4819</t>
@@ -704,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -752,7 +743,7 @@
         <v>45295</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
@@ -768,7 +759,7 @@
         <v>45299</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>26</v>
@@ -855,7 +846,7 @@
         <v>45294</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>34</v>
@@ -871,7 +862,7 @@
         <v>45294</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>34</v>
@@ -892,128 +883,82 @@
       <c r="E13" s="23"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="24">
-        <v>45287</v>
-      </c>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="3">
+        <v>45295</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="23">
-        <v>23364</v>
-      </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="24">
-        <v>45290</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="23">
-        <f>24019-12974</f>
-        <v>11045</v>
-      </c>
-      <c r="F15" s="25">
-        <f>E14+E15</f>
-        <v>34409</v>
+      <c r="E14" s="9">
+        <v>12000</v>
+      </c>
+      <c r="F14" s="25">
+        <f>E14</f>
+        <v>12000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="24">
+        <v>45307</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="23">
+        <v>3472</v>
+      </c>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>6</v>
-      </c>
-      <c r="B17" s="3">
-        <v>45295</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="9">
-        <v>12000</v>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="24">
+        <v>45308</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="23">
+        <v>2877</v>
       </c>
       <c r="F17" s="25">
-        <f>E17</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <f>E16+E17</f>
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>7</v>
       </c>
-      <c r="B19" s="24">
-        <v>45307</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="23">
-        <v>3472</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="24">
-        <v>45308</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="B19" s="3">
+        <v>45320</v>
+      </c>
+      <c r="C19" s="9">
+        <v>6308</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="23">
-        <v>2877</v>
-      </c>
-      <c r="F20" s="25">
-        <f>E19+E20</f>
-        <v>6349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3">
-        <v>45320</v>
-      </c>
-      <c r="C22" s="9">
-        <v>6308</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="E19" s="9">
         <v>2019</v>
       </c>
-      <c r="F22" s="25">
-        <f>E22</f>
+      <c r="F19" s="25">
+        <f>E19</f>
         <v>2019</v>
       </c>
     </row>
@@ -1154,7 +1099,7 @@
         <v>45297</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1170,7 +1115,7 @@
         <v>45297</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1186,7 +1131,7 @@
         <v>45297</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1202,7 +1147,7 @@
         <v>45301</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>
@@ -1311,10 +1256,10 @@
         <v>45292</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" s="22">
         <v>223588</v>
@@ -1425,10 +1370,10 @@
         <v>45293</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E26" s="22">
         <v>82234.2</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>Sr. No</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Pinge</t>
-  </si>
-  <si>
-    <t>88/23-24</t>
   </si>
   <si>
     <t>b23-24MQ403</t>
@@ -698,7 +695,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -740,103 +737,103 @@
         <v>1</v>
       </c>
       <c r="B3" s="24">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="23">
-        <v>146733</v>
-      </c>
-      <c r="F3" s="25"/>
+        <v>36226</v>
+      </c>
+      <c r="F3" s="25">
+        <f>E3</f>
+        <v>36226</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="24">
-        <v>45299</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="23">
-        <v>36226</v>
-      </c>
-      <c r="F4" s="25">
-        <f>E3+E4</f>
-        <v>182959</v>
-      </c>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B5" s="24">
         <v>45233</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E5" s="23">
         <v>4130</v>
       </c>
-      <c r="F6" s="25">
-        <f>E6</f>
+      <c r="F5" s="25">
+        <f>E5</f>
         <v>4130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B7" s="3">
         <v>45240</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E7" s="9">
         <v>39412</v>
       </c>
-      <c r="F8" s="25">
-        <f>E8</f>
+      <c r="F7" s="25">
+        <f>E7</f>
         <v>39412</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24">
+        <v>45276</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="23">
+        <v>131275</v>
+      </c>
+      <c r="F9" s="25"/>
+    </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>4</v>
-      </c>
+      <c r="A10" s="9"/>
       <c r="B10" s="24">
-        <v>45276</v>
+        <v>45294</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="23">
-        <v>131275</v>
+        <v>64900</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -852,114 +849,114 @@
         <v>34</v>
       </c>
       <c r="E11" s="23">
-        <v>64900</v>
-      </c>
-      <c r="F11" s="25"/>
+        <v>34810</v>
+      </c>
+      <c r="F11" s="25">
+        <f>E9+E10+E11</f>
+        <v>230985</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="24">
-        <v>45294</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="23">
-        <v>34810</v>
-      </c>
-      <c r="F12" s="25">
-        <f>E10+E11+E12</f>
-        <v>230985</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B13" s="3">
         <v>45295</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E13" s="9">
         <v>12000</v>
       </c>
-      <c r="F14" s="25">
-        <f>E14</f>
+      <c r="F13" s="25">
+        <f>E13</f>
         <v>12000</v>
       </c>
     </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>6</v>
+      </c>
+      <c r="B15" s="24">
+        <v>45307</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="23">
+        <v>3472</v>
+      </c>
+      <c r="F15" s="25"/>
+    </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>6</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" s="24">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="C16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="23">
+        <v>2877</v>
+      </c>
+      <c r="F16" s="25">
+        <f>E15+E16</f>
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45320</v>
+      </c>
+      <c r="C18" s="9">
+        <v>6308</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="23">
-        <v>3472</v>
-      </c>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="24">
-        <v>45308</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="23">
-        <v>2877</v>
-      </c>
-      <c r="F17" s="25">
-        <f>E16+E17</f>
-        <v>6349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3">
-        <v>45320</v>
-      </c>
-      <c r="C19" s="9">
-        <v>6308</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="E18" s="9">
         <v>2019</v>
       </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="24">
+        <v>45325</v>
+      </c>
+      <c r="C19" s="23">
+        <v>4593</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="23">
+        <v>2003.64</v>
+      </c>
       <c r="F19" s="25">
-        <f>E19</f>
-        <v>2019</v>
+        <f>E18+E19</f>
+        <v>4022.6400000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1096,7 @@
         <v>45297</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1115,7 +1112,7 @@
         <v>45297</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1131,7 +1128,7 @@
         <v>45297</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1147,7 +1144,7 @@
         <v>45301</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>
@@ -1256,10 +1253,10 @@
         <v>45292</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="E18" s="22">
         <v>223588</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -695,7 +695,7 @@
   <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -970,7 +970,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B5" sqref="B5:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>Sr. No</t>
   </si>
@@ -140,12 +140,6 @@
     <t>Collective Trade Links Pvt Ltd</t>
   </si>
   <si>
-    <t>SH/23-24/4819</t>
-  </si>
-  <si>
-    <t>Shruti Infotech</t>
-  </si>
-  <si>
     <t>b23-24MQ401</t>
   </si>
   <si>
@@ -189,6 +183,9 @@
   </si>
   <si>
     <t>A K Traders</t>
+  </si>
+  <si>
+    <t>SLH/3668</t>
   </si>
 </sst>
 </file>
@@ -692,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -740,7 +737,7 @@
         <v>45299</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
@@ -827,7 +824,7 @@
         <v>45294</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>34</v>
@@ -843,7 +840,7 @@
         <v>45294</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>34</v>
@@ -864,98 +861,93 @@
       <c r="E12" s="23"/>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="3">
-        <v>45295</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9">
-        <v>12000</v>
-      </c>
-      <c r="F13" s="25">
-        <f>E13</f>
-        <v>12000</v>
-      </c>
+      <c r="B13" s="24">
+        <v>45307</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="23">
+        <v>3472</v>
+      </c>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="24">
+        <v>45308</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="23">
+        <v>2877</v>
+      </c>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>6</v>
-      </c>
+      <c r="A15" s="9"/>
       <c r="B15" s="24">
-        <v>45307</v>
+        <v>45311</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1756</v>
+      </c>
+      <c r="F15" s="25">
+        <f>E13+E14+E15</f>
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45320</v>
+      </c>
+      <c r="C17" s="9">
+        <v>6308</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="23">
-        <v>3472</v>
-      </c>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="24">
-        <v>45308</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="23" t="s">
+      <c r="E17" s="9">
+        <v>2019</v>
+      </c>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="24">
+        <v>45325</v>
+      </c>
+      <c r="C18" s="23">
+        <v>4593</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="23">
-        <v>2877</v>
-      </c>
-      <c r="F16" s="25">
-        <f>E15+E16</f>
-        <v>6349</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>7</v>
-      </c>
-      <c r="B18" s="3">
-        <v>45320</v>
-      </c>
-      <c r="C18" s="9">
-        <v>6308</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2019</v>
-      </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="24">
-        <v>45325</v>
-      </c>
-      <c r="C19" s="23">
-        <v>4593</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="E18" s="23">
         <v>2003.64</v>
       </c>
-      <c r="F19" s="25">
-        <f>E18+E19</f>
+      <c r="F18" s="25">
+        <f>E17+E18</f>
         <v>4022.6400000000003</v>
       </c>
     </row>
@@ -969,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1096,7 +1088,7 @@
         <v>45297</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
@@ -1112,7 +1104,7 @@
         <v>45297</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>14</v>
@@ -1128,7 +1120,7 @@
         <v>45297</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>14</v>
@@ -1144,7 +1136,7 @@
         <v>45301</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>14</v>
@@ -1253,10 +1245,10 @@
         <v>45292</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="22">
         <v>223588</v>
@@ -1367,10 +1359,10 @@
         <v>45293</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="22">
         <v>82234.2</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Sr. No</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>SLH/3668</t>
+  </si>
+  <si>
+    <t>Asha Enterprises</t>
+  </si>
+  <si>
+    <t>100/23-24</t>
+  </si>
+  <si>
+    <t>Aquachemitech</t>
   </si>
 </sst>
 </file>
@@ -689,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -745,92 +754,92 @@
       <c r="E3" s="23">
         <v>36226</v>
       </c>
-      <c r="F3" s="25">
-        <f>E3</f>
-        <v>36226</v>
-      </c>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="24">
+        <v>45328</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="23">
+        <v>55401</v>
+      </c>
+      <c r="F4" s="25">
+        <f>E3+E4</f>
+        <v>91627</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B6" s="24">
         <v>45233</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E6" s="23">
         <v>4130</v>
       </c>
-      <c r="F5" s="25">
-        <f>E5</f>
+      <c r="F6" s="25">
+        <f>E6</f>
         <v>4130</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>45240</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>39412</v>
       </c>
-      <c r="F7" s="25">
-        <f>E7</f>
+      <c r="F8" s="25">
+        <f>E8</f>
         <v>39412</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B10" s="24">
         <v>45276</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="23">
-        <v>131275</v>
-      </c>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="24">
-        <v>45294</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>42</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="23">
-        <v>64900</v>
+        <v>131275</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -840,115 +849,205 @@
         <v>45294</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="23">
-        <v>34810</v>
-      </c>
-      <c r="F11" s="25">
-        <f>E9+E10+E11</f>
-        <v>230985</v>
-      </c>
+        <v>64900</v>
+      </c>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="24">
+        <v>45294</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="23">
+        <v>34810</v>
+      </c>
+      <c r="F12" s="25">
+        <f>E10+E11+E12</f>
+        <v>230985</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="9"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B14" s="24">
         <v>45307</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="23">
-        <v>3472</v>
-      </c>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="24">
-        <v>45308</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="23">
-        <v>2877</v>
+        <v>3472</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="24">
-        <v>45311</v>
+        <v>45308</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="23">
+        <v>2877</v>
+      </c>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="24">
+        <v>45311</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="23">
         <v>1756</v>
       </c>
-      <c r="F15" s="25">
-        <f>E13+E14+E15</f>
+      <c r="F16" s="25">
+        <f>E14+E15+E16</f>
         <v>8105</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>6</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>45320</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C18" s="9">
         <v>6308</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>2019</v>
       </c>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="24">
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="24">
         <v>45325</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C19" s="23">
         <v>4593</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E19" s="23">
         <v>2003.64</v>
       </c>
-      <c r="F18" s="25">
-        <f>E17+E18</f>
+      <c r="F19" s="25">
+        <f>E18+E19</f>
         <v>4022.6400000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>7</v>
+      </c>
+      <c r="B21" s="24">
+        <v>45315</v>
+      </c>
+      <c r="C21" s="23">
+        <v>1483</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="23">
+        <v>8600</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="24">
+        <v>45320</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1502</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="23">
+        <v>13400</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="24">
+        <v>45321</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1530</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="23">
+        <v>9525</v>
+      </c>
+      <c r="F23" s="25">
+        <f>E21+E22+E23</f>
+        <v>31525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45325</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2158</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1569</v>
+      </c>
+      <c r="F25" s="25">
+        <f>E25</f>
+        <v>1569</v>
       </c>
     </row>
   </sheetData>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -182,9 +182,6 @@
     <t>SLH/3601</t>
   </si>
   <si>
-    <t>A K Traders</t>
-  </si>
-  <si>
     <t>SLH/3668</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Aquachemitech</t>
+  </si>
+  <si>
+    <t>I-C-1-24-454734</t>
   </si>
 </sst>
 </file>
@@ -698,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,7 @@
         <v>45328</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>26</v>
@@ -873,180 +873,159 @@
       <c r="E12" s="23">
         <v>34810</v>
       </c>
-      <c r="F12" s="25">
-        <f>E10+E11+E12</f>
-        <v>230985</v>
-      </c>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="25"/>
+      <c r="B13" s="24">
+        <v>45323</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="23">
+        <v>54693</v>
+      </c>
+      <c r="F13" s="25">
+        <f>E10+E11+E12+E13</f>
+        <v>285678</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="9"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B15" s="24">
         <v>45307</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="23">
-        <v>3472</v>
-      </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="24">
-        <v>45308</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>46</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="23">
-        <v>2877</v>
+        <v>3472</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="24">
-        <v>45311</v>
+        <v>45308</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E16" s="23">
+        <v>2877</v>
+      </c>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="24">
+        <v>45311</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="23">
         <v>1756</v>
       </c>
-      <c r="F16" s="25">
-        <f>E14+E15+E16</f>
+      <c r="F17" s="25">
+        <f>E15+E16+E17</f>
         <v>8105</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>6</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="24">
+        <v>45315</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1483</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="23">
+        <v>8600</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="24">
         <v>45320</v>
       </c>
-      <c r="C18" s="9">
-        <v>6308</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2019</v>
-      </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="24">
+      <c r="C20" s="23">
+        <v>1502</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="23">
+        <v>13400</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="24">
+        <v>45321</v>
+      </c>
+      <c r="C21" s="23">
+        <v>1530</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="23">
+        <v>9525</v>
+      </c>
+      <c r="F21" s="25">
+        <f>E19+E20+E21</f>
+        <v>31525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
         <v>45325</v>
       </c>
-      <c r="C19" s="23">
-        <v>4593</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="23">
-        <v>2003.64</v>
-      </c>
-      <c r="F19" s="25">
-        <f>E18+E19</f>
-        <v>4022.6400000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>7</v>
-      </c>
-      <c r="B21" s="24">
-        <v>45315</v>
-      </c>
-      <c r="C21" s="23">
-        <v>1483</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="23">
-        <v>8600</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="24">
-        <v>45320</v>
-      </c>
-      <c r="C22" s="23">
-        <v>1502</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="23">
-        <v>13400</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="24">
-        <v>45321</v>
-      </c>
-      <c r="C23" s="23">
-        <v>1530</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="23">
-        <v>9525</v>
+      <c r="C23" s="9">
+        <v>2158</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1569</v>
       </c>
       <c r="F23" s="25">
-        <f>E21+E22+E23</f>
-        <v>31525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3">
-        <v>45325</v>
-      </c>
-      <c r="C25" s="9">
-        <v>2158</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="9">
-        <v>1569</v>
-      </c>
-      <c r="F25" s="25">
-        <f>E25</f>
+        <f>E23</f>
         <v>1569</v>
       </c>
     </row>
@@ -1061,7 +1040,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Sr. No</t>
   </si>
@@ -146,15 +146,6 @@
     <t>Pinge</t>
   </si>
   <si>
-    <t>b23-24MQ403</t>
-  </si>
-  <si>
-    <t>b23-24AQ404</t>
-  </si>
-  <si>
-    <t>b23-24MQ405</t>
-  </si>
-  <si>
     <t>b23-24MQ402</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>I-C-1-24-454286</t>
   </si>
   <si>
-    <t>b23-24MQ406</t>
-  </si>
-  <si>
     <t>89/23-24</t>
   </si>
   <si>
@@ -185,9 +173,6 @@
     <t>SLH/3668</t>
   </si>
   <si>
-    <t>Asha Enterprises</t>
-  </si>
-  <si>
     <t>100/23-24</t>
   </si>
   <si>
@@ -195,6 +180,15 @@
   </si>
   <si>
     <t>I-C-1-24-454734</t>
+  </si>
+  <si>
+    <t>b23-24MQ407</t>
+  </si>
+  <si>
+    <t>IPS/1965</t>
+  </si>
+  <si>
+    <t>Vissu Virgincar &amp; Sons</t>
   </si>
 </sst>
 </file>
@@ -698,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F23"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -746,7 +740,7 @@
         <v>45299</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
@@ -762,7 +756,7 @@
         <v>45328</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>26</v>
@@ -849,7 +843,7 @@
         <v>45294</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>34</v>
@@ -865,7 +859,7 @@
         <v>45294</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>34</v>
@@ -881,7 +875,7 @@
         <v>45323</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>34</v>
@@ -910,10 +904,10 @@
         <v>45307</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" s="23">
         <v>3472</v>
@@ -926,10 +920,10 @@
         <v>45308</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E16" s="23">
         <v>2877</v>
@@ -942,10 +936,10 @@
         <v>45311</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E17" s="23">
         <v>1756</v>
@@ -960,73 +954,41 @@
         <v>6</v>
       </c>
       <c r="B19" s="24">
-        <v>45315</v>
+        <v>45321</v>
       </c>
       <c r="C19" s="23">
-        <v>1483</v>
+        <v>1530</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E19" s="23">
-        <v>8600</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="24">
-        <v>45320</v>
-      </c>
-      <c r="C20" s="23">
-        <v>1502</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="23">
-        <v>13400</v>
-      </c>
-      <c r="F20" s="9"/>
+        <v>9525</v>
+      </c>
+      <c r="F19" s="25">
+        <f>E19</f>
+        <v>9525</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="9">
+        <v>7</v>
+      </c>
       <c r="B21" s="24">
-        <v>45321</v>
-      </c>
-      <c r="C21" s="23">
-        <v>1530</v>
+        <v>45330</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="23">
-        <v>9525</v>
+        <v>13500</v>
       </c>
       <c r="F21" s="25">
-        <f>E19+E20+E21</f>
-        <v>31525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3">
-        <v>45325</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2158</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="9">
-        <v>1569</v>
-      </c>
-      <c r="F23" s="25">
-        <f>E23</f>
-        <v>1569</v>
+        <f>E21</f>
+        <v>13500</v>
       </c>
     </row>
   </sheetData>
@@ -1037,10 +999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1163,379 +1125,331 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="21">
-        <v>45297</v>
+        <v>45342</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="22">
-        <v>521920</v>
-      </c>
-      <c r="F8" s="20"/>
+        <v>345339</v>
+      </c>
+      <c r="F8" s="20">
+        <f>E5+E6+E7+E8</f>
+        <v>424396.64</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="21">
-        <v>45297</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="14">
+        <v>44841</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="15">
+        <v>64917.7</v>
+      </c>
+      <c r="F10" s="12">
+        <f>E10-50000</f>
+        <v>14917.699999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="14">
+        <v>44861</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2689515</v>
+      </c>
+      <c r="F12" s="12">
+        <f>E12-2512515</f>
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="J13" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F14" s="12">
+        <f>E14-175496-500000-800000</f>
+        <v>546062.30000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="22">
-        <v>99368</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="21">
-        <v>45297</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="22">
-        <v>17700</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="21">
-        <v>45301</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="22">
-        <v>269058</v>
-      </c>
-      <c r="F11" s="20">
-        <f>E5+E6+E7+E8+E9+E10+E11</f>
-        <v>987103.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>3</v>
-      </c>
-      <c r="B13" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F13" s="12">
-        <f>E13-50000</f>
-        <v>14917.699999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>4</v>
-      </c>
-      <c r="B15" s="14">
-        <v>44861</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2689515</v>
+      <c r="E15" s="22">
+        <v>223588</v>
       </c>
       <c r="F15" s="12">
-        <f>E15-2512515</f>
-        <v>177000</v>
+        <f>E15</f>
+        <v>223588</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="J16" s="10" t="s">
-        <v>22</v>
+      <c r="A16" s="6"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="12">
+        <f>F14+F15</f>
+        <v>769650.3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>5</v>
-      </c>
-      <c r="B17" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2021558.3</v>
-      </c>
-      <c r="F17" s="12">
-        <f>E17-175496-500000-800000</f>
-        <v>546062.30000000005</v>
-      </c>
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="21">
-        <v>45292</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="22">
-        <v>223588</v>
-      </c>
-      <c r="F18" s="12">
-        <f>E18</f>
-        <v>223588</v>
+      <c r="A18" s="6">
+        <v>6</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F18" s="26">
+        <f>E18-1364617</f>
+        <v>782381.20000000019</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15">
+        <v>2202021.6</v>
+      </c>
       <c r="F19" s="12">
-        <f>F17+F18</f>
-        <v>769650.3</v>
+        <f>E19-1364617</f>
+        <v>837404.60000000009</v>
+      </c>
+      <c r="G19" s="27">
+        <f>F19-F18</f>
+        <v>55023.399999999907</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
+        <v>7</v>
+      </c>
+      <c r="B21" s="14">
+        <v>45261</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="15">
+        <v>42000</v>
+      </c>
+      <c r="F21" s="12">
+        <f>E21-20000</f>
+        <v>22000</v>
+      </c>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>8</v>
+      </c>
+      <c r="B23" s="21">
+        <v>45293</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="22">
+        <v>82234.2</v>
+      </c>
+      <c r="F23" s="12">
+        <f>E23-70000-4181.4</f>
+        <v>8052.7999999999975</v>
+      </c>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F21" s="26">
-        <f>E21-1364617</f>
-        <v>782381.20000000019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15">
-        <v>2202021.6</v>
-      </c>
-      <c r="F22" s="12">
-        <f>E22-1364617</f>
-        <v>837404.60000000009</v>
-      </c>
-      <c r="G22" s="27">
-        <f>F22-F21</f>
-        <v>55023.399999999907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>7</v>
-      </c>
-      <c r="B24" s="14">
-        <v>45261</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="15">
-        <v>42000</v>
-      </c>
-      <c r="F24" s="12">
-        <f>E24-20000</f>
-        <v>22000</v>
-      </c>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>8</v>
-      </c>
-      <c r="B26" s="21">
-        <v>45293</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="22">
-        <v>82234.2</v>
-      </c>
-      <c r="F26" s="12">
-        <f>E26-70000-4181.4</f>
-        <v>8052.7999999999975</v>
-      </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F26" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>1</v>
-      </c>
-      <c r="B29" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7">
+        <v>44954</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
         <v>20000</v>
       </c>
-      <c r="F29" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F30" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6">
-        <f>F30+F29-E29-E30-E31</f>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <f>F27+F26-E26-E27-E28</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Sr. No</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>I-C-1-24-454286</t>
-  </si>
-  <si>
-    <t>89/23-24</t>
   </si>
   <si>
     <t>SLH/3633</t>
@@ -692,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -737,103 +734,103 @@
         <v>1</v>
       </c>
       <c r="B3" s="24">
-        <v>45299</v>
+        <v>45328</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="23">
-        <v>36226</v>
-      </c>
-      <c r="F3" s="25"/>
+        <v>55401</v>
+      </c>
+      <c r="F3" s="25">
+        <f>E3</f>
+        <v>55401</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="24">
-        <v>45328</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="23">
-        <v>55401</v>
-      </c>
-      <c r="F4" s="25">
-        <f>E3+E4</f>
-        <v>91627</v>
-      </c>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B5" s="24">
         <v>45233</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E5" s="23">
         <v>4130</v>
       </c>
-      <c r="F6" s="25">
-        <f>E6</f>
+      <c r="F5" s="25">
+        <f>E5</f>
         <v>4130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B7" s="3">
         <v>45240</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E7" s="9">
         <v>39412</v>
       </c>
-      <c r="F8" s="25">
-        <f>E8</f>
+      <c r="F7" s="25">
+        <f>E7</f>
         <v>39412</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24">
+        <v>45276</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="23">
+        <v>131275</v>
+      </c>
+      <c r="F9" s="25"/>
+    </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>4</v>
-      </c>
+      <c r="A10" s="9"/>
       <c r="B10" s="24">
-        <v>45276</v>
+        <v>45294</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="23">
-        <v>131275</v>
+        <v>64900</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -843,151 +840,135 @@
         <v>45294</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="23">
-        <v>64900</v>
+        <v>34810</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="24">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="23">
-        <v>34810</v>
-      </c>
-      <c r="F12" s="25"/>
+        <v>54693</v>
+      </c>
+      <c r="F12" s="25">
+        <f>E9+E10+E11+E12</f>
+        <v>285678</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="24">
-        <v>45323</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="23">
-        <v>54693</v>
-      </c>
-      <c r="F13" s="25">
-        <f>E10+E11+E12+E13</f>
-        <v>285678</v>
-      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="24">
+        <v>45307</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="23">
+        <v>3472</v>
+      </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>5</v>
-      </c>
+      <c r="A15" s="9"/>
       <c r="B15" s="24">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="23">
-        <v>3472</v>
+        <v>2877</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="24">
-        <v>45308</v>
+        <v>45311</v>
       </c>
       <c r="C16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>43</v>
-      </c>
       <c r="E16" s="23">
-        <v>2877</v>
-      </c>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="24">
-        <v>45311</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="23">
         <v>1756</v>
       </c>
-      <c r="F17" s="25">
-        <f>E15+E16+E17</f>
+      <c r="F16" s="25">
+        <f>E14+E15+E16</f>
         <v>8105</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>6</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B18" s="24">
         <v>45321</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C18" s="23">
         <v>1530</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="23">
+      <c r="D18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="23">
         <v>9525</v>
       </c>
-      <c r="F19" s="25">
-        <f>E19</f>
+      <c r="F18" s="25">
+        <f>E18</f>
         <v>9525</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>7</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B20" s="24">
         <v>45330</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="E20" s="23">
         <v>13500</v>
       </c>
-      <c r="F21" s="25">
-        <f>E21</f>
+      <c r="F20" s="25">
+        <f>E20</f>
         <v>13500</v>
       </c>
     </row>
@@ -1001,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1128,7 +1109,7 @@
         <v>45342</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>14</v>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Sr. No</t>
   </si>
@@ -689,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -946,29 +946,45 @@
       <c r="E18" s="23">
         <v>9525</v>
       </c>
-      <c r="F18" s="25">
-        <f>E18</f>
-        <v>9525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="24">
+        <v>45348</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1693</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="23">
+        <v>28000</v>
+      </c>
+      <c r="F19" s="25">
+        <f>E18+E19</f>
+        <v>37525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>7</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B21" s="24">
         <v>45330</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C21" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D21" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E21" s="23">
         <v>13500</v>
       </c>
-      <c r="F20" s="25">
-        <f>E20</f>
+      <c r="F21" s="25">
+        <f>E21</f>
         <v>13500</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Sr. No</t>
   </si>
@@ -116,12 +116,6 @@
     <t>Namrata Rubber Product Pvt Ltd</t>
   </si>
   <si>
-    <t>46ID23A0987483</t>
-  </si>
-  <si>
-    <t>Ingram Micro India Private Limited</t>
-  </si>
-  <si>
     <t>VM/10538/23-24</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>Marcfremiot</t>
   </si>
   <si>
-    <t>I-C-1-23-454055</t>
-  </si>
-  <si>
     <t>Collective Trade Links Pvt Ltd</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
   </si>
   <si>
     <t>I-C-1-24-454734</t>
-  </si>
-  <si>
-    <t>b23-24MQ407</t>
   </si>
   <si>
     <t>IPS/1965</t>
@@ -196,7 +184,7 @@
     <numFmt numFmtId="164" formatCode="&quot;&quot;0.00"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +217,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -408,6 +403,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F21"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -737,7 +735,7 @@
         <v>45328</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
@@ -758,176 +756,176 @@
       <c r="E4" s="35"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="24">
-        <v>45233</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="3">
+        <v>45240</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="23">
-        <v>4130</v>
+      <c r="E5" s="9">
+        <v>39412</v>
       </c>
       <c r="F5" s="25">
         <f>E5</f>
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>45240</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="9">
-        <v>39412</v>
-      </c>
-      <c r="F7" s="25">
-        <f>E7</f>
-        <v>39412</v>
-      </c>
+      <c r="B7" s="24">
+        <v>45294</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="23">
+        <v>64900</v>
+      </c>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="24">
+        <v>45294</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="23">
+        <v>34810</v>
+      </c>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>4</v>
-      </c>
+      <c r="A9" s="9"/>
       <c r="B9" s="24">
-        <v>45276</v>
+        <v>45323</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" s="23">
-        <v>131275</v>
-      </c>
-      <c r="F9" s="25"/>
+        <v>54693</v>
+      </c>
+      <c r="F9" s="25">
+        <f>E7+E8+E9</f>
+        <v>154403</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="24">
-        <v>45294</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="23">
-        <v>64900</v>
-      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
       <c r="B11" s="24">
-        <v>45294</v>
+        <v>45307</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E11" s="23">
-        <v>34810</v>
+        <v>3472</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="24">
-        <v>45323</v>
+        <v>45308</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E12" s="23">
-        <v>54693</v>
-      </c>
-      <c r="F12" s="25">
-        <f>E9+E10+E11+E12</f>
-        <v>285678</v>
-      </c>
+        <v>2877</v>
+      </c>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="B13" s="24">
+        <v>45311</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1756</v>
+      </c>
+      <c r="F13" s="25">
+        <f>E11+E12+E13</f>
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="24">
-        <v>45307</v>
-      </c>
-      <c r="C14" s="23" t="s">
+      <c r="B15" s="24">
+        <v>45321</v>
+      </c>
+      <c r="C15" s="23">
+        <v>1530</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="23">
-        <v>3472</v>
-      </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="24">
-        <v>45308</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="23">
-        <v>2877</v>
+      <c r="E15" s="40">
+        <v>9525</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="24">
-        <v>45311</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>44</v>
+        <v>45348</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1693</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="23">
-        <v>1756</v>
+        <v>28000</v>
       </c>
       <c r="F16" s="25">
-        <f>E14+E15+E16</f>
-        <v>8105</v>
+        <f>E15+E16</f>
+        <v>37525</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -935,56 +933,19 @@
         <v>6</v>
       </c>
       <c r="B18" s="24">
-        <v>45321</v>
-      </c>
-      <c r="C18" s="23">
-        <v>1530</v>
+        <v>45330</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="23">
-        <v>9525</v>
-      </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="24">
-        <v>45348</v>
-      </c>
-      <c r="C19" s="23">
-        <v>1693</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="23">
-        <v>28000</v>
-      </c>
-      <c r="F19" s="25">
-        <f>E18+E19</f>
-        <v>37525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>7</v>
-      </c>
-      <c r="B21" s="24">
-        <v>45330</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="23">
         <v>13500</v>
       </c>
-      <c r="F21" s="25">
-        <f>E21</f>
+      <c r="F18" s="25">
+        <f>E18</f>
         <v>13500</v>
       </c>
     </row>
@@ -996,7 +957,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -1117,336 +1078,320 @@
       <c r="E7" s="22">
         <v>15389.56</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="20">
+        <f>E5+E6+E7</f>
+        <v>79057.64</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="21">
-        <v>45342</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="22">
-        <v>345339</v>
-      </c>
-      <c r="F8" s="20">
-        <f>E5+E6+E7+E8</f>
-        <v>424396.64</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14">
+        <v>44841</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="15">
+        <v>64917.7</v>
+      </c>
+      <c r="F9" s="12">
+        <f>E9-50000</f>
+        <v>14917.699999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14">
-        <v>44841</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="15">
-        <v>64917.7</v>
-      </c>
-      <c r="F10" s="12">
-        <f>E10-50000</f>
-        <v>14917.699999999997</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14">
+        <v>44861</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2689515</v>
+      </c>
+      <c r="F11" s="12">
+        <f>E11-2512515</f>
+        <v>177000</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14">
-        <v>44861</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="15">
-        <v>2689515</v>
-      </c>
-      <c r="F12" s="12">
-        <f>E12-2512515</f>
-        <v>177000</v>
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="J12" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="J13" s="10" t="s">
-        <v>22</v>
+      <c r="A13" s="6">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14">
+        <v>44902</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2021558.3</v>
+      </c>
+      <c r="F13" s="12">
+        <f>E13-175496-500000-800000</f>
+        <v>546062.30000000005</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>5</v>
-      </c>
-      <c r="B14" s="14">
-        <v>44902</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2021558.3</v>
+      <c r="A14" s="6"/>
+      <c r="B14" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="22">
+        <v>223588</v>
       </c>
       <c r="F14" s="12">
-        <f>E14-175496-500000-800000</f>
-        <v>546062.30000000005</v>
+        <f>E14</f>
+        <v>223588</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="21">
-        <v>45292</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="22">
-        <v>223588</v>
-      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="12">
-        <f>E15</f>
-        <v>223588</v>
+        <f>F13+F14</f>
+        <v>769650.3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="12">
-        <f>F14+F15</f>
-        <v>769650.3</v>
-      </c>
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="6">
+        <v>6</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F17" s="26">
+        <f>E17-1364617</f>
+        <v>782381.20000000019</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>6</v>
-      </c>
+      <c r="A18" s="6"/>
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="D18" s="13"/>
       <c r="E18" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F18" s="26">
+        <v>2202021.6</v>
+      </c>
+      <c r="F18" s="12">
         <f>E18-1364617</f>
-        <v>782381.20000000019</v>
+        <v>837404.60000000009</v>
+      </c>
+      <c r="G18" s="27">
+        <f>F18-F17</f>
+        <v>55023.399999999907</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15">
-        <v>2202021.6</v>
-      </c>
-      <c r="F19" s="12">
-        <f>E19-1364617</f>
-        <v>837404.60000000009</v>
-      </c>
-      <c r="G19" s="27">
-        <f>F19-F18</f>
-        <v>55023.399999999907</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="32"/>
+      <c r="A20" s="6">
+        <v>7</v>
+      </c>
+      <c r="B20" s="14">
+        <v>45261</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="15">
+        <v>42000</v>
+      </c>
+      <c r="F20" s="12">
+        <f>E20-20000</f>
+        <v>22000</v>
+      </c>
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>7</v>
-      </c>
-      <c r="B21" s="14">
-        <v>45261</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>8</v>
+      </c>
+      <c r="B22" s="21">
+        <v>45293</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="15">
-        <v>42000</v>
-      </c>
-      <c r="F21" s="12">
-        <f>E21-20000</f>
-        <v>22000</v>
-      </c>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="D22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="22">
+        <v>82234.2</v>
+      </c>
+      <c r="F22" s="12">
+        <f>E22-70000-4181.4</f>
+        <v>8052.7999999999975</v>
+      </c>
       <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>8</v>
-      </c>
-      <c r="B23" s="21">
-        <v>45293</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="22">
-        <v>82234.2</v>
-      </c>
-      <c r="F23" s="12">
-        <f>E23-70000-4181.4</f>
-        <v>8052.7999999999975</v>
-      </c>
+      <c r="A23" s="11"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="27"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="6">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B25" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F25" s="6">
+        <v>29641.599999999999</v>
+      </c>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>1</v>
-      </c>
+      <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>44573</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="6">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F26" s="6">
-        <v>29641.599999999999</v>
+        <v>52362.5</v>
       </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>44954</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F27" s="6">
-        <v>52362.5</v>
-      </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7">
-        <v>44954</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
         <v>20000</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6">
-        <f>F27+F26-E26-E27-E28</f>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <f>F26+F25-E25-E26-E27</f>
         <v>32004.100000000006</v>
       </c>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Sr. No</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Vissu Virgincar &amp; Sons</t>
+  </si>
+  <si>
+    <t>Not showing in the records of the vendor</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
     <numFmt numFmtId="164" formatCode="&quot;&quot;0.00"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +227,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -285,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -405,6 +414,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -687,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -701,13 +713,13 @@
     <col min="4" max="4" width="32.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" style="2" customWidth="1"/>
     <col min="8" max="9" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -727,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -748,7 +760,7 @@
         <v>55401</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="35"/>
@@ -756,7 +768,7 @@
       <c r="E4" s="35"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -777,7 +789,7 @@
         <v>39412</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -795,7 +807,7 @@
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="24">
         <v>45294</v>
@@ -811,7 +823,7 @@
       </c>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="24">
         <v>45323</v>
@@ -830,7 +842,7 @@
         <v>154403</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
@@ -838,7 +850,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>4</v>
       </c>
@@ -856,7 +868,7 @@
       </c>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="24">
         <v>45308</v>
@@ -872,7 +884,7 @@
       </c>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="24">
         <v>45311</v>
@@ -891,7 +903,7 @@
         <v>8105</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>5</v>
       </c>
@@ -908,8 +920,11 @@
         <v>9525</v>
       </c>
       <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G15" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="24">
         <v>45348</v>
@@ -959,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Purchase 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Sr. No</t>
   </si>
@@ -170,13 +170,10 @@
     <t>I-C-1-24-454734</t>
   </si>
   <si>
-    <t>IPS/1965</t>
-  </si>
-  <si>
-    <t>Vissu Virgincar &amp; Sons</t>
-  </si>
-  <si>
     <t>Not showing in the records of the vendor</t>
+  </si>
+  <si>
+    <t>114/23-24</t>
   </si>
 </sst>
 </file>
@@ -187,7 +184,7 @@
     <numFmt numFmtId="164" formatCode="&quot;&quot;0.00"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +217,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -413,10 +403,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -699,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -755,213 +745,192 @@
       <c r="E3" s="23">
         <v>55401</v>
       </c>
-      <c r="F3" s="25">
-        <f>E3</f>
-        <v>55401</v>
-      </c>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A4" s="9"/>
+      <c r="B4" s="24">
+        <v>45355</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="23">
+        <v>47466</v>
+      </c>
+      <c r="F4" s="25">
+        <f>E3+E4</f>
+        <v>102867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>45240</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>39412</v>
       </c>
-      <c r="F5" s="25">
-        <f>E5</f>
+      <c r="F6" s="25">
+        <f>E6</f>
         <v>39412</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="24">
-        <v>45294</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="23">
-        <v>64900</v>
-      </c>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
       <c r="B8" s="24">
         <v>45294</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="23">
-        <v>34810</v>
+        <v>64900</v>
       </c>
       <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="24">
-        <v>45323</v>
+        <v>45294</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="23">
-        <v>54693</v>
-      </c>
-      <c r="F9" s="25">
-        <f>E7+E8+E9</f>
-        <v>154403</v>
-      </c>
+        <v>34810</v>
+      </c>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="24">
+        <v>45323</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="23">
+        <v>54693</v>
+      </c>
+      <c r="F10" s="25">
+        <f>E8+E9+E10</f>
+        <v>154403</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="9"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B12" s="24">
         <v>45307</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C12" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="23">
-        <v>3472</v>
-      </c>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="24">
-        <v>45308</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="23">
-        <v>2877</v>
+        <v>3472</v>
       </c>
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="24">
-        <v>45311</v>
+        <v>45308</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="23">
+        <v>2877</v>
+      </c>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="24">
+        <v>45311</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="23">
         <v>1756</v>
       </c>
-      <c r="F13" s="25">
-        <f>E11+E12+E13</f>
+      <c r="F14" s="25">
+        <f>E12+E13+E14</f>
         <v>8105</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+    <row r="16" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>5</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B16" s="24">
         <v>45321</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C16" s="23">
         <v>1530</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="40">
-        <v>9525</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="24">
-        <v>45348</v>
-      </c>
-      <c r="C16" s="23">
-        <v>1693</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="23">
-        <v>28000</v>
+      <c r="E16" s="41">
+        <v>9525</v>
       </c>
       <c r="F16" s="25">
-        <f>E15+E16</f>
-        <v>37525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>6</v>
-      </c>
-      <c r="B18" s="24">
-        <v>45330</v>
-      </c>
-      <c r="C18" s="23" t="s">
+        <f>E16</f>
+        <v>9525</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="23">
-        <v>13500</v>
-      </c>
-      <c r="F18" s="25">
-        <f>E18</f>
-        <v>13500</v>
       </c>
     </row>
   </sheetData>
@@ -974,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1184,8 +1153,8 @@
         <v>2021558.3</v>
       </c>
       <c r="F13" s="12">
-        <f>E13-175496-500000-800000</f>
-        <v>546062.30000000005</v>
+        <f>E13-175496-500000-800000-200000</f>
+        <v>346062.30000000005</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1215,7 +1184,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="12">
         <f>F13+F14</f>
-        <v>769650.3</v>
+        <v>569650.30000000005</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1286,8 +1255,8 @@
         <v>42000</v>
       </c>
       <c r="F20" s="12">
-        <f>E20-20000</f>
-        <v>22000</v>
+        <f>E20-20000-17000</f>
+        <v>5000</v>
       </c>
       <c r="G20" s="27"/>
     </row>

--- a/Outstandings.xlsx
+++ b/Outstandings.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Sr. No</t>
   </si>
@@ -116,12 +116,6 @@
     <t>Namrata Rubber Product Pvt Ltd</t>
   </si>
   <si>
-    <t>VM/10538/23-24</t>
-  </si>
-  <si>
-    <t>V M Traders</t>
-  </si>
-  <si>
     <t>b23-24MQ310</t>
   </si>
   <si>
@@ -174,6 +168,9 @@
   </si>
   <si>
     <t>114/23-24</t>
+  </si>
+  <si>
+    <t>b23-24MQ408</t>
   </si>
 </sst>
 </file>
@@ -689,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -737,7 +734,7 @@
         <v>45328</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>26</v>
@@ -753,7 +750,7 @@
         <v>45355</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>26</v>
@@ -774,163 +771,142 @@
       <c r="E5" s="35"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>45240</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9">
-        <v>39412</v>
-      </c>
-      <c r="F6" s="25">
-        <f>E6</f>
-        <v>39412</v>
-      </c>
+      <c r="B6" s="24">
+        <v>45294</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="23">
+        <v>64900</v>
+      </c>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="24">
+        <v>45294</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="23">
+        <v>34810</v>
+      </c>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8" s="24">
-        <v>45294</v>
+        <v>45323</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="23">
-        <v>64900</v>
-      </c>
-      <c r="F8" s="25"/>
+        <v>54693</v>
+      </c>
+      <c r="F8" s="25">
+        <f>E6+E7+E8</f>
+        <v>154403</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="24">
-        <v>45294</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24">
+        <v>45307</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="23">
-        <v>34810</v>
-      </c>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="24">
-        <v>45323</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="23">
-        <v>54693</v>
-      </c>
-      <c r="F10" s="25">
-        <f>E8+E9+E10</f>
-        <v>154403</v>
-      </c>
+        <v>3472</v>
+      </c>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="24">
+        <v>45308</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2877</v>
+      </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="24">
+        <v>45311</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1756</v>
+      </c>
+      <c r="F12" s="25">
+        <f>E10+E11+E12</f>
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="24">
-        <v>45307</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="23">
-        <v>3472</v>
-      </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="24">
-        <v>45308</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="23">
-        <v>2877</v>
-      </c>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
       <c r="B14" s="24">
-        <v>45311</v>
-      </c>
-      <c r="C14" s="23" t="s">
+        <v>45321</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1530</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1756</v>
+      <c r="E14" s="41">
+        <v>9525</v>
       </c>
       <c r="F14" s="25">
-        <f>E12+E13+E14</f>
-        <v>8105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>5</v>
-      </c>
-      <c r="B16" s="24">
-        <v>45321</v>
-      </c>
-      <c r="C16" s="23">
-        <v>1530</v>
-      </c>
-      <c r="D16" s="23" t="s">
+        <f>E14</f>
+        <v>9525</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="41">
-        <v>9525</v>
-      </c>
-      <c r="F16" s="25">
-        <f>E16</f>
-        <v>9525</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -941,10 +917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1062,320 +1038,336 @@
       <c r="E7" s="22">
         <v>15389.56</v>
       </c>
-      <c r="F7" s="20">
-        <f>E5+E6+E7</f>
-        <v>79057.64</v>
-      </c>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="21">
+        <v>45358</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="22">
+        <v>168741</v>
+      </c>
+      <c r="F8" s="20">
+        <f>E5+E6+E7+E8</f>
+        <v>247798.64</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="11"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B10" s="14">
         <v>44841</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <v>64917.7</v>
       </c>
-      <c r="F9" s="12">
-        <f>E9-50000</f>
+      <c r="F10" s="12">
+        <f>E10-50000</f>
         <v>14917.699999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B12" s="14">
         <v>44861</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>2689515</v>
       </c>
-      <c r="F11" s="12">
-        <f>E11-2512515</f>
+      <c r="F12" s="12">
+        <f>E12-2512515</f>
         <v>177000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="J12" s="10" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="J13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B14" s="14">
         <v>44902</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E14" s="15">
         <v>2021558.3</v>
       </c>
-      <c r="F13" s="12">
-        <f>E13-175496-500000-800000-200000</f>
+      <c r="F14" s="12">
+        <f>E14-175496-500000-800000-200000</f>
         <v>346062.30000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="21">
-        <v>45292</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="22">
-        <v>223588</v>
-      </c>
-      <c r="F14" s="12">
-        <f>E14</f>
-        <v>223588</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="21">
+        <v>45292</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="22">
+        <v>223588</v>
+      </c>
       <c r="F15" s="12">
-        <f>F13+F14</f>
+        <f>E15</f>
+        <v>223588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="12">
+        <f>F14+F15</f>
         <v>569650.30000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>6</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2146998.2000000002</v>
-      </c>
-      <c r="F17" s="26">
-        <f>E17-1364617</f>
-        <v>782381.20000000019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="E18" s="15">
+        <v>2146998.2000000002</v>
+      </c>
+      <c r="F18" s="26">
+        <f>E18-1364617</f>
+        <v>782381.20000000019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15">
         <v>2202021.6</v>
       </c>
-      <c r="F18" s="12">
-        <f>E18-1364617</f>
+      <c r="F19" s="12">
+        <f>E19-1364617</f>
         <v>837404.60000000009</v>
       </c>
-      <c r="G18" s="27">
-        <f>F18-F17</f>
+      <c r="G19" s="27">
+        <f>F19-F18</f>
         <v>55023.399999999907</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="27"/>
-    </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B21" s="14">
         <v>45261</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="C21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="15">
+        <v>42000</v>
+      </c>
+      <c r="F21" s="12">
+        <f>E21-20000-17000</f>
+        <v>5000</v>
+      </c>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>8</v>
+      </c>
+      <c r="B23" s="21">
+        <v>45293</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="15">
-        <v>42000</v>
-      </c>
-      <c r="F20" s="12">
-        <f>E20-20000-17000</f>
-        <v>5000</v>
-      </c>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>8</v>
-      </c>
-      <c r="B22" s="21">
-        <v>45293</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="22">
+      <c r="D23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="22">
         <v>82234.2</v>
       </c>
-      <c r="F22" s="12">
-        <f>E22-70000-4181.4</f>
+      <c r="F23" s="12">
+        <f>E23-70000-4181.4</f>
         <v>8052.7999999999975</v>
       </c>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="32"/>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>1</v>
       </c>
-      <c r="B25" s="7">
-        <v>44573</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F25" s="6">
-        <v>29641.599999999999</v>
-      </c>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
       <c r="B26" s="7">
         <v>44573</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F26" s="6">
-        <v>52362.5</v>
+        <v>29641.599999999999</v>
       </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7">
+        <v>44573</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="6">
+        <v>52362.5</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7">
         <v>44954</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
         <v>20000</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <f>F26+F25-E25-E26-E27</f>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <f>F27+F26-E26-E27-E28</f>
         <v>32004.100000000006</v>
       </c>
     </row>
